--- a/sample-api/addresses.xlsx
+++ b/sample-api/addresses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\internship\solana-API-Testing-Multiple-Values\sample-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B73552-BAC0-4EEA-AE91-7B9FB4CD88C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F21685-7BCB-457B-9184-07FB854F75E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,2981 +22,2969 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="985">
   <si>
-    <t>https://explorer.solana.com/address/3DzRTAxToFUXPFFCWLbEYuNBhHvCaju5rhj2Ld1RgS8z/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GuS6AxizX95gwBgpXurcyhteLjPREjmUptJjHz2E5QwB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4136ApZ3uifexFoy3hNAUV9L9kPwfhEw1SGJFHG3jywH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/D1cakHAwYCxGBAjZZjYK9FVw5UPBKQXFnVstLq3Do7Ux/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3cs7T8UcmK1eW2tHKb4umNPEBhqT9X7kNdE43gfN9U1t/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4G42SnULRMtnSt6pLwtAp5hYZJAYri59Kmxe1XBpW53Y/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/91NQYH14BfoWfYBVGGMBqPxymTbR8heSt9TEKV83Z8QQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ECFiaJJZQ6p6d9JdGAtf27FJTVcDYm7WQjK98EiPEz6y/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FQ96egePow1KP1twHKXMW3Gq1gH8N8tK7MCw6jeVBC6k/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HVbJncemetZjMuseRWKWZB1em6wXn3BxjX9v36R9ZUFU/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DDmpZThZcuTzbRcHDChwVtJpRzUNNSKfBKDbhCHRoThP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9euDve9ivtMXnrHgd4wMUVeoU5GDv6wrNUYqcgyzGTr4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3s81kXoek6jqV51ABS6hEZGB5hzjgwkTzpU6fbQwuTXa/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Gab3vDdqghiZnbLwD3KVqoC4EAYQx4KVwFbRJgLVTL6J/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/325CzoteGrmydq8yrdqF8meQYMF9SzpZFyDTANyEqv8G/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6bBZtLVGbJnqCqJsJHJngMhL7H3otLJRPMwzfRgXW4gP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/91FXX9SFhwPmhft5VoJqhLGMDywHQLyLxRuP6M4NNJdG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/D7DoJbNWHgQawnNqxD1rj8HjgQTXUozVbuPYN8AwxZG4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6HzGxmXbomjnmmGwna2ujGsyq8FbpiJooLNxAS29CGs7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H97q8HNLoMKFbHNtZfZwhevZZGhQVf9rU8tDz4iYFfiM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3z86BGwxtvGGnU6fBT4UtQgC4Wo6rvXwZsK5vjxVLWxz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HmsGtxpcwMSpYq3ChZiU6Q5EF3v6fhFHJgkVydV5igDu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DAy4wzr5c2WyuuqEPVz38pc9sNi5tzN7Kyc7HmGgJ48z/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EvJqM1iTJnLVxXgNwLHHYqUMD6ZLhQeHjtQ85AZqas1U/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4pktEdzVPRgq5jmZZdzW7PFAy3zXATPbzM9hqtbSdV3a/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4bur1TX3WuyC2EbMoogsCEGjqmocfbDhWmxF9fFAwBjF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AH2L91NSXZW1M2MJZ6rx2nMypzAikDgbYCtyWUmRo8p/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Ejm6R9uedboqZ46Je6QcQMCZ64CEbpxCNr8f8qasiQzV/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/61aFfeGSakGG6P1Vi3HFfzaQ3p6xWJLDr7sSY9g9V3Z6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5XHS9HxRHe1pXru9krj7EY9oS4W6ib9Qq1fi7qMyQzf1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/F7x5LCbyQHowwHAL4HbntwwPx2tVKUAzQyPegy6rF6CX/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DLewMyffEQuWfu3YzSa3P3D9bb73B2xH4cjT56NN6ZW5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Duun4f2Ycv2DN5vSTxuT2Lgf6hDogci2W1KitexZHjdJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/D96693o1scGMAWTgfri9fn6eF1VXyoPU8BSTBLLgXmze/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6rWmVRj6x5NC1cZEmVG5qgQHZESBjmrt6KcxKkPV6pJH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9Wow2Yv7LcjPSJjvJQj3hafCxRLBz5s69pYcgKXPj26d/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6oaBoXJBTpsGFC1kHhY8VEXMo5Gg5wzWtPG2Fbr1F1J2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5eUBDPwEfK3cPCFR5PFonneqBPZDDQm8q7PgnTFNTTSw/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/62U5sApvQGrVciKhfkQ9BARtdBq6ciE8u5fbRJqrc3wy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FYpAH7GXm74G9nRr26P9UexyTQkt9EixUiKmPStYNrGe/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EtzEyxdCywGVwsn5RVMCa9n7LB4DKFsZ5txAhB18hDhL/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B34WBHmhs3tn8NXfZPtxvwoXRqyeYDNF6hLtxvb4t7ya/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9CXrbpLDwnwavsH4pPMkFgtfcEuhaVUEaKqagy2d8abu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CV5QFbvpS5xtWRgZFazNv7SrTD8DPVe4qwv72YsAqa9G/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ERHv4zGBS5cM9Kyhhxikj5bPKRdhNbVPoU6Wq8i8AAmf/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Aiwhw3uQEYGibba7TdJVEThGr3bhiQJ8iJzLaZ45hRd4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ascipHgw14v481TW4YZJ5NzJ2pTRhFSJtprMdqbommP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2J3c6zBdNwyToL7sF5GJDTKVMXEbCwdRXqJAkgNDqM1m/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3A6gmMKVsxcXu8GA3ue441sENdytHncJL9iaM4AePQqe/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5Wp2pGmrRRB193t6tddKb3CsWXDZgsr1mYUmukEmtTSj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/75sMeHumN5bmBhGJc7SgKHHhF7TUFfQ52U3m7uCLdpQM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/14gAt79zhsBbs5peCaam7hZ6e3VtAJ1SjvU7mLr6eFsL/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8MfdhRh6j9fjdYhYnRycSmqLY2q2YDw9jCm5GJNEu1iF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/38FPEhvdMjaBRJf736SEYjLgBfGUUZ6Mt5ajbdskQF6r/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Dxz5q7ZoLuogsZWSBkTnoqWfXUcpGYduchfLtqXmqfch/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5yiXpZMfcUnQiygu3JTewUwtEZ6Gnu8pDEwiqhR3Hy9A/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3J5VFqHUZVs6yY32FHxT9XpumxUZn1ErvsEaxWQBfGKt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2K1L5Evd6e1CeP7Jb4EFp4DVF37syFbWGEHQk8f1ahgH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3WTVeAoUY54rXbnhLB7DYCFEtcnemtUj7NyZKV5JEoM2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2Sq7ZcbFuP3Pben5kRZAXu1ZASL9FEeLaBSfcsX1YNck/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6S1cJiGaubfQoQTX88kaPRXL5dWZCT6dAMJhD3ExUfnm/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9wTGMXwkcvfzx2Ls2b9uNQFKBDANv2xgQsfmswxpCwZL/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FdLgtyyjNQm3deZdJa1CW53yFjft4hUCfzdSqC8ehJzS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5ihUNijE1pGRJetGaS5xp54sqeXQvWLeMNbK85LaQsZq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7f1WBJa1pVoTv4nV96pK4NWHuqMNiwYkWsx2rn7Ytxc6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DZctmF5A58dovve71kzTfTjiP6bEDCCrJrnRyYLQvVEX/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2icqnTYptqnKyZ9XqkdchdrrdYZPRm5KyRWSEhhANTAW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BfMtkcFahnquqH1KGjRX9B1UY28EfVLHZWhkS2fGEMAm/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9woT1AnXNb3Qud9cKxr61966iMXb6hez4pzM5PXQvvmn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HDBXCTgH2oMHxnkPAbshboWEtu7H3zwgM3duWxmbEiPq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CtdSFvHgYrpE4fx5pQ3AdGwwHeSNEVCwzgsc5bYtBGv3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/97cKp5k3bYWFE3YcWPF4fypdZD5gE6NtWJ8ch85os395/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HGvcvHgTVMDZUPktkpdgk1Rw9B7k3nnQUrEZZrfkwrXJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/mpY1vrbGvy1E9Yq4JXbVZXEPg7YmXJSiqs8uTqsecUS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DgDe315iXZ67VNgwxFdiSr29gWQR5cDYAPmE96eVWmcB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DDFRjfKP6tBQa2kn2W1piPjbL7L6nR9AJB38dPcqLH7H/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AvK9wjQJ9R2xVgni9J585T3xttKHkTSiPaQTVSZVPgRC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GnuUFRVo3Ko9kBi8pBLqrripghCmwkmiCKTnmtMLVoe/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ChhkE4qPgKNoki8J1beYNREEeyyFsmDqkq6JJhKztLsk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BbhU9DLxh92S1kDGqXu5ePyByzB1NRTdzrMUZmPEy2ex/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C7TtCDP8ZkHBrHEe3yS57tEuFtwDwosFxJ7355RNgyMv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7FAhxpjnab5sbrigtzbQkHUiqgMjM5KL4uuJmoRmAqPA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CS7gYFHFhwscXqrnvqpsC3e97cabyHJE3cSnJP8WXyYP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9s6nReQRpbJdyM1XCwa1SS1F3oK6mQEPecqZJ3bKE1e4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ADVipmAFJSssxxqUZQVn9yqL4Pq8jA65FJitTTHdiH1e/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/42iUPdznuWgPQmpAFTQgxGdYtDSQESm5JJq8YVRb65yD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EHxeeMSmD8CcfjU3LLYYp9B6YqFCZMP3iczzoQyvxBUT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AyWVM1XyBfSzUguewPUKRRfrJ4iT2mo8SMU1TKcbAX6J/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B4zYpetde5K3rt3GuJPW9L8j6eJbA8U2vRSBERiP9hkx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/53iRnYhdPVyZMAw1bZsvgPc7Kx4Jr2rWdm6MeA3imxDB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HRTymbvTnMxSrC33FHJoad6Fsdn32Hnhim5e3ezE7ivS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AipCiUEiEe77hJ7iAt8pbzp7QMVDbfN1CxM1aV6oguip/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BoWQK5BWFejG4MUs6si4yqNavDLAAk3geCYQPNesLwm1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GG3dQ3LTs3aYY2rPU3aj96jvvef9cciagUCHS3REvGfU/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DBWWz122ZD4T9yWtwT6x4aFH1tUuLgsthWLiGn4pJFip/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/G5Ymx1tadt6u5stjKcWUJ7AGksXKpfxdbzJYomXLMUNb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8MiXwkhsV6wUCxABBWgDNQ4jFEdX4B62NSa2XbDz7ZSx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8khgjNKMtCPvdLD1yqqtVAdGNSV7RyrcXu3wWfBwQTdU/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/A9mkp6b1FYLfznf6Sd6jAy4EjskWeUV323Jfwd4MkDGM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4UmDHdxBGbL7dEXE9TZt9UmrfdrHKBb688SeCyh3GYMD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/93U33wYZB5Ksoc1TCMeQoX2FjyU54gTzopqRqxhDPAzJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Gap7Fpq8cAyzAn6475GcVBYb571HzcQrnTkD4QAQjKxD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5J2vL6pBqE8qZt5YvbuLqaT1HUaL6XoyVZm2maS75PjZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/44Z8UNDJpLrsanBKRxT8ev99KXJ7CdGkazEQbgEhAk5N/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BuxeVw58ryTPKXD6go4CQY1LXb4SeqzfizeLeUj11q3q/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7eZc8T3VBAswwudbAVDxkfBw8EMnSadKNay8JQY3dHVD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EhzcMpdP38UWW64FCEzLmqov8sHStVV5rgFw5pWXwfs1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4JJj2RGHZjfvA4A2ME3GNSD2qGASCioHcHugwfu6RboT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6eYoUnr8oDPpBvYMVUhC55FMe6tgfaaTQAJM5gCnCjFP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GgX9JEVSmgS36ZXr82ir9c3bKGtxcJzqLvMSVTh8EyUb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6aPGiwTZe7x8i2YGWRiSF7SPZh9Tfug9GGCTeogHgBTG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BeM8DYqnqwDiiAbMDxBwn6YeBirJyYZcgxyHx3NPv5c5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FcRbAqzMweFUFnjpMxbKVLzpWrXP5Chz8qhNoRY86EBi/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7B5tdL2TvUg53vGDV734XMD4FHJr8PfURAofcP5oamQp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FANMtnyshmUbg2wMUhvyssBrhthyFbgnxsEH18ce2e1T/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5ovJPzgFEhran2WLQq1N79iq45BLSmnbEEkJNjrDMeGq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5J67wuFbjeD6p4QhauttwYXX2FLfsu8SZ7kk3XxcnnWS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/95XahuMnRijnfCPNkSTncYngVzXJF3fomgtuwyKkZrEM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H9GTAy5hHRdChiDSvhprdz9pEFS4A4tpecW6n4tdpDYh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/264yYwaMpjhRSFzs2v2W9i5Sb9iDE3kqgbZ5rB7wCcEt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GhJSmBxBboiqKQ5ZqSU37N88XxRuyb56jQSYEpTmGcZP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C6LvfdDLKs3nx7VPYGxwZRbPw8fFd6DtYnavyRmrt6Bs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DSJKq17rSu2kGk2mfqQ1Ewea5M7nTYXQQS2PJM2Jbvzm/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HBcnuSzY8PUX6uAMeZe3Yo3pucS4WLXUcqFgepBXsvFK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H26FsmNXeetji284iQNkYktPbDiL64jaD9djTQQDpqFz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6aGxND1tWNzasvFifhSB6fuc9ZUHdh2VJGv5R5fC495C/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6jduH7M44wj4aes2F28egA84ZhCMxWDDq9aR6A6cNDtJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B2wRx1CycXeNLxci29s3aWL1hKkBP5RvvzYKkrq78hRf/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BuzYhLJ3cfLAnifoqLTD8gF9m2bs1DSscYnojAQchQno/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B1MFMYPdbY2KkETLhUn2D9Zmvd9JU6fnayf2FYjKrgSu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DzivcH4rVWZZXKXCs568Z8MR6wHg7g55CKEiq8QEoJRk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/98tN21uiU6v7wHmALtBtkP7ftMVBcTsy7WLx9z9u4qr7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6WBCNphEmt1g3x6Ayh8UfebFi6W27W2THJBbVdbW6HxD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/APvmYfWFXHgoy7PTsCeaqRmJYbUiUe2nCz5XFH9qyCuY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/82op2vAFSEeuWGcTDx1fThQDAaeReouW2YVS74oMd2hn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EqHr6xH8TYifcYCv7fCfiEV1jvWsAZSw6xpsxaBXxF8Z/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6HwU8U6r6Dc7Jo2Crdzw7v9BYwFfbWaS1gRGduLFxpbd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8UBxVj1EXFKfBuDU68raSvaHtERJ4vRsWa52S1pvqLPW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EY1KiCQBqkR4KzXcxcMTTiq6gP945rJA7h51tmhzZKR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7BxMfn65XpfZwame4TvnmZoEpG65PX2MSfeGUPpzPaRY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/853Gihscc2Xd9X4BRkFZGoy28u5ReD3DYiaTfBT4UefX/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HLVXVzaaZWYiEmydzmA2a9KTvBLmwCYomjitcMUgNREK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FYS9GR4J7CxukBNEbzLxTChqKdRP2nrEAqNA1vRSarHh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H86dhXEWW9oYTWkzFwnjWCG5nGVsAFFXwbngXSMeRAN9/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4tZn7GD61dNxhszUMGcZyrw4hmjcPP89q5WnKekdgNmo/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4wGDq7icaDz9W8GYg23vmcGkL5XwxKstN55fPb74iSF3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/szJwDrjuynCRYUFwHs1m22137aiBRQXo5q2dWrr7yNG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BffugBPsKVkXPy4w9Tczy5pGChEvcFi6GXWKvXvSVHZM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FXSb1ydeAXg24bntaGb1J4QTMgHH9ouUKBaKzPqiq8Zt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7dM4Kx8rsHKd1SVdz65C8UCxT4dTPFRguSn4N1pnFuCP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/D1GZydGwVqTpijT5Y4xibDrnQfDeWbQp1jdQvYZ6h46i/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9xeDWD1NeNNNLQREkHNyUMrBTnvxyLWTJ1xtESjE2rpc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7cSSRxsJNFVRJ3LTAk9U4ENUxx5c7bc5nUBA1SvMwZqK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/SMkhdampDFuAKx1NVHEWymthWUnXbdW62X6b6RHJgNC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8uu4HWhe8HnBF1zkwFFi9oBFfNTmmP8AJBd4C72Sg9Rh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8ezGBeBabJVQ2exLUWS6GZqQqwZXKkzykKKPvJYEjfxe/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Hkoy1VjrjkQuueVusZefVLWuibmjGJAMBi2bSDPFNRro/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4q9GVbrYDm9ibcNSaxAaGRmqYiknAjKgwVQp2TQmb1D2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Ae39N41HxFPPWKYRiiAjoNFdqzBjLbuniPG7KYCBnbfp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C9s5RyXZRd2UYAhaBJkfW7XTn7Dcuoy4KWZi1gpssqm6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/J6rjKexHUd426dudLzKfGGu9JPocdWRxuVKhUpyQdnQK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8CoSEUnpNFF8pqWAhyAewEGHMqiNgM86AgneW7SDzHnn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3YV5aXSHn9SoFkfPDxqeNfT4UknBDdQfev4qATVuoFK5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BeUzrcvKgzT9ym2MK7FQFL7fT6ys5x5fncTMaZag9bdi/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8pzWFFAtXe8SDgjKPR99dzk4uoSgWP3aDReH8tBetC7p/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BiLyiR9QiMSniVzySKQwim6dH2stKCvAeUeJCRtJiT8D/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/pkbabcUzGR32eqfkepP2nDRmeDyj9aQKhDd2qLPzc9s/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BdJAjWNXNNsjWSs9NuyseqVbbhZ9BdRYWoP5yJUqEiCu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HGtqCVWSs4WpaPXFbJwqUoLWMHfnV25HHmcdJiJ75nML/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CoyQxmPCBbqwLJKhbj5i4vU3ypCeTx7PS21BwCNpjH7f/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5d1iGHYtDzA89s7KEeeE1akMsfDNiFvRz24bLEZVgUkQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/56SN3cuPfeP9Pxwj85KqTTu2nPErVJwaMcG6RDsNwbYM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3eycP9kTzt97gxSSYaHepTVvdXEgGsm9KjsWtrjWz3Ss/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4WivBrG9NjrUkgJugGJ29n4P41LQ1VABsQTqevv7tNR5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8AD3BA64H1AkSEw6jy2oATpNUgTfBZ8DVrfRSNWJXZaM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DLxyMSe7sioKX45qj9idhyRxCzfxd5xW3J1PaSNJ3sBV/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8Zfmko8jvrFbpt1sjch9N4SgBs8t3xL5Rgn4wDimPw6z/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5nNkAAhhr3Zz93eVTGMAAfWqCvTm5z4BsRVvVcdk9wA2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FS6h2bykLkeZABjvoU4imtQe4YB83iU5yxTFY6hYzTg8/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DdeUuAt47Xy3iSpLNQuTv8DBFMwXTTqihSqCGy1UmpF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C3Xej6W1MQw9a3dmsz8Vci5GaC2gY3yHr9aLZkK74F8z/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2NHt5ScNq1xBvnrtVEMKGanEoLpjTZDeT4rG3idzYK6K/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AQT7av8Yb59z782afbrccZhSHtJG6vdgndMHnprLKCyq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DZw2wcDfNh1S5qZAY1vne9g65sM3yyu4UTH4b1mAPftR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6yX144kmyBko6nckFihv5qeAJxGuVzqro1ix5QcPfbeb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6Rza4Q1mXV2R2RFccRKn2scsfJanwsiEs1xF2sBnyzLF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/JDEPNATq1unhtqGABaSFov8MQxq2qCFALxveV6WXxXBn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CBn67cUNSnsGg2icQ6c3e94mcgKxg6rmHvXGmwGaVUjd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3HntmhH3358yuzJo6NDFP5bfKwcdq7WfN8vPrnG1quzu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B7sYLVFkWRNHNXku3Su83dCqw6G2kvcsUpCD9M1mdzZu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/S7mPzddkK7MD3uWPrAYZFhBkim7SajMy7KTXKyzyr8f/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CwMwkHKnCQfYtAeyyPDdrhmqf3ww1Gczkm3rLdLTEHTm/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C9ZDqqUp76mZpftTWBGYryxzyiYZ5wvBYyLKC24nCokp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HoaGw6Y4UHYVnPGx8ngFvuYn89XPVEF25fbMjzRxATim/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4DYRpJMeiPaztJX3kS3Ykdx1UFo5fBXHCRhRneDezJtY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4YHnft6Vp67bLY82n7W6gEwgfkEPZ2K8qk4U6buoeUdd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GdnZjJ5NkawtBuU8DorkJv7pbXWoPN8NMxgSzeAmYBTQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FBsLYRGAu75dLCxihtna1tspKJ6pExP1Dyht7X8WUg2D/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B77TePDw4ydEn9pXVorHDaHDqBUrf1rE7Nv1nynHjFFb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C74kkZb44RbH9wCCFgvxDnsRpsLeMNXTWR19NPGQ5tD8/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7CM9prCCK6bfGwuNyPYHMeQDtUirnBCyEFuhVATzkMkz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HfmPcis5qAbb68qYFgijhELaz24dECrjPRPVoj7FYZfv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BTbYQQaWb6d9AN7PvJhTsriaEmy9N3VGpm2wKqXYUyzW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7fJd8uAdJrVB6KhqKpHrjnGgKiDPqo8SZ4DfNsmg3AWK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7RKfjcGJTvcBCDD1xWeNfBPY1UDwggPkryMHRGrzbdJb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ZjYFcU6JXd3Mk8qu3TpZ5UA4rpUL7Nws2ytmuKaQnCn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6YKtfdQd7FhA8XgZWMFdjonqL5EpeqCVPxDL9KusxrQg/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/G3e8fgLdFvvpryPbxAnD5jPKuJrPxDn4bwYYq1zUZz36/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8ZVWkr16wdhrZwfjHH1NrdXqc4BtpFVGQjJBZBZczY8/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8VTjfdrBPC7agCkL3yN84RgVcQj8nf4j6YVPPtSyxeRs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4ztc7bfEAzoY9yC2cyJn7c3qW5KZXfS9zfLKToSDwdMm/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BsTXcfHYZUqwFRCgzgaR4i4KgeDL8a4E9TswwEuaRzHZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GGnGcmxnYHkRbyGYAJ7XzJxZTm9S7TE6zitLYdqV4wYT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HWo4Q6ya3yzGA6nBrpagd8AQUuBXUyt3NPa1AatU7WhC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5vuervfDjniDhdK46iUsKB8K79umk6AnzG3T1WfD6HBJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AhAM8qSKxAaP8fhfPsXn1hag7ZvWkrmFdtQEdAbhsAyj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FJeXUkAdhsTWX8FP4gM1tsraaPG1ZnvHG27LhRhFRcox/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2QcVFG7Z9KtyGBK6SbvZAd6AWUtKiNyoDGiD6Ms1BzSD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/668By8PY4K66xUf1DL4JFGY9ySgH3WVx1LvkuE87yLUZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3T7SBwnZmTy1wbLhXxBg1VaQnpfuLDGQhL4tCA1SooUG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8NPjMppMa7GjGi3bZ7AeCvQ2co544SLf9nC36b3GLdRQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GsJahHHQfWTEeSWMkUAs1EdVpR9ELpkEtNo8DApaashJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9eXxH5sVr4Fmvg5qmaUAmRXLiMKHz43eZBF6tLbskHRE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EdPt79TDuT6e3pSS4auTfmvqB5QgZcsJQHaztc6jSQBn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/98E596o5anyHJeBZ8cYp7snbqjLW1unkBCbG2sATwZ5A/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Cb1FgNLGDH3j6d7ZT4EJ3kfPf8G7TkUx6rr6tdmt6KPc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5nM4o5BrDDSCaqyKGdN96L4VWy1CaLV1y7NyCDnG1ev6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FYkMnKfZiauRp5LgtP1Uw3uUApF9HxoWM5vqpNga29wj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/RpbZcfnotNB81cJSnRjFFgW3PYW9tfnpSrZ6TZyquKV/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3uRMrvrQNNjozaFR4ZQzAGXGWpRtaPvff1Uqs2QC7QK5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GWzwdkmrXGdBBTbJZGmuXzEcw2erW2pGwhZtTP5MUQtH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5c3L6uLwetV9pZz6Q3GsTXm9JVgVFop7rRkwSYobmDET/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2ZjJfWRfDJVQb59LsHYqK8sruWMEttArnWrQXbyYs6Cf/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/NNmTd6vsKCnqzJRebhPfciBEkzZBy6uYcUyabVczG1h/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AvivawSooXh5rw69LZUjvbenRZvsvdZ2AGEjxiSNgrcY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FyphnZ1w9z8NgohroevRNiKuSQAuSPAZxfFtBKj98C8L/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4tBo7FxTEJjTahkDCeBd2aKtCcSEici3kEsNVgz6pjDx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2sgaRSCFmAkfmy564r6m1ofMhJoMbEgh66jsGaYX8vkR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6WG6hwg7rLNdAUSDoypuBmXWUzfnUu4CjPwFQv3hzzzz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4DjwKQfT4Lmr2vLZw97bJRgSPDCkabBgFCPMBWgxe2bi/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CTgvoYWPTPFP6MAZj83viY1Mr3D6sFvgjYXyFs1ipQkg/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B5T1gQZdqQ8U3dCthZaALjy8qwTfrSnFiuDmxXL2ZkcG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Ebae6Vih3ouQhkFHDg9xf1kKfwPbc6pjtqDpLHNuhZSm/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/49iWZRJYrtYqQAm5MzaRZxDARD9MkMUb5jpY85t7F9mK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8XuXkNWAu6t8K1Sus2NuhdK1ZCCoUT5TzhaqNd2EBeRN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3PEDpTfvAW4F1W79FmwD2EZranM6CA7tuSMNJ1ue43UM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4z324QKLWtjg1yy2r5RQGkS9NW4V5XzGcnxfouERvmXK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Dkuf5i1i9qm8M2ej9Tiw7DcVuNen1LHsuZi8JbmadZYu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ECXiXqpRDBfT9LEZgTJuXFXBF4BXdeZfcxTYUkLXpWhh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BtYjXECvAXjuvR6hDhg2mygJYxfFzbZ6Eh2eJdfxySRY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/n5oEMSzo9UeFXAwhb2SR2Rmj7eGRoG9YzCFhVigDeg1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CiVMwfW3HnMXrjctq34s27T8PkUGci7mVB9cFpX5Je58/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/78mtFUqAHmc55iYDxCaxhKVF9JKyatnrBc7sKBSaTAjH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2a2ahYH1k9pp6hnBD6deeqYk3SBdLAbUuN8e12DmzeXs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EmGSWbEPtbYVvJbE3tcjkvwynKQHBQEarWRzoZqzq4Ra/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Gy65o1iwX7R9hTV5tYBtJpNLEAtRx3EWMeq3mVVyPFR2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2Zq2hDyDX1w6M3WguWax66x2nZZGXo1EpyCY7yZwmkzR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BYD2xAPzosdud3nShoFr5QCkRHVaz7cEJWTkxvXdTsvz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/263zkMfcybs6TWnz1Erm22HpPsb9RXxoeZtT6EFiKKSM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EjGQkYQhUztYai84xWpqS9grmKZH71qnN2XAtc8NKrht/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4woozJkyHt7DcKaaSuQzkCawo1eZ9BF45bE7raPCeLGK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C7XESG2gfhzypFAtFUNTPaXomzSAzqxS7fLFm1h1U55D/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GciBZCFrY8AxgJ6YM2BvojhJARkN5yCDQLfjyxtr99ZL/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Gf4BbeXvNbcBZ1KKP5YMcjBXCcLD1yLkc25wxvkEajet/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DTbpBbJpwkTFQG3821zri3BbzSJT97kbo5YKiiUpomPu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/89tGAUuJjVeJJQvaXCUiKcAfM7wuKVtKWF5zRfNb8uc8/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6A2zVjtNDzc25TbLZrQ7qXA6iBSJ9sDzLQquspcqxDtR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/D8U84XCHx4cbT5J7t8GGvWp6P6JZJAq9DikpX9Svvw4K/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FRm7bxTbq6Nmc8XLcioTqVWsHGACBja5ZhUmPMym7a2t/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Dy9J23txQVf6Ca9ZcQ5AEWYYTP45tqK8xvWQn2uDaq8X/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BQGhsvE8PBZPTt4TEgn2LxownDYGqk7wTawEAkzLcZZs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EywRQfVo35ZMaSXu6fkgmTD55uFr8Qve4NQCh78QyQyG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BM737ur8f3XXafV3E9ymiyDnMW6MVNLuJZUfp1P23ESF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4VpNpTNFNEfhjLdmtAFgpSgWDHX5HmCLFFp8u58K3ufz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/81dwyH8m61J2iFzwQNJNC7YkFmkb9Dq5gXpVqRfzNfAe/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DrZxFcaLrunJcVcnuDmMNpKiGj2oSu8NiHyUxqsJhnmh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6cRkePC2xGZTHGJXBHbjFekh8EShJMoJrUVGomQDtAoW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9wRvUx77REUoCKKYYAoao92my7f59iV6HKAioHrM18rG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/iW6uXPfm8i2LKzwEJNgELscRoTYDtueS2SpvLcdrxxE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HKWuLPcnhpNqxFrScssLNEHa1ERyDrV4ZsjQbBtEwMfK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9kPuVtcRKWQMjTYUFhmoxcX7EVHumgk6QtVMYzWidqQu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ARf6mu8wDENuCJmC7DwmvPLgnJH5ow1eb4eigBfrop78/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DTtfWZp8KTaK8YrLzuKLuFG8DKYsextLMqFk5kQ6PHo8/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FwHweGXi3ZSGBFm8c1kPKZqeGUZQtUNNnYCtsMuiR8M6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/83BjFFQWXv9SYUQ9XfWgh3tsq8ozesc55RJXrotHE8sa/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Cc9AhSE3CdUQxd8ER1QjMU7mqnXaBEcrjAEcjsK9A1MQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8Rh2fPurzQ6wWZ69pZSCm88wS5VQS4JqpHDa3b683gRZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H5DWZKYRuik96foHpbhQSyngqUCTQwQjfBCfpcysbun9/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8qgbVCyAzn72mPCqwWmD6Nfm61GiHkZwRxyY87W6NecY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/J833tsD45StLi1hPFF9GXBEsLm4sygnvD52WjepR5xQb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DT52DjWFRc8YEGLy68B9kAY7KvMqhXZX5U5goV2UxFFQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Grb1EweVqgzSSNaEjvrvPUMgmMqEAEUzeHcteKowPBWG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7AbfUmR94CrPAQcWonaK72Fi2AeeFzjawPCNvVBYzQwh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GCH1wcUuW2ZVvEkeopus9S2hZimQR4bqrJfaYMFaNqB1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/D8498ym6UpQxJXmJrXa8qG7ra3FTBqa46LTMqFFdcDeF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FqP5atev7w4Bp9rdJHdirjc9Lv3fcSasPGREydY7NSMY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GJ829xS1Sva5sHStdKFodNqCmLHKKCqXrfr6iwF2UaGW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CFDmPM7B8LkTC9vJ2HB3zHDosCZeHgXgg74hFw932SBy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8By7eHrjAYSUBJ7hfxAU3QLmCQeDFCgkHKmZ6Y2HSBVH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Caak6m6F2cXZ8zFbwcbSTUM9oxhrBS3M5GKYTgoF2JJj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/gzugZ1dAQYCSCLXiHA9gUtAPARjvbKJNFEmeWbMZoVZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BcKssWrNxDZ5UPYo1McGoBot1V1DH5BF4oqjrZfhNPuj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DSLQLMXehdRhpRJjzqn6WZSyPpQhwSMPfdTzEzbq4dX5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6swgjWW37XGRbwgHrWUJvhZn8BweDBJFwBgwmfsMfhf6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BnRyYLz5RuUfNFWvjbU1A9Mqh4iLdcT6isVA9pbh3eUq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FrXQcM27q369EAR6KoXmiGVA2RePn7fg8HjHdvSatz8J/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CNNpXhKP4qdarTQzqWscjPHMwUdj2SAUNmMWM89z2H3a/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3Nb23iCjAQHh9DzTTbiraotB1DSEBGfjCbJRdAJi1FLJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4RgDm4FC4118BJcfCxzgvKQ4cDKhtkAj2UNQxqSadsh7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3qfCEqtUME4gzNa7GT5cJMgWHpMYSLUAunB388rwofo6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9h42xMeoNtwpjhHACVwJiX5uJ7CsDFcSeENrBZd9Namp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2kk2xfs6nX2PF3FyKnQu1MyUJM1a2stdfBDPF6J3Y3tx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Hwe4Jb8inufMbtCav89XFs4q99HStakue273L9QinYeq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FqjDJYXgRohXB8mV2zyWgqrGE6s7EbFT6CWhqwemwzTF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8GYJoqweKZeJvraShY6yoBxRJVjHpHC1SDa9TbHLqNjF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/68jKYkswjsKv4fkawNcoV4ESMt1HUftnVf5eQs3e8Jsi/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/G2aAoFwyFrX6Pv2PxDLodpL976a4M8VZa2GuenKE5Bo9/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C8ecL8wRvFeW1UQohKEbNiSWC2TibhKjFzYJeJu7s5BU/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EdPS6KGDQJE86zBWMHsWCjm58c3DAWyoC3WQHpvuLiSD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4kbya2ZNbnu1s6JPwfJ7P6hkiEfuDVWj3DvEoPgJk1Mt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4BqK7LDDX67Y8wCHTDUTeyMzxFMvuzdMJGQd1D3z6rys/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2x7kgM832T3kBLhuYHLxKnXGWZUPgSgyMevyP4Z51Zy9/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2oDxMR5SvFkwJvwV3nmcmxJzfLq3EvkT8CtRunKShy5Q/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/zf2ugdgb2ecn7DxL8adQiR8Q6Jhjo9ct748Fao7zLAo/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9MfeGYCcFZvPGryoRhBCbsnJ6eFad9RVmBCk3kuVKKrq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/nYhcW15zYtr9kr64B7KYzRnEjdLMiWmucucFztHnmvo/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C9eXdbWpPzCFZtr69s1xuHyeiaabYVCLD69zvUyumzy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EBkPitjGZ2PENVT6x1pB1qJqBFk7tsxSEATU3bswjLSa/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5YNhx51AipJ2omLXBa3Ejc5e3rCuGyKTBQmYs1bJpDEh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8Qs4dyhpZBZAdZX4oRDxokKz6kguKw9LgJTZqwLjkiL3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FyePwTr8aAQRgDMH73yzotH66VxjqYNnKk8AS31bNcPs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2yAygzA7CWk7F6qRsFcCqBzZZdd3gdVmqZLYnh1WYhzn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EFeY3uWCDX3X8TiAoyekencwPK2HPDonP8SZYLk2tDMW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FsEmqvjH4qwmgHt3587PsGm6kaZjG9GFGGmbt16ZUDQo/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GKXJ7RwdFgEMiZQYsi7zQkdf6kkZHH1VuvZaWVB3g3Xf/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Gj3JjnCoQrBNCBFPK3RNa3PAP1AiVMHQT165VSYmkUjr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B3yi8CiW7QwMLRceAcVZivZi2qqJ3YiBKVf5sbQKG47C/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AbjgWtsaPyB5KD45MEAcXWiL5S6m8xRDWs1A8Gy5JGbs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6k8Uei21M91oE7miUWaPxCuepxcnkHd8xHMXYLUo6KWp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5VEMcUauEfLADT6qTVcaesncTHHvzjbyAk87V2NJhkJE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9DqW8pbighRqpmXSwLkhBnebLQcSxjZ3Gb3n4oJ6Ebo5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3VT4HfWLYPtV15ztdzk3LSFBCqRRRgX9fiCSTxZF3Y55/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2kpSrAUxvXnuv38VEEa6tUHkKeSQc4anywM1gnamuxgc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2atjnK2Wefu4Nj8StuSpcKQdLERPpV9CGfhYHEEftdeT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/D6oPZuUMDn3PJC8DZsB8YZtick96uTiUyw4fXhBBnKEa/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Cu8Qnqmp7hjZLbQppk2mmBbDkqHhMxhnyDoYaSXvpSLk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2vzkvzRjSCZBMNMRzRdWrZJtHMWPzaUW6TQiagqycySX/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DLyo14heeX86gSy3FR8BbfXGVJd7dBTE5iFgysd3vAxv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8pMusJMeV7oHT1cqSZ7oSk32L9SpDRxazZW7QfkBQ97J/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2sFinnnFuGMRUzpYsy16n5U4uhPgYyCgCMzyEARsxoZP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FH2s2mkfXTbXKSXbDKYjreYa81CwsXka6rZ24G7WiidA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GGxL4SVa3a1JjqsZnKjgkZk3FxGdBduCj8asHG983RXB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DVMjJxNECkaZNqboTPd4RGdQ5Rg5hHAxaehGnRWDvvP6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/42Hw93Rk9hhNBvWtb9bkMTr4qFu6subj7UPwYzirWsYz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7G5TGBZWnsQYGqcek6gEAA8X25MWLQkqZFQnkT5EQsQA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9TYnZgh4ZH4FDKvohp4iaYBHhQWZdYtwq8tb7xpWnX6D/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4oTJmMkCdbuZ25pHLLYrAB33muRdhQoR2mEgrxqKR5mA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HgRaDyJzZZpjxpuTsom4TrbKrd1GpjAHXKwb2XoFuiCC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/79mfVAY39TZuvUcUMYTB3kLb69zLaMBehYK5ceCReWR9/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GUrERvXm4aLpCZo7st1tfKqeLd8rkhjYSC9cwV66Rs53/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GMU5mpdXFdbwMXJmXrcz6zPwJJrLzbkGg2rg7oS3ENz6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Feim4bGNtRgkJMnc5aPco18MYvwnDQzgxLpk8AJbzNNM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/74diyS6mUiRbtVpka6z6z3FyekLXDwc68pmjdw9MVAPu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BiZs2egQnTvrWXMLYucr2abp2DYzA6jfNWzKUUANjoky/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FWiJ6CXKQUrCz1kbXWMA6KLwvwP6NL6UisWwt6fpZ3e3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AACNt5SMkQ77H1LAwcZVsKmR76r5BF2vhqGLUfJHV1uk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H2RoTTpVVUAFAtZu96DGx4PNjmWWJa9F74c7P2nPoNzs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DbuRzaJ2LbaaNrXCWTTWtYj7zp6ENa9TgmKMQiR6tymv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9Z38aKMTKPstV27Uy6cuRtSwfCp9y7w39XUxGWs7tBmw/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9rAGboA73RgSQMGsJCUEnvY1KAEfLqEqvLbgn68tMekr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Hjepv8PV9JEfLEvKVtCKQLHU95xxttKEx1YdoT7bqh1S/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9gAxqvfwUZkeXWHuBSkCoHDgAwBnyTtZ8jbkyQKURk1B/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AkJ5JExuf2RwaQU4cHExB7bWsmMn1A1oRgZ7PLxKAh1g/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EomqEj8DQoSGowePtcD1qunDLEZmGy759JGbVRZ6VKMQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FSPJtD75J1a5hrAu5pEed6HyppWAa9WnPUyikohGYivp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5Ni9KsATEV3YufuVTPtGvURHRjTPTejFtvDLcmZyXFtS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7a8by927L6YGwsczMnBbcfC9JPmCHdRgqbcGqwzg2wAV/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H53523RpqaXz8GtMiUeZX4uzxRRakDJGcTSWZe1nspsr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/E7QPXqz2wYkYzAW8a9me8NofNdk9pJChRtYS3iYmYbQq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7ham8NDDtwsofDy2WrGWLpR1tbZVQzGpWSS2w4iwfRes/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/E9LiW3icKM5QnUg8icjkGLXAADAdkSzU9JztoRNPGKjT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/E36p3dESQengvMq8U6ozvRdVoV1qVnkNqmhWVMgRrph3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AMwHiaviQy7HaiiFb8EaCh3gEVSQDNY67GHYx9zwR1zd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8X5WCiACcYb6NaRZwwFAGdsPrHEwNF2CmT7uG3VZSmaB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/94j1ieB6bwJyXT26qNUgbXQVnV1VsjDjXZRrazKwhspU/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/85ERrNc9TVTFxoifUpsPJ431f3TVawTcJYutf63wv6YB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5BRrohDSX3eTjQymzbg2cZqT9zrvPtc9kayYcM3iQSAq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Bha13J2LHsHPGkBhKdQV8HPLqCMXBNqPsyYiGQMMHJfV/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3B4F5XdSz5ACbrDgMSpcm52aFVF7oUeXjog4FiCe5e5e/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5e7aL465f3FZhauaVdrh74dSJBMvVU4iHbzqCxYpVkgN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BbVTr8QcTCgBf3keJd9WLvtfRXsDv9aUnHhgLcy12Rw7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5L3AAwgSVfSdAg4jGSL1FAGQVRreYJPSjmHabaeAZdv2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/JsgU5QP6XFPTGxNqFFKuy126F4M6hJxnJzVUhLKaa3y/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HKxSYzG5VRVR2SR52iNNfYzGBR658i92D3s6iQierEq5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/bFV6VVoaxK91t6qSkZ2hCNStDGD7fjmY9dBB9N9mhq1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DhshMg52qdZ5YgAvZ54XTaxvRUJiojMiNqtmADWQL7YD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AG18EsySzAycx1FZHGvcoks9jy943CMQ3cgEFQT7xFX7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/G1Sy9KTGtdkkrbLh1sRtbX21eYpfPDS7uqeFUeE4Sa6S/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HuQb7bQLrsUSaGMBTTFQ5pWPyc1o1dUQn8StKZBNbfZu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CpardJQbYDhMjmvRdXLHosfJ2kA8cEMZZZGSEVwy5VtS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BYjECSqtG5NfJEotWFBcKEYXZCyD8Ld2QTYG71XHcyrC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CWpYLMP4Bp57Noc3y8ELotAxyMgNkJqvntRiq8vvNPjf/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CMRevRynwZFgdSWbq4WiHE1H4XBFbweLaiYCmZbBfnMT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BWvJpAhxzfFXGqW1ocZHibDkVYsitXFRQmECzdDTpDba/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HYzv8Jdhv9wx42v9uVTyMnQqT2Qb2sd9ezs6uYZx11g8/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/29QKu9wW36kppAk3SzH74D9VZsY8bbSswdy4LnS69iNY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Gzy3SX5sERRGj3mF92Meuxh3zzus9kDid5Zi3aAWrthx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BUPnGaJssHb8DRFPQfcZ6U5pweB5fYacnfoGQc6ixhBs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Hv4R2HmVziY3J88T4bt3VgvbsvaMYy9u8xagwy9ip9Ui/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FykgLG9yhDVYfLtixjo3QiMxmmLSASTYSRiN7CZDoV7c/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EzYzZxUtn2N2fuq1YbKzBtf5FDV9gDRv22oDbnVfvXVc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Bh7aLhdWhmUKABzhBSLhp6QprxQHqua5nZWcHQ2ucHxz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CDGHKkfiUkiefsWrNSdP5UbcnVDqiDWCWnGSU6Kt1ozy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6JhfVtvLPTZKvmizuZce3rCi5551f3aCg8h2JyKvYwyE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Mk6fJQt9afDow36QhyQQm7pQmL4P4QGNwsnFfL1Lwuq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4JsVK4WtYi3sAgMGxySkUp81hh4CEMrATRCQjif8f75g/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/hH4YeUKvffUT2gDw5efeXhVYDHxaQ4Mu37Wk8ALFjW7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8vqVgFF4xDiQVVyCtmXBVx83wpGMup5nHX5CTiv8zKVk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EiCQeo4jgCnLjcwGoPvLcD8TqBjWutnkSoFd9zEfNer7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HWYnVFZoDoSFignvevXVNvYMXpuofjkQVtfJU1o5jYZo/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6v8Pgn1xE5aF2rrUeJkfRTRPaVjxYGNWiQ8SMP97ovps/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/25x6f4G5ahbFt3Fd9YxzvfiWF2mNfVK9E9TpiVMMNRFs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HNvdAmw9jKpdzsVnscBxQ2t99bD9hwhqcVMGs8HKXLSS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CCjbaA6FhGZXDd4QsEsM2bfhJHq4GqhzSah9CDqorjR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ErG8Nu8yuE1XfMX9NipCVcxpkeZY4iMQ9tcgBj2YZPaN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B47L9NqgsW7jp4j5otGPad1icMe8Peb5UoVFUM4xM5Jm/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9QEXQAwBSf7seDLonZWdXMkCwDB6eP9eGGW6EkjtSaZp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/J5KD6hLcBzdWzYTYLEP3VrHPFZhH2zhcni1hk4PNFf8E/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4vYi88XeLKgUkQHujmHeutcoxwiFyGPAYxDxCvTXF3ga/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/T7bxfFZGfMEMhrkz5XmG56yzTG8TDbCYivFVVmYoLrM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EqtkjHcEerZA8TfE36j76Tae2VG6y8mfFSiknLDJHnW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6ryF5U7hYE6KHjhqQz79T9h5y9218Cyqo2mvkNPLhSiW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GMcBNvwFTYCjTAXjQ6vFSFyqEUMRqjjv68xPi68bkUUo/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FcHxizofDkaDkyptSaZQFqiA9aC6ByC1m8Z65bvkQx22/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AsVy5gLDK7nPYHepnMazdMGxExiqJLk6EHfEJdTSRAva/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GLj5ZQcReLg7CWfwAx8opgHREqNeZfDzoF81ikVBNzPN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3N7AGur2Kgu8mwkdSC5TuAEHYx1sfqCTfTxLqvXokXBA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EZDiga45KRm17RqittHtYzWzKCQv5fm69wrhrx4icfLt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/zHa6Qja1LDUz84jpRiDZoV9gwBXETEGyua5BbSUXFqk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8LUFqfyW658h3czZjJt5voNNPN4xuC5iLoeQRakHguRh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/475fseHr6GdW9U9yrrHqhxNwbAwuScwx2dtuy8gcmEb9/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6fvtgUAw1ZHB9tU49Ur53egsVesHP9WzGhQHDvv8YXXX/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/26ebmr5aNGCawpxBEibHQKU7Y5k9P1jFcQpHaC5Ecsff/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7FPufKzFnmi3pH3HxUpc9DD7MwhCYHSysJHfywryquvp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6wvzTaVKUdtJoqtAPhLJMtPkAZxu7ePqBUmz8QrwwHph/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3Wz8MNEUBVNbPrVFwE4i1epgZ32e6a8EhTN3tf6BgpoC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7AbkMutS4We1kMG4Yj6GeyRKV18q5XYb142J2gxg1QDM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HBqKM8S8mJb33kD9BCKBAqxHQWE4DPhbVEFpNyovosP6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HjB2yi1riudhwwQ1WRQJbvd3jUUdeq5aZHfMh61TkJuk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GcR8PFSx5FDk1vi4viQkyi8XBNtifCHkizB9TeT8ACd7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AuUz5G4eGfTyop71Qv2KGbyD3pFGtNwkkvX2btLw1TUg/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HxeunrZUHyaL53LYeidiDScm9vs92jTeYe6ah68x9GKs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4ERUxbAKPVCa7uzSqAhQTbXZhdeqipY392R2qgb2ZBhH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EGYSaxfxsomqGAkigfo6NeqDYVvu2NoKHAHvyXUMRmei/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/87QJZENKVVh39NYpjibhZMm8CPzSLVGuR8zWyA5Hp2rb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BY19BYrbHGJq8hX2XgUvQDdBSo5uohKCFpcuZfXhUt5A/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HkvxctivJXx6rhmBwB4K83uUvbfMfXuT5W55fC1etaLE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B27qhnFjsuMJHQtkypZUVFnBYFPo5vQ1AbeFneRbHfz4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AkxkqhsVf9aiTRqtQSuSqwcDb4ECSdZo7PRW8kdVTzNf/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BYBYt9hjM2DKHcczUvpUjwQgYSTCjPXKqx3g1pdHWai7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HTqgnMwLKUTeXcTrhe7EmTJ4JkCokCE34Yq8ExbgyeSb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FTsq19Nayx1GRZzEHJqFKDYyMKMSfERV1XfBsYEsp8RB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Cq9GW4UsNeUFdKNpsPQfGxAeTeuhM3rN9B2v91c4M18K/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4m67vXDTt8TQBXBqXfqQjtKtHjXdEiGpCH8qGsY3vEAA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FzPTUv29382as9yo84FtMvP3PkmJPB86wXLbGA7tAx3F/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/E51fTdzaqD4ZFnm3FPzj9twNzzJ6L8LqTPJKoRg5hXb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9K8UWkumq9d9U4dDpAma3yDUkB3t1MFcQcH9sEqL8p9U/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4TzupUnyy6TLbCgpEdfV4xeMvV3NZojTiHzFnqzVjkaF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Ei6UCaJf4N1Kpxp23xtQqU1u2dFeKLhKBn24b2fy77vP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HDA5J3rY9e9B9Ww4AVc5PQ2j8hsYUBuMdEW5GqnffhfG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GPyPLecJGYdnpPcwy9oZw9yQEnd6ehULNeSHnMf6PfuQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5seGjHejXdMj7PCaar8WThvkUSRXFz2yzXuZzTBGxVeT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/F9ExVNJKWg1n8vhZ8Rm4VDi97bTsp6MGaivJXRJqrQWZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GkReQWy8FjPk2o4UZR9MRFgTkhcfubUMLRevABFeH6zv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/584dqnY9YWKzwXPYf7URuZSYddgu2P6TyMCJW5JHntHn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6K9e4NfJPeHZp7omxVTYKVTuJhi28PJfqt7UGfKy8ahZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/1ge8AWucYmNF2BJwwCNSZBKNruPDez1jqFeVWC1VusE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DZ9p83CVGL7tZMbcFByuZkpAVpspz3sa7pCnXoPnjGhk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/APtgN5N4wgm63wSnAGZrmHTRMwXec7ofhTuNR4xE8vR6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8GzjjxjD1SEn4Ux674rvy3SmJBYubxHAzmEi1dYHdahY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EdypCv1x9hpg5hW2Ucc2GPemP3MtbAYoqwDa3oeb9Uog/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CMrhiegawTba1zBt1WVKoWDeR14urBZZKjoGZ4Kd8RxM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CLEJpmwNvZitud17XwfsXiiGdT5qW1SqrPZzaGgePP6a/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BrGzQ56cLnQQxc5TEVtukEmPDGKsf4FY8SfXPseiBEYh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DAhTCea4yYj56vHRuihRvmDuoprMNUWdc5N4n4LuHrqP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EHkF7V4WjGANw44pjdcSDHx2uqMpAbAXqh6D7r4Ajaxh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CEZX9PbNjoLCd8S1nFTvFe2uVoZujYftV35w5rAcswZs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BkxWCrLWALDi3Jw68pmwp8rSkscF9xt7UkVdZJpvMPkW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/77VQseYt46wF9QxRhiCBC55LQeuVK4AXdnBXu84swuHe/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BrXoUoaWXQfiKzRitQgtoMqdzWd9EY6Vs8vUcTTKswpx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/84yBDSDZXivULnXRPefB2eAeUR1hBC7ut4UF2z9GRykA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5PTZFvb9jkE9Wr6qLYUkJp3eK5Hhz73qxCi57B1eq6Jr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9BSQv1Fuf5q29TnTw7Y827DoWze2n3DVwCMRnuZAK9Kg/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7HgoJBCjNYa4n3LGQT4nYHVeqncGnDV3R1BWa7jCBkXQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Bat4JWWNxXfp25q7k2Yt5dPxJbcKmupM3kcEs6WQsHbv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/x2iWqhhiYtbCeU4supTzqJefGrdux1rSzwTbG5soJnb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C3AE5XTVCKteKWzY2E8xE5G7KvK5dPp1pcYCTpHasRwR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EDC4pipaZHKYDHwiJdYN9EjkRVJZPBy6DyVpZcC8JX5J/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Diu6a63pVm1rTwje5JFCoRLNV6XaKc3XgKXvBNTDGLXi/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FSLLAos361hXthQbpsuhbE97r7FxaMVdFPYLVS78SZTJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Bc3YnPgmPFhu4yGuX9G5wqBUuyKNcfCk6CUxQ4pXmb7M/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EmZPGjC8BJn9ppbaNfDbSEWteY3VvnDNHAZGRqFGcY6a/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BjBTiJeqsS2GtYLkq6PVHScntuKdXgEE2rst1SfZzZmB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6hdL84w31wwUJBXUVuQ248nnrJJzYuguhaZ59yGW19C4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9fGxubx4G47Ezg1hwxNBiK8DPponjKvjoRkfib9afCAM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8iTiBpLoCpXHjznnvxiUqFWTNPEeQAigzPqftB3UAnSP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BDUjhqJHrZz2KHN2kQ3Dt86ioDinv8L4MynUi3HFh3J2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HdbTCSdmbkq7oTcBCbU1Pun6jNCJrtoxKMaTBy7VWjhN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DCpvgHi13rWLPKaKKGepGguersJkjYCThSS225XZ1gqs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/G4jA5Wk7jafEdFN5mtULe3U4WW8EN8dWUXRDRiTx6Aba/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4NZPig3uRm1akPLyTmwfbaPJVAV1hgXHXvAgfJMnxQ6o/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/534tX2rqyfdfuL1Gn6SnpFqGcFCSyAfqHv9p9webL6K/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/F6x2jLZ6865VEQJiPJjZWBXFAHtmynU9MYQRfRTGKAhS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4Tvmr87ixgM1FG3cVmsRLzWqRR75ZLP2bT3yDYqB94tE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3Y83JJ9UtNH6jASgE9rFyCzCYYC6DghHvYLTs48zcTrc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4Vm3kEWC2JmpfzGFEdvjqTM6tEmE8LgyeKJwzM7RGswN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2hhfgNy2tc541cnh3GdyHipBvabHymhtwhzoE73K8ZNv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/g8b8KQGrodvfMDzJTvaDArYzmoZLaPBKKb3shw93rFm/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CE4BnLD7E3YpiR41UGnt9nArxcqR4TQ71rrcxyMbef84/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B1KbXQSYVPpFd1R3AqKMUpUoGW6BitdUyAw8pSSyREKb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HRhCA3ok7SkwTmQH3T2WTwb1tqPLXAwCV6CGgbh4kF1T/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Afj5DjHVaR6KFc6HRYyFq7QqKTTfN5Z9aiEJUZea4dx7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CFRPv9RYiuXALbrgcj9dBXimKDcnjCcPf9Pe5i6vTHHW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4G4vVcwW49RuznC1qUK41bWYhzDGmSEc9F1o8VvQfXVe/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EzDRhhm17MuWF5eEpvtfkuTzvBFnMZRqnd8FroML34xz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FWtEsiLhd4TDTwZuEkMvtkwPXo5spzA8TTkH6pAPysuv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7KR6za71gJ4SXJ4mF2aaWbE89XDFusPVENET7ZX2SUmS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/VGU76wCU3NwU16PrmUtHThvUAEbzBQVr4zYckpursnF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/65ResjAHuFFqro3Xs1ZjeydKwz4M91CbX8Bm7LEwqeFS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/J4mEWUyoRxxeJZqbMGT2mkYeG5D5PkkTzuwgm2mfFk9S/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AFEdnVxAvWMd5sBmADW1ifzqEEdigCaCXRiyCsbXi8Vv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B6sMiRNbrLFSV3557fGp7C6nWCZi3UKJAKoXr6T6t4DK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8sBAXviweHZFXEysLud3YPJz9eZnmtzac2TjhoHFxd2Z/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HFManSWrn2aJNDDYMP7dWjZCTxxtGCHeCaHfsGauTjmQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ThnevGnmaLY7bGvo341kzHaH7i9G2qSDW983yUVQaRP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/J1RobXjwSCaAxEJakANdoTes5bqBaMgdhsfmnTrn4s5q/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6XeRaQoNx4iHh33D9oregfyNmiLBsq3LxXfFHovH8RAN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7WkurDh7g7V8ESK6BVh2L96YVkMGmGSGaTWvNhf2EZ7L/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HNguK6bNTeUfjEfgEjdkQuKiDQp6Xwcrv75PcSmTDMBM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4WW59r7PVPigUjh657qtiawcr782NbHhVm736HmMwy1c/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CTkW86ZJsHMkuzohBEV19Mhdfn9YJFhnvi5cVNWrifnw/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HfAfBWMfkesLQv8bpYpnUEV3j2acubu8dPz1TSvrCB7t/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CFXqMF2DFjLDWYMuUeTjCbtJtbGVELfK338FUDrh7mXL/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DG46fYotaujY2hvtBJm1AJ4gd1v8CmnR2GGtcHr1FG4U/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9YTPyeKyfyW6AehJsYVtfZ7NjbKugT7wvF2B5JXJizkM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DcVEX3TeJyx7Ry5aRtDg8x3sS56g8c5dCMPAYH5XCCJR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DHdNRHxxeJezhKhLKucKSnCAfwv7aMny4oEF1oLJCj5g/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AXkatFBc46b2nzrELizomaXHVwgWcfnFsGwxw2NFZArV/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Cho8ZCy1r2kzPdxUNZGPEEdHLE7EGgw4c9npyoTTVqyh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3VTCeLQsvwoR4xnjgY4tr5t6DtQfKeK3bbQAXzYv8iej/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7tm9WfT5TrahpuZqwFE7DqiAv7JneWE7TkgSCTLKooAM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GC78ey2v9j8pE7QeMt2GefmeKtXVBd8WdzWst59Tnaom/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6co7npmnD4pvk6JfGt8Ljp4B12P58SkmvMs81GQ5CkaH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GVmfj81xwwKc3VfHfB8CMgYAMnKbCH8ksNWyLXBntViq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2G13foUikxnmA8ZH1m7FQNqspbFPSXq3TvbpEj5jdWcS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/546egJyVY78Maa67QWvxBnHmRGP9gUqRy8ZEqHE5ikSD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3a8WHUJDfiehKoa3rhGSYymzBNR7uMxsJwSm4a9Z5sFn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4vGubCi65QLVji1ZbAQkHaVxR7qmemE9niTYqYLNxZuZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7opt1NrgsT1R574MFpgs77DwWybgiN55XyuxnSUND2mu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8AQQHrSjCakBipwD2pdf6wQBEUiN9mhgjggv87G89Z7N/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3JTgnpWhqvTR19QUB8dxEvNDYKpGvZZZGVSsSpfiyjFJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8aAaQ9Lw4tUa6aWVwpL5fzJrAPm64MV48q67P2t9AMeK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GpVEaTUDU8zoJT6jsU95SfiEmzKFgvCk5sWo5WNC5Fcq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EYfg3o71ubxHtP4JPC5HRqRcJyGWgD23WqTvtTKzusD5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BymmrJ8egDR57zkr8RnSH54kK25UKgaA658cdDhg9YKq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2bFA9cywxpajaFACrPE9Hn5xc6SCdmxeU4MYxUrt7YpH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5UdXvfApvZcLt7HW3B6LwzW8Ykuf4RxNuEA8tRq3E3AJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/D3Jh6YgvaDpsULYQ2Va5sHSvvpYVCVBoKw6fmQR8RH3N/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8Ao8xKSEru54E6ZQ1mNNQY35HztV58DFTVsKNdvE8qqx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3dCQ4nvny2cGF7YBCKELM26YHdnty72razVWq4iHWhy4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9CkYMfkJua8PorEtd8Y2Ma7woUpiADrPqp5jtLainkGd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8k8qg73yMZmNjmeR39yzGSdVew4fuUh6fSLD5nizKDbY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6sa4GdnjEK16cv2LCk5KhePUuy1SEdA8ZVi3jt3FKdqW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Aaz1rhHwJPSd9agFBp9fv5NoUK4CsXHo88HdstRR96pu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6bo5oPRydbJwAaUnqnQX8AnvnpfPVKCeq2jwnchnS9sN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/46vTAShCznCbEmo3gJYVtPU9WrZAUgCF3BVxfhH9feAJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GSfgz1bnyuvUX5ERafGRaRxG58UYeaJWuqbPMuECMtA7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8RzAXTDn6ZgNp6QrUc9SV8M4Ype5YJGqmSjBCuzDs2Sc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7tFJKJZUkrLY8PdVbAqDoDE1nidKqniosXoppzF6wQn2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/D38BVkDtWVukif9wmzLrr2wzdyhPByFaFuN8hbzAuB6S/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H8v54oEz6WGVcFB4KUaAaqXYvNeZa1VrxjCShKZWouwz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8fcXvKTLTNSDd3yJQzKh7qacT5rKpRNiDyqFHGk1B6GG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Cn7wD9P7sQgfNzZrmF1qutT5AQX44PaHiY5ehtLZxq51/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/48GX1L1NMUqmNxZGQsLtcfNwkYwte6m5yDZAm9oHXNrR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ATTmAv5h4vznJWnwkhpSHu5xGVaQDRdS5upp9XD8wAAL/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4gv7XniDfDw8v6hkGJwAxjDKb6MMxLFrgdw4zeQGFdqD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/41YbUFz3J9jsBsKAtVrQ6G4qJ5Lt6ySY9AJYm2RvzKBd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/61t6X3VWAo8SC1SSWPr3N6FvrWzqaHHSPT3izRVU9Xmp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3nyPsFfcQeKzFmkrAcpY69qxQuumER3RCKKkFcGVZAxZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6uumLo9bjp4wAzH6hz4Sf28GHnkExB8aB9pax9uRfqVr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/uaUpm7kzgi4dRJF2VyeWUHGbJ8kj72iBKSzXW3oLuNR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GEGpJpnu9e2x12jXFAheZ9BWiKKLNy1HqJ3YQxnXdA78/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FFrQHkJDZFbYqEU1TeStPHdWsvHcAgE2Nkm8JpXScAGu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/96k5E9syScC4bw1ukPJFxccz58v1CwnyrHye8j9G9WM6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Hv5Yacnm9mNQrkQmXsbDqLGWakV7NFT5Bj78CFxM9ajW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4suZqrdVtwABcFGjbSr1jUSsaXTMxL73drduNTcSUfKc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/21wJe8nyN6gEHd7LAGBVxJHgqtto5Xui9GznEhSgLN2e/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2FPRsLm8CthKgzoYvPQPSQZngYtbgKe6k6HVzxENmnmx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9SgrimpDPpmR3YEys862gB9VgqwRzmvTpFrBdK39P5Re/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Z72RFknXmT1S8Q7abjrpyJWuqWHyLQQerXhC7eQzp7x/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AZXfFBY99DobAHgcFpZs8BrBAjp3Zo3qpVBV45JiVNia/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BKt3e9BBvaNZ5jRgYLYxi66YsQ7bxboMLFRRrXC7KZLk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2icSdSWiYsJEHDmzRFnWuLME93jcQ55QdH6wBFC14ivf/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8EkSh8t8kmQUvJxjw7L3SKajMYo8iYa1ZCfVPcCQGotS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HehX8sqyd9cDXsyYzg5NnAuzUEaHKkeSwG8wZRzbFYcv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/97sFasXakSXFqZWSsuGRDtxrqoLyFq2nvkUjVvPh5QE4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/61hV1UMh7f7XeP3poYwgMRrNwrpiadTWFfxAwFn6e8aQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EUKYmVu37wzZUCBMkPQPp2PPZWhaPXs7RJu8cCCKbrLt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HEUKAxG29HbRivU8bk1Ypg9K8JVf2R9TZydQ1ZRzZEsg/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AU9C49svZgYvD5rgDfqxK3X1gBRv9AMGfEkWJhYWGM9q/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FGeWaVwQbxMXvAUF2TCsQtpUG8wLywsxcXSTEnpvuhiy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5y9dvz2CSMMGsWV1sg8ZraWtsVB3ihuFtYs9RUeES4Ca/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GSQDwpGGYrpbhrss3Q5zGNs7RpJdeFnh9FnLsV9SogUE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DF1ffEjUrBtQMDuePN85oHEM2zPoPaCzaz9iCaqnbi5M/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BQTiBJ3J55JRa6hqj7rZvCKiJPrcoCapHvK7QzwZas1H/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/swtdFmGAzJWs7ybbSDTG1hdiTk6JZ1jW3YQUtyRruWZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CAxkYMjGXQvRk6nb7H59nCZoV1Vti42GNAJFYUipKS1s/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8TfBUB3ksp39UjKUbAJLB9XpdhhctFAhz6Ab3FXFpCjB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4Z9aNFEbmAF32tmiw7T3vgCYmEdsF7fpovEULxjcoBef/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AZ8dN4JKBfgZ4f7LbXbX3BXvNYqZFFnL7hPg6eqZGnkA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AkMFQEf5FYDx7UD7o9uK1roD4qdemJYGhVTqKo8s58dj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9SwKDGbM1sf8DSo8N2pfedyrsttGE8Q1x7pbSDo8gxH7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GMuuEEQWjsBUfaAiqBExa8MTNHTX1MbDWSodMfraaZ9E/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3Msy1ZxV2LhZRwm7sV2HRP3DfguUEmJFDJewgkwXUj1G/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DtgxMwTR1pW9taqQcALvXyBdWS7bxEQy6a2auMBxHbPZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8PYchTw9hFTCKCvZJtKSwzc63tMVzRNFzfr3jLxtTgdd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H3PGPFsJ9Jjuz8HoBKT8NNpuQDMG6QJvuGnYRouDYQAr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7gLRfvoJ2AH67SknrsUeGdg5cPhufUhoTaMSwCc3uSCY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8EqWSGH5jVqhgqCCc4KdXKhFBn3GMyfJVnnZYjLMSUh4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4dAuB15BYVpV7fqh1WdwyBKvDxiSRELMgn5P6uPfR58u/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BxvKVxfXXKRcBgJkuvP7BxAMz8At8AS9odeQjFFp62fi/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2CzjBa7PFggWND5vQn7tRboFuQqcf5jLdGJPK7Qddajt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6FDWJTAtJSR6yoqucoUtzQ4f5UTpkrwkwoKmi5PCxcU/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9bQn8NinUos7A6qRMRadM3SJsJbnn7dthq6emXovw5S8/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/47JoAUDFt7RgxMSANxpc9ZEqsVWsagWMbq3sgjhLRwby/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3PXqT3VQxv1rjDHUEhKu6gtgwobNRDLcB1rxYENjKUce/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7ta9Tz9JhnUQSJ6eTmQbVgE7GTrTPCbUgd5D5PvDnsi/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2j1dvHVDsDTJm8kPMgC7g7sdpqQXHu6Ybmgpftw1VKK3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BNwa7fe5iVcwfnURsqwfyfAk2owGMP9GYLWKL24ustcB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8HMMXLNdyvMkaBkmj6uYtc3pUSuxSanu6AE2UGSeVHio/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GjUJbwDc37czUYovtmsUVVWnX9p4NyxxBAxkZmosVBrG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3zYKnyAWnxgusWFKxdfC4USZiP41vDTHX9Xkej2bojtA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/798gFrj7Kb3phzHfEvDnc2hJDEqkn7wMNRroRc6gkEsr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HGfdVfrMcDxnUy59rPtYuG8Wx4LAQcEGgca2cHXVEXtQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2kiT8dFoinHGwQJ9PUsRABFDkR6UJvtwFEnnDvpBA6Uc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7rpmCvMSU6rc3ZC39nSre8rKKrmxjHrChF5cvUWk5X79/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/424c34i6ymy7933Bwa5vn1Amy1qSwtRYHAJSSM22D7kA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8gDvgMyd2n2VYwsuTifooo3Vzc36xLsactvCCcAVpgw6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6GWJ6j1UeM5T2zBAkw58BC6ej6w1rRgAqA1K2VmoSoFi/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GFd5z54bx6Mtj8Fn5eHZDhTGD1bRkj2FNFpcuir4NFo4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FsM8JVSk9gw93ZxyNnxh6kujmYcCDe4xntz7fnjHfLcN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5A9FmbipUTJjste1HkpnLDhKyCQekUe5X37BWiJQwHcE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/75XpEYGDqDsd7BwK1TkwibbJQFZsYBdyhJJKLfKS8tuZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H1euTfkG1mD9JvKrDhHxCa3XMttEEYLjPqYJjjQrMTH3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4L6wnayShQNh6YFBqX6qdLHeuLhd8f3KqgqnvkVXYQdD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9SAiL13dWWkXrn18XV6BWWkCmC4Px2XRJ5b4CLGqj7y6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DAnTYR1L8i22wwLDfMoo8gyrcS6w2KfgWtkRpELUawN1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/E7MSEe8XeTQobjoGarJWncZ1KaMDCT17AsYGRyySkUBP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3X3nkeXyXmJzYmD3xCPU6YJqC5ih3oLCihwCMP2h5DgE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FW6487xVrydVBmiHDeuBbDmPWhHNhgQfHdi4TzRrEMUu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/37FDXrZy4wPZz9gQaUfeWzunqnRLfTiPgSG8URBim2zH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2Tp9h7UYpMmhhGt1C8FUHaK1nw7umKAsjsU8r5KbPTE9/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/39YuxDPqf6q17JAHwXYwMYQQBLCVnA1Gma9r7kVJer4B/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GzBojE3XB7mimbw63nxJw9uA8gKRcaEVs249PfarutJU/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8zMwPeq1i37SaqyZjUpVz8VFJY2q9vY1D7vo9U13X1cE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3kubtKvE4pMjVHZGh9Tvd8Zm2ZY85kJ1EkuwtacuaEN8/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/37AormnxGGZfSAq1yJDxbiGu2ch9n1tMuWWbr8kPTX9X/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EbTmuCV5gMWwvY8KLDRSBma89LKhykEjMZkd8Ln6u8bp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AXZdECyg15nWyvsRxrg4Nvj5AVdcUD16EM3uhLxhp7sp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/47mvEHhKB3xFwRDf5vdy3YVK9DWs173Y8eaBNU7igRxC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6Wqqj1T6Qdx8km7c4M6ynYy4DBquy7ZemBssFu2dw78e/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/A4MPq2jLFyYaKAH1v8gVhxVdWQfY4ps2onP6dyNPKt2n/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/G5kiaVrWS9xoe3ASBMqCKmHfRHmdDpzWg4RcSq8kT9S7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4MPW3FjTVcgnnBaK15jS1gCso5WQgsi28EnDYRrtzHyb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/JCxk5AjwmU6PMvRskeZkrJroEanwgkjqqT5Mwt4FvefA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/31xbbnmRiMt9nh3PB89Yg1Er73vdBq3st7K4aWc5UtXU/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EFFGTBTmL4QohTTjcgpGJ6x8RbuN3CAHdeqaBwMdSBM2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HQ76JvpdpJVntsGXtbSG6YpeeX5g3p4eEVggycWLACRM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CTNqmmJYDewUEJjT9jT22EQ5hq7FBfvBaup3rhqATzPL/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9TuRJ3NHLHFZmgNAcnVzqihsXvNdWkf3SwxGKjZ86hzv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2wzwFqs5usmQdnK7JWnPcFyTXuD4gMhLyiFxxizJyzH2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2t5LkmtgyVZqTLqLduie4RsLRHaVVm9Vg8BMjcdo48X9/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2wtLDCcs74NSVnBDaoKNJw8VHphNmzbysWGrwGFZnQ1p/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4smAGb2CHnWjazZfGz5rt38HrrBMTHQeDc32r7MXv4wt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8F3mbmk3xFvFnQpPduwsuMHtZr5sn8JPt9LiYKckxm6y/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FPccoZKVBvngVdLghwi3SgncKDZ1QPK7Cg11duwSS13S/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3BtA2S38v3dHXEdk2pqs8KkZFNtXVkp5hjimqf8dsQcs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/69wnwV5edmDQBKsFNbiLBEUej7qP6p2wa9iekCX5aPnb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2PQhZb7r2izYRtLTEFFdoKbryi1CKXqMxfwFmF3MCVLn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H4yTde1SvBQect9pS6wpFmrcGYkqfwxDxhY5wiapD9NB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GM11GPyDtjYsXMs4N79LW2SM6Ca8G31RXm6Fne3dpCeR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2ShcqCZFZZbA3AQqVctp1cR2YTbxrsL6wLrfq6ScnBDB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2hzxqM9Xw4Qf8yg7QocHBb6ggdL7oUp7Fkswg2LGEvhX/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HyRqHnqH6BcZTNe8FxQxuZ9pZvthj1qaSDPqJTibyc2E/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4oebkqrFzAw4ydQTpRHkCVBuxzZhBdkSvEuUY7n5kQPn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CnBKcCvDdu4arMyWJLD3DdfiWtLmD8pWWRgqrCZZoEMb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/zPdoBj7tti6hHPWskbrzpVGj4w9GjCNdy1c8MfQyM7z/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FKQ7seBgmqz1HVuyZmjCJb8iF9tsiDZzjPEtoiTvKkf1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5sAPAEnCv1pG4p3vggCLtiXeKvdWhPZPbVqjCkDnTdgF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8YaUrPo7TG42wafYmiWdx9vTjWmYFosTnLE8vW7KrDXx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8c811JXZB5JQdMTJquVo3uDz1LAAkKx8vnuufRsNdngy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9Etpki2u1La3mrsRLxC2L8NanAH8uUZM3qtiZJf42gYp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ALSmGCvo57BvWxwXbz76vrrZTUqoJCtS41xZpf7MM31n/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AatNEX7PSerzigcf7tPq25SQDGQEPZEDc3nxRahcx7zW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3QLhigJwpcVy9z6qfPSF63fNCkWK7VWgKSV4fRmdp6VD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Jncho9TVH8m7N9dpAkgEWveyP9p1tQETNzX7BJdjVBP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BLhHaPWpRcWw5eNYxK98udxZVrHb44wjyfLdhBFXGYDh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/51C7wEw3bqxkqTEX6heuZUnuUqkmDkbtP55heb2rdKcC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EpBvb7fjXFs38NigwWcg3njkVqwHn5hiLLpBHje7q1Rp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DqxN3pAxa7aRNFRYajL99A8ithmEFA99cCJYgXxGhfoi/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CPSABdWyvAy1QYmWbKgxQB2DzUUULdQWPbn4za6mhstV/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3N5dnwTUVRdFqmWfRi2hMTYF8qMJgKbiH2tGYk3BHaJj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BNZRpkbeEiYMHF43XJ4ZUiUVb2LZn2bUDfed7tfqSess/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HNaxxLLMc2KJGnawEptUYkmuwv8rPvZPgvWL4SNAgnqS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2my492LjbbddPn8CqnsrNTf9ZmHmqD8VzrmiXxwJzQn7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/99NyYGT2ktAUeYTt16AXbjjy7pwtTHhnaMuyuYVGQbNW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H4q3AiUaabbfMMKcDmU7G9zoupYX3oA5AiuVyVtioBDW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8KJKqo6tGa2qcQCTueDbD76MXtDnGqGyUVoBzu7GBKmw/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Bxbp6kTkoienD2LpqLgBAH4iDtjros58xYdTiqUwk9MN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3HXSB5Qbxuxpc3oHY1FKsszhBb7RU5cWVQChhTfNTjgb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GNSBqaqx1BGYwggKtdyZEp4ZDpXwivsZAWGZfxKSMbDE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GRiLi5wukgpL615G9HajBtwCtugqjdCFUv9D6FcybSuT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BJBdLPvLZPiWuPHsMqA3GjUL6v2yonrtuhHoSVT1YuM4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/J7qgNsLgHdidQtgY6wDWdRC9cqTQk6q7tCVdQBvS551w/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/aydSVjJecPb3hqaA7YwAAisFcLdvksYZesp9MPYvrXK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3rCQVR3RvAjkFtvZBu4NmfoEfePCTkuJG4xBWVEsDyGD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5AjVH1o1tKLiiST1NaKgpNKc581NXA5pX899fdUNt49u/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Fmotb8PyRV449YwtFt9ogugnp2ZzovCssmor7gXC58jb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EHDk31ZZmHodEhDA7Sfkb6CWSX4LDEAECHGejqnnuU58/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8jKvmKysojjJB8CCAeq3AsCiSZbajjgCHzxU85uAQrZJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BK2GGUYotCSjRKr7EbyDVkKHb7mUQm1oTX3gHHAYxufM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EqoSxEcU5M2DixL1giZmAoz8RoRTwcN9RBsK9d6WacXm/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DaLszwKg1KJ73xSTyUgY994HszFDC6zKD4rMCZGMomdN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3Pgbk8C7F3k7kMJCW9jmPv1pDs1MdCLZLFryjaHjr9Jp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/G2akigLx814rYvHpnZfckVYewPki4uCXRRgLcbT7BmMZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6FKZ93dnrJ4Jt3Pm7GtsavV9irtgXcV4kZcpiH4HGdat/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BZWRcwfWdQUU4yFjUj3XbYJYbRFxyzWGe7Pd2Ag9tp51/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2NJRTqxGv6bZn9zzKt3qAjrL1kBa9J8upU9rZ5MmwG1e/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9jQf1Ruj5TCwLppNBs5ZJHTKqeAEFTFZ8JuEPVzRNm6a/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EpXuyf8MNZJzV8sJnV2hkRULbJjL72yS7XCTZVXLLTwK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7JEU8EaJdeiBfFtoXx5sTs29kAx6SQgXUDRyz4VBemUC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BgAKPYQgw7BfoQvujyZhee8AkLLKGWJhyyZ1fg7DuZBq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9eXZyMCtAxLxytH1nCcu7viSGY1z4UySMWvAZqBqvVQ7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DJMZEsxQmQcJ2WZdLKwK1DYLAwoYJaYxF8BKPezgTCPu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4TWtkPPyD48h7iY3hYZCahpaYHXSidZfDr4hDpgGKKV4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CfDHP5uSBc3gfcnabhuPsoao1BM9qJPjXYkV3pozapbz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7g1PDAgejFSFSkUD6WpeysCnPJtDU4Ei1ifoe3zh8Jpc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2eRXwa5wpKJFTYmcfuwmFyYzNoxeHuGqxTKJNeiyCDRM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/68drbSJdjMEVQAGzGBogvoj6cNUF4Xji8aC1pH15aYMd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7Gnw9Gz5uWekZHV4zPn3fb7A1hVrBWcrHq46jkN2xbhr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GsE7FfwAky7EUxH2VmRh6UGycn71inqVvdvqfKnRtohZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/F1qbbnMzTFZtCsempynP3RKuBcpsHaGq5Luu2bZSMUJ2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EA8LHtMPJTGjFZ8RFaa5mJv6bokLJqW5R9hWKyQ3MLpz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GJn9tkTpfNHvLCcPWVbtx14goEacW1RLuT7quFKEGjNM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CNCFX9E29sqhBf7boH3UBxkDRPNCZSQVUoPbJe4T8Di1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8hqP54CHqQJFdy3MkwnP3V4uEBe8jqU1698gFzLaLjE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CJvyP59YGnqJ2mVVrmZhsewddnqhJ7DakzPaTdJUH58w/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DA8V5owhjUrv7vE4E6QUwq9fc2LB91pZPEwbcQgkEkZG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FJJDhocsRYT668aixtpGH9Had7UaL6DAqC2tBLyVMtpu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BVHSa3CUf9erCeNFWzR8AbWxwPU4UxL95ALVNCgv76gP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FKJd13UD4mgjuwRHPSPCz33LVzJ4mZ5RrqzZzDNFj8Cy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6GVFSRjdzUw55Zzu1ZNCkf9xhizNqPv8T4nynuNEj6FS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FFEMBASGCv5zM3jWCTbLVoEPxi7fUodmoiWgTRkHsMCj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5ADfxK8eWb6NbmYiQ4TzSsyKFtAiJB18BDwwZyUcVxwK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AySE1Ag9xAXyAMTTWrcUdrtHLuACJmLiiRxF3erfyBc4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CtgY9jSgK1ZkCndZxDD3AtUUzrqDz67Rdw2esfE2St4y/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CftBWFdcN2Xvw6uX3JTBZU7BgFmQ9T4U1BVhTN2cLmXw/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/J5xuWERU92Q4iB9iE52h4rP7R9Y9UCsTpALrQ4RoaYqy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AD5x6Qk3yhQr3zDBU3SZtQnzRrYT69LfVru25B4ieoab/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6sir3axhRbppEd4kS25n6hXBqSRck46FUBbBdDrTnckr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/m7KC7cCuS9T1ejc5d9GRQdBKxaU7vdhnQvgZagvR3VC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GSAr8zD83jRUv9fWTL7eq8agLJ7jkXXJAFMpxRvqj7B1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3zZ858YLzLYJomDAo5zomtYDCfBrrPKsiwE6MKBJpAUF/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C4aLEEc7hT1Rwf34WQnKfeqTTPnxKTsCLGNLqnRAE1Ld/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5wkNk12EpduM5cShSXJmBKJZ2t1W3FjgpozodzHopAy5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GUET2pnp8BSuCF5evTDecczN6XNxUNGWFLbK9GUgVtGG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5RwAHjhqBgGqV9zg9b17CJzwpfwN1Y879U15mZmn9FLz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5dj9o9YTHyuvhHWBnq9GHuNHDfgQocaMqbDLFZbdnD4M/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/NsRtAr7ouW9C2bDb52AdbbWhMZAh8eHwGxGbNoBs1v6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2m5rBVLUtfAb9hjKXXHqToswCFj1qYV6n3Eo8TJ59UVW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BYRXH7rFbmvi1CAuKbejMT2FCLndJYUJibV5UunFJz2p/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7W4AFWMP2VGpByRmXFLijKAFVuEUr62XJktuTcugAZHk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CAtjWfSkCWj7pv1WMTJq16NmkfktBxHu4HMBc6Jr7ccP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EVqxB8Y2gXwgWsNN6QJfnmGjhGgYnr7f2ciiCLRzrQ36/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7UnY6q7eMNQtmeaNgrquoAfvGLb8RauxNMpuTdtEzpcR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AXz5fEauJiG8SF5vAj8MG1eZqBHoYwFhJQtiVnQAfYuu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FvBgNGrbeKZVhdD5fhC8VnbXVnwDqzMhJh37G5V1d6wg/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4SfZihsBWhfDUAG2RCet1CYsPemuCZWB2Kd3pJanbG6j/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EEUUvGYXGdFa9pTr5SPSHrphAZJNdJrb5H2WyQbN2b8d/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6Hvrxkn4fLunFiPCt88pUUV9iWMau2xj72hj29u875qy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FX8SXXe19iW5RDDLxVRq171Ko2GVwpQfXRHhp6JGborj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4wteAJQQ2rEyB6P195TLGj8RnvLPHwbmYCUgYjPEmCZP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ASnzAvxNBF3DATiijaW8Yym4ETwZkjB9k4FJGUpDXKUk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/48TMcXn7Rr1pE6Q1jZRAQL53JBqBN6SSrb8jgFSCjCVz/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4PuBskJHxnCtYHrQSkx1WYR812d1uyQUMRHE4i8EGG3S/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BoWZzNZCVbXzSzqD8jsfxRAhuGFQVRKbKnY1qAxet8Qj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EPH1R7S9vqzTTEPL8wT8YDgPViyoM6znhWLoVSPmGbcq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8FbVifW1KKSdRzGAWSqX8DvnHHZWXtFVyYqyrUunnA2F/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BN25aVjJhh6tevJyZYvYMoJA2v6mVUyKWE8Bu5sjb59V/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9q7YMTkCM7CnvZvsLMd5wdqsWPMP6CEtqMXoFccBMH42/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/81V598yN2zxPk9qRPfmmi8ob51qRLnSrcVZkz35SpYU6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CxTrymwpNkqRpCzZuaCpAG6XJwgVfaei5baWtM8hkeyk/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HQMikSu6QXKDhYVJf9aphNZCMAWScXcYDnNc3mHrFexr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FQVc8AhpULJb276anxZHgbccLD2zYpYv4cTSzXQHSEiN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9tGCb9Hghue5GjhFBGCnB35L5ESX7i7RrwQWRHu8fajB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BU9jEPxkquJT4yo6RAWxbRYVPGarbPxo39AbdWdKci1J/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/27trSfQqCfEDp11EC3Gp2m7R1SgHwxiwy4h412C2MABn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/98Pw2z2Yh73ik9Jk1M9PT7QrcEg1NQwGUVdP6JQtfp3y/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6r9QWRMcbwrApSZNht9Q2Lti5JPzWEC8K3vqy4cRspPR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/LTWZustPFur9WBjpB47ameeBas4kQFYbRmucdKKBUP3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6BiuX2HtzXHCeqkUMrDdtGvR1CkPWfFjDtPn9jrL1AQs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ARnGxAy2Tn1hevn6nxaL7XgG8GgPZdFMLj6AqdLyqyX3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2BcTNw6M66JLRuto9SRdyZMbbRiRLRswH7o5myk8bKHD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8UAN6gJqprk4oF2w6xUaW9udXjQXaWx4w7ryTkg9a1yV/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7g3jSLiEwC77SkK2cuwCE6W4ePUpfi79CDJDu7C99Ccx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Bu1dRa6t7ypxAtXN5AwRgJ1oXUGkDsK8K1bSWnpgoHr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ENCw9TqD6EySBa8keW3jpEkvbHm9DjSnaghNjvb27DpH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CfxTF6FpLGqomScymEAcUkGfX1qk7XoT2VnRnJomYKQu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BjVbnmtBqUbdY3uyXubmymkrfzEDQgkyY8F8MAsEzVa3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/88q4TiNLGEinnMMXaN22foVxmsf3mgvTiFD5Fmd2Ma3a/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AxEHPs1ZNucDeKR73U7uJsbYxyCbPSfB7qMjxwDu9tQx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8wLnodUNejA1JGAVHuYukYSs76EqHbqoJzjZgb1B67LH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HZjTPxVv19EFseZf2iXKKLR7cXPYpdcfzmRYfmUawjDy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GwBWbZTJ93ambsMBedgZZZ1KdrGv2FVW16RxM7bHaa35/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3Xia9S71Y6mnNavkKtVwJb6v7tCLZNEx1PX9VFNy6e1x/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DLFfqqNmJsJNePH4tR7CKLN8mRvKVStxTcPEyPvYXA9k/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6jR14ed4h1J7PQWh73vyR2t2WqKTvrpHeA8DNjGXfpmr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CScCDhJkVRU2aGnJXG1dBbP5anUW7z8AWyj5HvKyD7FC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/63YBxciNXDyY9UQ2UyJa7V11viHBkG3iQSXL7bwEEFpG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3AmZu3BYNZKuaTJFynnbtCwbEFxSiNNWTTwtzK6xuAsY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CDFwRHDdTeup1qf8pGeDVecEeUqNNk1enoMiEk1MFpFc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/68VF5DFNaCdbT83HrrnCBLQntncfxU9rqJbdTmE1BXFZ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8QixvPx7bhAbc7RTkdvMnmBTGqq57Z995Ha4bCa8trVK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6LuYY3b7GNDXfdRe9RCdBzZwJT8fpDcpGyAo2hQbVyuK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9j9JJz1MkesfeemQBDqCVJuxRLijCJQ789B8vFTNVoLj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B3EvAEZAyPjmxRkYVaxR3QubRVHzjxgvoZtToQiS5z7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Gyov9evsGgjuroDtFVXMhiYQEga4UXkiAmuaXdnh6X5a/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ELxFxKQHHQ9JMKQqu15SA3Gq1Mv9qni8NXD1twfkfWHm/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B7JZWizSdAaJBBCJfAvvCrpoToQTmtzJJ1KVDQBiN6Td/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Ffqgmf3rUifgm6e23XHS8vZjbsAGNDwEGVAzdHDv1pxE/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6qqjuVxLi58y5sHmiaJ3cPq1Byn5E59ykFMnPfeSQAGG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7iVzTbif1uCW5eQMndNkjiRJm7q6S32ZLXL2fTcgyMX4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Gwsrx3dfpHZcwYfUtfHyVCo8eRuq5t5s9SkbvVZHc7Bd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/49MH7AFgujk4uHomRFChXWvZkuQSDz4mrajX93z9uJ5b/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8VeEFCyqW4G8b3QcMi1Ffbqu7cNw9eogZPnWTzvoNsuL/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AXao1vHhfb3jy12Jze3cfLztMAhwpwj59zGgF4jL2Baj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3WTN7TXmU1YQbcLEz6X8DeG8ye4qXMy1AFhXQD8QZEC7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5JRTaM9L8XgaZEUnMDUb8DQ1Bho69KiyGZtREPxfJwGL/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5a8bw72TgeDT1ZAfbLCxkVtBUqTrPgV8m3v8HanBCvYa/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/sDn41WPxYCFozsLRJ7CTw9tkV2Tnd4hMexyPyQAEXTd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8xEDHjQt9165wqicsjijHXkaFjGUfMHTDkiC8Be64QCs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7i2JimYFt3oLzdFAx7CCqZ5d8WY2R92FggSY7pbumUNv/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/53hfCqHYrAPRtmdeC5j2PApnWDGMYpPo1U9HhcxdhKDX/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Cp9bKQ9FXpb4TFf3J89cbi5xcDx9zJWXnUmbEYjR6qzp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/XUY9T1ySZUuibrKkJW5KWqb6Rabv5VznoHQGrrCoBCN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GupqfVEoGUmXnvvfToAJ7baSLx63yv9yB7isJn9V5hdh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8VEKiF1QGpxA8wvqRHyRs1dQ7DqEnPqpeoNHj8J5ZnXc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3KiCMQHrbpF7iaz968ddrduD4PhmrGL15mRx8Y6zUDMj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EfL7ZuZURxSTMyysWvDeeVR5VQToN9g7BqVFs9q3S1vR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4MWZqTHFdCJJNRGJeYMBKkqmN7iLAcTUSDwBG1qc7QuW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3nffB6BGTeN2yMSYZJfbdMsxmgB6m6ZXM3P3h7QwUbHb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Edge8eRjpw9c3bqjh4gW9EwHe7d2S6PNmLm6Tt18dm7D/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/E9XTsw2q3JmiMMhFP3HgtayVtuM8HvATXrtnq3yLqUoR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4XEyXgvnXi3oE3xupEEwAFDWA2bscQyu6R2HBeqSeCpo/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DEbu55ka2LcAvrTHgCrvoBZYdyqt5rbhLxqqoTzMwg2B/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AYKUq9zVCzx24m5Gm8B5EBUxj1kiJetS2BfDeRNqdoMy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7jWRh9kZETggAj3cEe8V8gJmwDqcsum3AHmx83hFemRy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3ackt5a32y2vbMLRBhQxHAAjHmdtfW2qK8GkAZWxSybC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EGkJHB2c5PBr7pEB7dCUpFn44prgqwbKD1pvcACP6kPb/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2pdVCRwmUHism36z5y7Jvu2GuHhvfVXGtyGrouuNBGxq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FSKyFcVNduwSPkz4QTVF4zbf4b5zEWuBNv6MTVXppZqt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AreV4fvnX3Zme6GSy5Qj6X8yxSRskcgG7fz6CC2miXAq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/256txUPrTZYR7th3rX8VWhtcnTotS3emxCKitq5H69Zd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B7vsFzShZfN89EC1SSPjixB6xApnFHhMYuLcTPZtNAFC/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2UJwTEEmfHtHMyS2yxviQomBbjRbbCrRA1fpbB41XhTR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Bm7U29etTdcauu9VPY2bBT4tZdDjBNA23MSGs31mcoBj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7udaPUwep6oUgLrLWWVaBb8XURmfBq6qeu1wFrY14vu7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/95VTSKHbkyrGNBGCm2wYqaPv51QNHVSrJ92txioVCiNp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GErMez1z3ky4tdwmqtE4wSAt9ebMQEty4H2X3Bn4xjkr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7zfXuVoudx4Q9nEB1ZtWZnydk7H8Ygiim18NGwmejQpr/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GKdoRBTEP7esjB9pfnmQn5Nk4cuh3qNqbifA8mtCiExK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9h8dxEbphy74Kh2RZKQ7sisZBchHxxKCy1Bo9naBiodu/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HAzffg4KZcqxAKB5xEmHRVjwuqcyvmMjueMsEtb3EaRx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HDDLRVs1CSpNb9Ao2o96krkRJfGwsd9ZXXhtb2nqmaQB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/26VL9eXTdqat8Mq5D7FYMUnSxnTGULexWZVpjqmoFVrt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HTHWQJxhHfx4cWUTHpt9ZEjhiDG2aqDhqB6g4Kbg6Bg1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4fsar62fiuYLT8BZQDW1LnMD147aeMGAA55v7xa7iUbB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6jp7YDn28jwjUqWsPfuDada7d735SaX7mVArQJHaaUda/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9JNY2iduNk7GkZYszLEDHLDoSgxhm2aDdecTEttmh9cd/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/H2mMFiPuueQxeXvq8dJA9nrrXzNV4qYtPDELeZ2ayGbD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6hqgmWiHgkszztkMCxxDi7W9i18FQjPHmbpH5N9HVdPs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9veXUGXYaMLmRRv8bzBZs7a74EYDWzZfDNRyECgcpidf/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CPKDQgBAfhff9V4Qp3hpYZZh9MB9PH5oThbPMMykmD9e/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4hFtGjarjCD99UaFfRfRVLeDPh6r8vz7qGhDJzw6GXeT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/69xLz7RuLrEWKEujPrBS7LrTcLY1TZg9EFMdW54ZZeP9/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/G7WUF3LvyHCNqLK5k11tDP3eJzEzNCBU7BpjJBYw7epU/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GSvJqoEEY2ddRRcMsL6M8uxtVCsomV73s37TtRq6o7Zp/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/838F5zdXpixwpy3pykStBTzbimyYrUED26AxgqWBvxNX/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/645oULP649sPSbD1VZztYNt9QvPVnZqb4FXbHsR37tMs/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9cq6SXZLyivFqN8SEGPPwErfdoBC61MPh9K19PXTRmhh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6XCvu8nUfAutTQZQ4VUEUAkwU89WMrgc1L71Q3aMryrn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7zDRYZLbp5ZjzKr69UCqSBVfQ21ymhHpY9FdfTk6Dgga/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2H16soMvR14zvZ2ZDVsCx58oaxfqGETWFFaaWxp9MGEU/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GZREMANf5VVEGQsSMmLzjdM7LAePvVFWK4JdgRzGzP2a/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AQ4bAkj7RJonnxHagGiuKwR8N492mJjEkFqh6gCpvyar/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B2YEayLcNszZivsuQkztC49EMETWs4d5Ut1Eot3sqp3y/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ERqC6dzkGKSjvYnkhNCBqRhzAnDns8AJgDRwWkhpFKKf/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7SCMxwxjqKWRpD5SjwXanM8zjeugfeE9Kbs1pE6fpVir/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8JymgNUe8Mf2UP9HtJV2e9fb4UfyLAtMs9wJU5LumEK5/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5gukV17ihdm23EW2tRC9dJduTSBdLwmatN7hMaaZe5VB/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6eRYWqhd9ASrfFKcjSSaDpRxJjpe7EecPNWLZYujGWMY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6SV6cJQQtFHp9PqTJACVyfuZf63LuGrpc34gtsTYXtSQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5AZyLKYjQwqRqLZr5zgskgoBcwhSGHrAoY3cMyBkvZAa/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9GLxb23CWttCgHNk9r1TCw1EJyEtm5jSFALqB4MvYfZn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HbtqGP7zPdhJNxi4smCcZWbiUX26TSLQjUupQZBn311x/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Hbs6DqNx4jBHcYcM5MWMApx91Ddnc5GkmvGNA9QT185X/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4VHH384rmogxF61SgVQ2qyicmxLMMWKGf5FRKRUPQAKW/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8DAhZgvGqZvwetBB2wDQPNk2Lng52q1sarE91hiCUTVX/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EMew6SRfNRnRs1oTw54tExVBRmJBwwJxLzVQDtGMfe8u/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3yXFDhs5mt76pyVeHUKsuT1xG5WHT9EFUPWopa3WZuc3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6Jqd4rGbejPHbK3aF9SwNU5MSN8GwphLCKj6ydivRny2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5qREjC1GC264WREusGzqpQnTKogEATZUy92HeC7adX3V/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EDvZtQ6QpZDo8jMAHzKUyLi6etVajCZSrHSBVg43DqSY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/12tkA4z5KBowbiTMK3paKmhAbFMPeHC1mKqjQX1mAkcA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9MZsNpGjQ2EuqaKruHvauXL2qYyoL2i4SF6KR9C5SUZh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Hqeys3e7VF8d5Nzy8K8x5opUb2HLcCjEwZWauaHYTmpH/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AunqeAA8UHJaHyCzemHEu15S22PL7Dkk1xfWFoB8RsmJ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2s8CDhWFTzbQjeTHtVjFzKSqDy7kUjTR6cdnoNn4Bo4L/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/5dTzsF3tUVvkcb9NfAyxpDnLUubRNXPJJYH1mRFf6wQh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DfmQVVZMecQ1VxVNCwJeJLYLVLj3no27i3uV4aUw3ZDg/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Gx9bKj6ZppfgTAfu8RkcEQVyeT7PzkdhLQccPijxWTrG/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3zaFP4DadCqNoY44E7ZST4Du1EefqBE9hZN2UdoEtUxD/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6xFpnZbxnmrSedF1vpqbW8pNt2Y1w51YkPaKbD1zWzUQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/C9hcbfYC3XycRSrjSSVxdazANDZtqWF1d1aaaEgTzgQ9/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CwWnHZ99MJTXF8rGrsrS8ZTuHQZojnwoXCSr8F8gp7Ym/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Dt9WxTdkabbqu8LwxHrhXh84n4ifeCEkFeSwP7CCeYs7/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ACapanSpKjGxiZnqQDfiPvaD7BvR92JFMyGtpFin5zLM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7AWyTkMExc87AqRYsPv4L2SUMiPfKWqR1FsCEKf2KRiT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Fk831Gnad6jUCy7MjeJPpER7gYaheM9vF5w8r8WD2mdc/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9xFFRSP2uAu83YczqxYb9Si42eASLoadtUM8XPFB6mq8/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ELfVtWvgiPskJm54VTt1SwRYWZMtwFT4EbKfVY3nLg5D/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Br25WDKG3RX8uaCg7LYkWKwpe3C25KCRYUqtPG249L16/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/7AhnRNMkhgH7XrufjiPK877tarpFUhJPA5jQZsndANSQ/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DQzTK82GzDdutv7ngakSrX3k4QkS1mivgntUGQ116sCy/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FqNej1SjP9DkQmL8XFAxZaTHgeq85DmkLHibWQBerqEA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DbsDp2J6Hua1ZgXPb5WXZdRSpw7SdkoMHKneEG4YqWGo/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/GvUL1WRJXmF2KkqgwQGuAyAgwE3Cqydm5mR4vFDZ49FN/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3h639qvjyH2zBwyTnfQBByetJBH3y9DHduyzmcuTvCc3/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8Srut22wcfzBdKuzqLnLrorsdX5jDHyUVcoCgKzxgBk1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9tkmJ6pwGPpM4YYBLvfMnZ9RC8qvDfxq37fyRCtxXtFx/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/HX8qzXcaHU8ZbN83TvtQWKLc8RwZkwAbHgjToNhYioXY/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/627yz4ojGoFM5GR7ohsqHyfjfVitt5RvkQ18Wmz8qEPa/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6rVJwDNioWufyiahQZSMLLQn7mKUojQJfLAqaWLMwVq2/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FcqzjV56NuKAaHUwtq3rSDEiLFw5kJQZWsh7YyTSTjsP/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/MHkgFr5YJaFPzoE5L1ZNrMT4Wp988qHYXvd5mqkJdjT/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/FeXPoR11ETsACGwXTEBrpXj2eG6Eiapxicb4inBHDbaL/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/Aen7a7JJuYKPq9E35n68uckjRkej4zWfBZjnTVFJq1Jh/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CFfrftJhArcxLE2KRtYLwR2TMG3Ft5qaFxENzTnVteY1/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/B2tDE6gbXNh3jP11B55Fr8tzKW9XCG6MnvFPiqTsSecn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8oNTS5G1BvnvwN2QbUdgDASBLXeAA4X2au29zEKeokbf/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6Sh8wqf1qFpTa9bk6X1dpkFTwYfKEWz3RymsBaompwFq/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8qS9rBaUEABCgLGPHzgaWH3YvsnFXMJqVL9KinZNwcZM/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AKixQ9XVMeemQoZvzGDyUHcPQeaE5j47FaGu6budKNaR/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3E2jbjCX3k5HbctppJdV5hVYb619UnjZnwGT5p7Z3a94/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/9cFF7xkq6a6mJZWbQuNet3AVir9PCiyhy1KeRUvihex6/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/CJSqhbm8eC47o5bPuwb5RjL7dfEwPzpx7az4BYLNX3At/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/ELaHruLBYwdNs971ZuvcNyZucb2k9v2vydcTP3aW3X4z/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DJPY1mDgKiABNg1C2LKjr5wXgkJABs39es3R6gKRhJVn/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3bEJgLoKUZdXPqNmjtNHZerJKZxeLT7teqTU9skGVqWA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DwcKGYWUr75PNS9ME29kSTmafaRrLjKwLydPLbsuUW6P/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DJkhZAo46EE95TMKdwnBGHgM9MN43KxffrJVNvkCkUDS/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/bCkK3gUjwy5UYwuSqHiC1CLHUywd4MZBQFhKFPnQh4s/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/8YcpgPMzDnKCHTjkfLmiULJ7ZmkZDfGgV8A5ajjpeHpe/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/3nRcD6iqnZjVDaQ4dBPF6QPVJhmVbm5r6Exksr53u7TA/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/EWYZufdj6d7p3prg5fKNLnbv4mLFtoYAGgQ4adFQxpB4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/89exAfZwvSn1bGw7P7ZQJ54iiC4i7C1putd44dEttY1B/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/AKrxqyWM3n2f1fEMZpeVh1ugYXcMasQMeHGnx3YK9q59/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6xY36tg6fmAnK5UeiU6V29YqwuFQ6pR93avARugBXB8J/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DdZqWpm6sxg3Hh1UBMWY3PqgUTG2G2TASHNMTL8MJAga/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/2RW3u96jf9kU851YpwxxXKxfKGk5K5Mt45gZLiAGdYA4/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/6DrCqoBYAcrRXzjwbFrYaXEX6ow4zvKvUAdFwq8CxuBj/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/BUyrDYVJ5pXA8CE8F9PBZBkb7cBLBMoHskuUdN8sw6AK/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/J8xE4YXK82w6xaTqt1PLh4DDqoaDf6ZwRqRkgZguC1Ls/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/4b8rTpME45enk4sNkP9TjkbZuM7QkTxurDWdhs9QdMKt/largest</t>
-  </si>
-  <si>
-    <t>https://explorer.solana.com/address/DmwP2eM29dodV9rNqdDcTabUdg1imLiz3c8BuumDaWth/largest</t>
+    <t>3DzRTAxToFUXPFFCWLbEYuNBhHvCaju5rhj2Ld1RgS8z</t>
+  </si>
+  <si>
+    <t>GuS6AxizX95gwBgpXurcyhteLjPREjmUptJjHz2E5QwB</t>
+  </si>
+  <si>
+    <t>4136ApZ3uifexFoy3hNAUV9L9kPwfhEw1SGJFHG3jywH</t>
+  </si>
+  <si>
+    <t>D1cakHAwYCxGBAjZZjYK9FVw5UPBKQXFnVstLq3Do7Ux</t>
+  </si>
+  <si>
+    <t>3cs7T8UcmK1eW2tHKb4umNPEBhqT9X7kNdE43gfN9U1t</t>
+  </si>
+  <si>
+    <t>4G42SnULRMtnSt6pLwtAp5hYZJAYri59Kmxe1XBpW53Y</t>
+  </si>
+  <si>
+    <t>91NQYH14BfoWfYBVGGMBqPxymTbR8heSt9TEKV83Z8QQ</t>
+  </si>
+  <si>
+    <t>ECFiaJJZQ6p6d9JdGAtf27FJTVcDYm7WQjK98EiPEz6y</t>
+  </si>
+  <si>
+    <t>FQ96egePow1KP1twHKXMW3Gq1gH8N8tK7MCw6jeVBC6k</t>
+  </si>
+  <si>
+    <t>HVbJncemetZjMuseRWKWZB1em6wXn3BxjX9v36R9ZUFU</t>
+  </si>
+  <si>
+    <t>DDmpZThZcuTzbRcHDChwVtJpRzUNNSKfBKDbhCHRoThP</t>
+  </si>
+  <si>
+    <t>9euDve9ivtMXnrHgd4wMUVeoU5GDv6wrNUYqcgyzGTr4</t>
+  </si>
+  <si>
+    <t>3s81kXoek6jqV51ABS6hEZGB5hzjgwkTzpU6fbQwuTXa</t>
+  </si>
+  <si>
+    <t>Gab3vDdqghiZnbLwD3KVqoC4EAYQx4KVwFbRJgLVTL6J</t>
+  </si>
+  <si>
+    <t>325CzoteGrmydq8yrdqF8meQYMF9SzpZFyDTANyEqv8G</t>
+  </si>
+  <si>
+    <t>6bBZtLVGbJnqCqJsJHJngMhL7H3otLJRPMwzfRgXW4gP</t>
+  </si>
+  <si>
+    <t>91FXX9SFhwPmhft5VoJqhLGMDywHQLyLxRuP6M4NNJdG</t>
+  </si>
+  <si>
+    <t>D7DoJbNWHgQawnNqxD1rj8HjgQTXUozVbuPYN8AwxZG4</t>
+  </si>
+  <si>
+    <t>6HzGxmXbomjnmmGwna2ujGsyq8FbpiJooLNxAS29CGs7</t>
+  </si>
+  <si>
+    <t>H97q8HNLoMKFbHNtZfZwhevZZGhQVf9rU8tDz4iYFfiM</t>
+  </si>
+  <si>
+    <t>3z86BGwxtvGGnU6fBT4UtQgC4Wo6rvXwZsK5vjxVLWxz</t>
+  </si>
+  <si>
+    <t>HmsGtxpcwMSpYq3ChZiU6Q5EF3v6fhFHJgkVydV5igDu</t>
+  </si>
+  <si>
+    <t>DAy4wzr5c2WyuuqEPVz38pc9sNi5tzN7Kyc7HmGgJ48z</t>
+  </si>
+  <si>
+    <t>EvJqM1iTJnLVxXgNwLHHYqUMD6ZLhQeHjtQ85AZqas1U</t>
+  </si>
+  <si>
+    <t>4pktEdzVPRgq5jmZZdzW7PFAy3zXATPbzM9hqtbSdV3a</t>
+  </si>
+  <si>
+    <t>4bur1TX3WuyC2EbMoogsCEGjqmocfbDhWmxF9fFAwBjF</t>
+  </si>
+  <si>
+    <t>AH2L91NSXZW1M2MJZ6rx2nMypzAikDgbYCtyWUmRo8p</t>
+  </si>
+  <si>
+    <t>Ejm6R9uedboqZ46Je6QcQMCZ64CEbpxCNr8f8qasiQzV</t>
+  </si>
+  <si>
+    <t>61aFfeGSakGG6P1Vi3HFfzaQ3p6xWJLDr7sSY9g9V3Z6</t>
+  </si>
+  <si>
+    <t>5XHS9HxRHe1pXru9krj7EY9oS4W6ib9Qq1fi7qMyQzf1</t>
+  </si>
+  <si>
+    <t>F7x5LCbyQHowwHAL4HbntwwPx2tVKUAzQyPegy6rF6CX</t>
+  </si>
+  <si>
+    <t>DLewMyffEQuWfu3YzSa3P3D9bb73B2xH4cjT56NN6ZW5</t>
+  </si>
+  <si>
+    <t>Duun4f2Ycv2DN5vSTxuT2Lgf6hDogci2W1KitexZHjdJ</t>
+  </si>
+  <si>
+    <t>D96693o1scGMAWTgfri9fn6eF1VXyoPU8BSTBLLgXmze</t>
+  </si>
+  <si>
+    <t>6rWmVRj6x5NC1cZEmVG5qgQHZESBjmrt6KcxKkPV6pJH</t>
+  </si>
+  <si>
+    <t>9Wow2Yv7LcjPSJjvJQj3hafCxRLBz5s69pYcgKXPj26d</t>
+  </si>
+  <si>
+    <t>6oaBoXJBTpsGFC1kHhY8VEXMo5Gg5wzWtPG2Fbr1F1J2</t>
+  </si>
+  <si>
+    <t>5eUBDPwEfK3cPCFR5PFonneqBPZDDQm8q7PgnTFNTTSw</t>
+  </si>
+  <si>
+    <t>62U5sApvQGrVciKhfkQ9BARtdBq6ciE8u5fbRJqrc3wy</t>
+  </si>
+  <si>
+    <t>FYpAH7GXm74G9nRr26P9UexyTQkt9EixUiKmPStYNrGe</t>
+  </si>
+  <si>
+    <t>EtzEyxdCywGVwsn5RVMCa9n7LB4DKFsZ5txAhB18hDhL</t>
+  </si>
+  <si>
+    <t>B34WBHmhs3tn8NXfZPtxvwoXRqyeYDNF6hLtxvb4t7ya</t>
+  </si>
+  <si>
+    <t>9CXrbpLDwnwavsH4pPMkFgtfcEuhaVUEaKqagy2d8abu</t>
+  </si>
+  <si>
+    <t>CV5QFbvpS5xtWRgZFazNv7SrTD8DPVe4qwv72YsAqa9G</t>
+  </si>
+  <si>
+    <t>ERHv4zGBS5cM9Kyhhxikj5bPKRdhNbVPoU6Wq8i8AAmf</t>
+  </si>
+  <si>
+    <t>Aiwhw3uQEYGibba7TdJVEThGr3bhiQJ8iJzLaZ45hRd4</t>
+  </si>
+  <si>
+    <t>ascipHgw14v481TW4YZJ5NzJ2pTRhFSJtprMdqbommP</t>
+  </si>
+  <si>
+    <t>2J3c6zBdNwyToL7sF5GJDTKVMXEbCwdRXqJAkgNDqM1m</t>
+  </si>
+  <si>
+    <t>3A6gmMKVsxcXu8GA3ue441sENdytHncJL9iaM4AePQqe</t>
+  </si>
+  <si>
+    <t>5Wp2pGmrRRB193t6tddKb3CsWXDZgsr1mYUmukEmtTSj</t>
+  </si>
+  <si>
+    <t>75sMeHumN5bmBhGJc7SgKHHhF7TUFfQ52U3m7uCLdpQM</t>
+  </si>
+  <si>
+    <t>14gAt79zhsBbs5peCaam7hZ6e3VtAJ1SjvU7mLr6eFsL</t>
+  </si>
+  <si>
+    <t>8MfdhRh6j9fjdYhYnRycSmqLY2q2YDw9jCm5GJNEu1iF</t>
+  </si>
+  <si>
+    <t>38FPEhvdMjaBRJf736SEYjLgBfGUUZ6Mt5ajbdskQF6r</t>
+  </si>
+  <si>
+    <t>Dxz5q7ZoLuogsZWSBkTnoqWfXUcpGYduchfLtqXmqfch</t>
+  </si>
+  <si>
+    <t>5yiXpZMfcUnQiygu3JTewUwtEZ6Gnu8pDEwiqhR3Hy9A</t>
+  </si>
+  <si>
+    <t>3J5VFqHUZVs6yY32FHxT9XpumxUZn1ErvsEaxWQBfGKt</t>
+  </si>
+  <si>
+    <t>2K1L5Evd6e1CeP7Jb4EFp4DVF37syFbWGEHQk8f1ahgH</t>
+  </si>
+  <si>
+    <t>3WTVeAoUY54rXbnhLB7DYCFEtcnemtUj7NyZKV5JEoM2</t>
+  </si>
+  <si>
+    <t>2Sq7ZcbFuP3Pben5kRZAXu1ZASL9FEeLaBSfcsX1YNck</t>
+  </si>
+  <si>
+    <t>6S1cJiGaubfQoQTX88kaPRXL5dWZCT6dAMJhD3ExUfnm</t>
+  </si>
+  <si>
+    <t>9wTGMXwkcvfzx2Ls2b9uNQFKBDANv2xgQsfmswxpCwZL</t>
+  </si>
+  <si>
+    <t>FdLgtyyjNQm3deZdJa1CW53yFjft4hUCfzdSqC8ehJzS</t>
+  </si>
+  <si>
+    <t>5ihUNijE1pGRJetGaS5xp54sqeXQvWLeMNbK85LaQsZq</t>
+  </si>
+  <si>
+    <t>7f1WBJa1pVoTv4nV96pK4NWHuqMNiwYkWsx2rn7Ytxc6</t>
+  </si>
+  <si>
+    <t>DZctmF5A58dovve71kzTfTjiP6bEDCCrJrnRyYLQvVEX</t>
+  </si>
+  <si>
+    <t>2icqnTYptqnKyZ9XqkdchdrrdYZPRm5KyRWSEhhANTAW</t>
+  </si>
+  <si>
+    <t>BfMtkcFahnquqH1KGjRX9B1UY28EfVLHZWhkS2fGEMAm</t>
+  </si>
+  <si>
+    <t>9woT1AnXNb3Qud9cKxr61966iMXb6hez4pzM5PXQvvmn</t>
+  </si>
+  <si>
+    <t>HDBXCTgH2oMHxnkPAbshboWEtu7H3zwgM3duWxmbEiPq</t>
+  </si>
+  <si>
+    <t>CtdSFvHgYrpE4fx5pQ3AdGwwHeSNEVCwzgsc5bYtBGv3</t>
+  </si>
+  <si>
+    <t>97cKp5k3bYWFE3YcWPF4fypdZD5gE6NtWJ8ch85os395</t>
+  </si>
+  <si>
+    <t>HGvcvHgTVMDZUPktkpdgk1Rw9B7k3nnQUrEZZrfkwrXJ</t>
+  </si>
+  <si>
+    <t>mpY1vrbGvy1E9Yq4JXbVZXEPg7YmXJSiqs8uTqsecUS</t>
+  </si>
+  <si>
+    <t>DgDe315iXZ67VNgwxFdiSr29gWQR5cDYAPmE96eVWmcB</t>
+  </si>
+  <si>
+    <t>DDFRjfKP6tBQa2kn2W1piPjbL7L6nR9AJB38dPcqLH7H</t>
+  </si>
+  <si>
+    <t>AvK9wjQJ9R2xVgni9J585T3xttKHkTSiPaQTVSZVPgRC</t>
+  </si>
+  <si>
+    <t>GnuUFRVo3Ko9kBi8pBLqrripghCmwkmiCKTnmtMLVoe</t>
+  </si>
+  <si>
+    <t>ChhkE4qPgKNoki8J1beYNREEeyyFsmDqkq6JJhKztLsk</t>
+  </si>
+  <si>
+    <t>BbhU9DLxh92S1kDGqXu5ePyByzB1NRTdzrMUZmPEy2ex</t>
+  </si>
+  <si>
+    <t>C7TtCDP8ZkHBrHEe3yS57tEuFtwDwosFxJ7355RNgyMv</t>
+  </si>
+  <si>
+    <t>7FAhxpjnab5sbrigtzbQkHUiqgMjM5KL4uuJmoRmAqPA</t>
+  </si>
+  <si>
+    <t>CS7gYFHFhwscXqrnvqpsC3e97cabyHJE3cSnJP8WXyYP</t>
+  </si>
+  <si>
+    <t>9s6nReQRpbJdyM1XCwa1SS1F3oK6mQEPecqZJ3bKE1e4</t>
+  </si>
+  <si>
+    <t>ADVipmAFJSssxxqUZQVn9yqL4Pq8jA65FJitTTHdiH1e</t>
+  </si>
+  <si>
+    <t>42iUPdznuWgPQmpAFTQgxGdYtDSQESm5JJq8YVRb65yD</t>
+  </si>
+  <si>
+    <t>EHxeeMSmD8CcfjU3LLYYp9B6YqFCZMP3iczzoQyvxBUT</t>
+  </si>
+  <si>
+    <t>AyWVM1XyBfSzUguewPUKRRfrJ4iT2mo8SMU1TKcbAX6J</t>
+  </si>
+  <si>
+    <t>B4zYpetde5K3rt3GuJPW9L8j6eJbA8U2vRSBERiP9hkx</t>
+  </si>
+  <si>
+    <t>53iRnYhdPVyZMAw1bZsvgPc7Kx4Jr2rWdm6MeA3imxDB</t>
+  </si>
+  <si>
+    <t>HRTymbvTnMxSrC33FHJoad6Fsdn32Hnhim5e3ezE7ivS</t>
+  </si>
+  <si>
+    <t>AipCiUEiEe77hJ7iAt8pbzp7QMVDbfN1CxM1aV6oguip</t>
+  </si>
+  <si>
+    <t>BoWQK5BWFejG4MUs6si4yqNavDLAAk3geCYQPNesLwm1</t>
+  </si>
+  <si>
+    <t>GG3dQ3LTs3aYY2rPU3aj96jvvef9cciagUCHS3REvGfU</t>
+  </si>
+  <si>
+    <t>DBWWz122ZD4T9yWtwT6x4aFH1tUuLgsthWLiGn4pJFip</t>
+  </si>
+  <si>
+    <t>G5Ymx1tadt6u5stjKcWUJ7AGksXKpfxdbzJYomXLMUNb</t>
+  </si>
+  <si>
+    <t>8MiXwkhsV6wUCxABBWgDNQ4jFEdX4B62NSa2XbDz7ZSx</t>
+  </si>
+  <si>
+    <t>8khgjNKMtCPvdLD1yqqtVAdGNSV7RyrcXu3wWfBwQTdU</t>
+  </si>
+  <si>
+    <t>A9mkp6b1FYLfznf6Sd6jAy4EjskWeUV323Jfwd4MkDGM</t>
+  </si>
+  <si>
+    <t>4UmDHdxBGbL7dEXE9TZt9UmrfdrHKBb688SeCyh3GYMD</t>
+  </si>
+  <si>
+    <t>93U33wYZB5Ksoc1TCMeQoX2FjyU54gTzopqRqxhDPAzJ</t>
+  </si>
+  <si>
+    <t>Gap7Fpq8cAyzAn6475GcVBYb571HzcQrnTkD4QAQjKxD</t>
+  </si>
+  <si>
+    <t>5J2vL6pBqE8qZt5YvbuLqaT1HUaL6XoyVZm2maS75PjZ</t>
+  </si>
+  <si>
+    <t>44Z8UNDJpLrsanBKRxT8ev99KXJ7CdGkazEQbgEhAk5N</t>
+  </si>
+  <si>
+    <t>BuxeVw58ryTPKXD6go4CQY1LXb4SeqzfizeLeUj11q3q</t>
+  </si>
+  <si>
+    <t>7eZc8T3VBAswwudbAVDxkfBw8EMnSadKNay8JQY3dHVD</t>
+  </si>
+  <si>
+    <t>EhzcMpdP38UWW64FCEzLmqov8sHStVV5rgFw5pWXwfs1</t>
+  </si>
+  <si>
+    <t>4JJj2RGHZjfvA4A2ME3GNSD2qGASCioHcHugwfu6RboT</t>
+  </si>
+  <si>
+    <t>6eYoUnr8oDPpBvYMVUhC55FMe6tgfaaTQAJM5gCnCjFP</t>
+  </si>
+  <si>
+    <t>GgX9JEVSmgS36ZXr82ir9c3bKGtxcJzqLvMSVTh8EyUb</t>
+  </si>
+  <si>
+    <t>6aPGiwTZe7x8i2YGWRiSF7SPZh9Tfug9GGCTeogHgBTG</t>
+  </si>
+  <si>
+    <t>BeM8DYqnqwDiiAbMDxBwn6YeBirJyYZcgxyHx3NPv5c5</t>
+  </si>
+  <si>
+    <t>FcRbAqzMweFUFnjpMxbKVLzpWrXP5Chz8qhNoRY86EBi</t>
+  </si>
+  <si>
+    <t>7B5tdL2TvUg53vGDV734XMD4FHJr8PfURAofcP5oamQp</t>
+  </si>
+  <si>
+    <t>FANMtnyshmUbg2wMUhvyssBrhthyFbgnxsEH18ce2e1T</t>
+  </si>
+  <si>
+    <t>5ovJPzgFEhran2WLQq1N79iq45BLSmnbEEkJNjrDMeGq</t>
+  </si>
+  <si>
+    <t>5J67wuFbjeD6p4QhauttwYXX2FLfsu8SZ7kk3XxcnnWS</t>
+  </si>
+  <si>
+    <t>95XahuMnRijnfCPNkSTncYngVzXJF3fomgtuwyKkZrEM</t>
+  </si>
+  <si>
+    <t>H9GTAy5hHRdChiDSvhprdz9pEFS4A4tpecW6n4tdpDYh</t>
+  </si>
+  <si>
+    <t>264yYwaMpjhRSFzs2v2W9i5Sb9iDE3kqgbZ5rB7wCcEt</t>
+  </si>
+  <si>
+    <t>GhJSmBxBboiqKQ5ZqSU37N88XxRuyb56jQSYEpTmGcZP</t>
+  </si>
+  <si>
+    <t>C6LvfdDLKs3nx7VPYGxwZRbPw8fFd6DtYnavyRmrt6Bs</t>
+  </si>
+  <si>
+    <t>DSJKq17rSu2kGk2mfqQ1Ewea5M7nTYXQQS2PJM2Jbvzm</t>
+  </si>
+  <si>
+    <t>HBcnuSzY8PUX6uAMeZe3Yo3pucS4WLXUcqFgepBXsvFK</t>
+  </si>
+  <si>
+    <t>H26FsmNXeetji284iQNkYktPbDiL64jaD9djTQQDpqFz</t>
+  </si>
+  <si>
+    <t>6aGxND1tWNzasvFifhSB6fuc9ZUHdh2VJGv5R5fC495C</t>
+  </si>
+  <si>
+    <t>6jduH7M44wj4aes2F28egA84ZhCMxWDDq9aR6A6cNDtJ</t>
+  </si>
+  <si>
+    <t>B2wRx1CycXeNLxci29s3aWL1hKkBP5RvvzYKkrq78hRf</t>
+  </si>
+  <si>
+    <t>BuzYhLJ3cfLAnifoqLTD8gF9m2bs1DSscYnojAQchQno</t>
+  </si>
+  <si>
+    <t>B1MFMYPdbY2KkETLhUn2D9Zmvd9JU6fnayf2FYjKrgSu</t>
+  </si>
+  <si>
+    <t>DzivcH4rVWZZXKXCs568Z8MR6wHg7g55CKEiq8QEoJRk</t>
+  </si>
+  <si>
+    <t>98tN21uiU6v7wHmALtBtkP7ftMVBcTsy7WLx9z9u4qr7</t>
+  </si>
+  <si>
+    <t>6WBCNphEmt1g3x6Ayh8UfebFi6W27W2THJBbVdbW6HxD</t>
+  </si>
+  <si>
+    <t>APvmYfWFXHgoy7PTsCeaqRmJYbUiUe2nCz5XFH9qyCuY</t>
+  </si>
+  <si>
+    <t>82op2vAFSEeuWGcTDx1fThQDAaeReouW2YVS74oMd2hn</t>
+  </si>
+  <si>
+    <t>EqHr6xH8TYifcYCv7fCfiEV1jvWsAZSw6xpsxaBXxF8Z</t>
+  </si>
+  <si>
+    <t>6HwU8U6r6Dc7Jo2Crdzw7v9BYwFfbWaS1gRGduLFxpbd</t>
+  </si>
+  <si>
+    <t>8UBxVj1EXFKfBuDU68raSvaHtERJ4vRsWa52S1pvqLPW</t>
+  </si>
+  <si>
+    <t>EY1KiCQBqkR4KzXcxcMTTiq6gP945rJA7h51tmhzZKR</t>
+  </si>
+  <si>
+    <t>7BxMfn65XpfZwame4TvnmZoEpG65PX2MSfeGUPpzPaRY</t>
+  </si>
+  <si>
+    <t>853Gihscc2Xd9X4BRkFZGoy28u5ReD3DYiaTfBT4UefX</t>
+  </si>
+  <si>
+    <t>HLVXVzaaZWYiEmydzmA2a9KTvBLmwCYomjitcMUgNREK</t>
+  </si>
+  <si>
+    <t>FYS9GR4J7CxukBNEbzLxTChqKdRP2nrEAqNA1vRSarHh</t>
+  </si>
+  <si>
+    <t>H86dhXEWW9oYTWkzFwnjWCG5nGVsAFFXwbngXSMeRAN9</t>
+  </si>
+  <si>
+    <t>4tZn7GD61dNxhszUMGcZyrw4hmjcPP89q5WnKekdgNmo</t>
+  </si>
+  <si>
+    <t>4wGDq7icaDz9W8GYg23vmcGkL5XwxKstN55fPb74iSF3</t>
+  </si>
+  <si>
+    <t>szJwDrjuynCRYUFwHs1m22137aiBRQXo5q2dWrr7yNG</t>
+  </si>
+  <si>
+    <t>BffugBPsKVkXPy4w9Tczy5pGChEvcFi6GXWKvXvSVHZM</t>
+  </si>
+  <si>
+    <t>FXSb1ydeAXg24bntaGb1J4QTMgHH9ouUKBaKzPqiq8Zt</t>
+  </si>
+  <si>
+    <t>7dM4Kx8rsHKd1SVdz65C8UCxT4dTPFRguSn4N1pnFuCP</t>
+  </si>
+  <si>
+    <t>D1GZydGwVqTpijT5Y4xibDrnQfDeWbQp1jdQvYZ6h46i</t>
+  </si>
+  <si>
+    <t>9xeDWD1NeNNNLQREkHNyUMrBTnvxyLWTJ1xtESjE2rpc</t>
+  </si>
+  <si>
+    <t>7cSSRxsJNFVRJ3LTAk9U4ENUxx5c7bc5nUBA1SvMwZqK</t>
+  </si>
+  <si>
+    <t>SMkhdampDFuAKx1NVHEWymthWUnXbdW62X6b6RHJgNC</t>
+  </si>
+  <si>
+    <t>8uu4HWhe8HnBF1zkwFFi9oBFfNTmmP8AJBd4C72Sg9Rh</t>
+  </si>
+  <si>
+    <t>8ezGBeBabJVQ2exLUWS6GZqQqwZXKkzykKKPvJYEjfxe</t>
+  </si>
+  <si>
+    <t>Hkoy1VjrjkQuueVusZefVLWuibmjGJAMBi2bSDPFNRro</t>
+  </si>
+  <si>
+    <t>4q9GVbrYDm9ibcNSaxAaGRmqYiknAjKgwVQp2TQmb1D2</t>
+  </si>
+  <si>
+    <t>Ae39N41HxFPPWKYRiiAjoNFdqzBjLbuniPG7KYCBnbfp</t>
+  </si>
+  <si>
+    <t>C9s5RyXZRd2UYAhaBJkfW7XTn7Dcuoy4KWZi1gpssqm6</t>
+  </si>
+  <si>
+    <t>J6rjKexHUd426dudLzKfGGu9JPocdWRxuVKhUpyQdnQK</t>
+  </si>
+  <si>
+    <t>8CoSEUnpNFF8pqWAhyAewEGHMqiNgM86AgneW7SDzHnn</t>
+  </si>
+  <si>
+    <t>3YV5aXSHn9SoFkfPDxqeNfT4UknBDdQfev4qATVuoFK5</t>
+  </si>
+  <si>
+    <t>BeUzrcvKgzT9ym2MK7FQFL7fT6ys5x5fncTMaZag9bdi</t>
+  </si>
+  <si>
+    <t>8pzWFFAtXe8SDgjKPR99dzk4uoSgWP3aDReH8tBetC7p</t>
+  </si>
+  <si>
+    <t>BiLyiR9QiMSniVzySKQwim6dH2stKCvAeUeJCRtJiT8D</t>
+  </si>
+  <si>
+    <t>pkbabcUzGR32eqfkepP2nDRmeDyj9aQKhDd2qLPzc9s</t>
+  </si>
+  <si>
+    <t>BdJAjWNXNNsjWSs9NuyseqVbbhZ9BdRYWoP5yJUqEiCu</t>
+  </si>
+  <si>
+    <t>HGtqCVWSs4WpaPXFbJwqUoLWMHfnV25HHmcdJiJ75nML</t>
+  </si>
+  <si>
+    <t>CoyQxmPCBbqwLJKhbj5i4vU3ypCeTx7PS21BwCNpjH7f</t>
+  </si>
+  <si>
+    <t>5d1iGHYtDzA89s7KEeeE1akMsfDNiFvRz24bLEZVgUkQ</t>
+  </si>
+  <si>
+    <t>56SN3cuPfeP9Pxwj85KqTTu2nPErVJwaMcG6RDsNwbYM</t>
+  </si>
+  <si>
+    <t>3eycP9kTzt97gxSSYaHepTVvdXEgGsm9KjsWtrjWz3Ss</t>
+  </si>
+  <si>
+    <t>4WivBrG9NjrUkgJugGJ29n4P41LQ1VABsQTqevv7tNR5</t>
+  </si>
+  <si>
+    <t>8AD3BA64H1AkSEw6jy2oATpNUgTfBZ8DVrfRSNWJXZaM</t>
+  </si>
+  <si>
+    <t>DLxyMSe7sioKX45qj9idhyRxCzfxd5xW3J1PaSNJ3sBV</t>
+  </si>
+  <si>
+    <t>8Zfmko8jvrFbpt1sjch9N4SgBs8t3xL5Rgn4wDimPw6z</t>
+  </si>
+  <si>
+    <t>5nNkAAhhr3Zz93eVTGMAAfWqCvTm5z4BsRVvVcdk9wA2</t>
+  </si>
+  <si>
+    <t>FS6h2bykLkeZABjvoU4imtQe4YB83iU5yxTFY6hYzTg8</t>
+  </si>
+  <si>
+    <t>DdeUuAt47Xy3iSpLNQuTv8DBFMwXTTqihSqCGy1UmpF</t>
+  </si>
+  <si>
+    <t>C3Xej6W1MQw9a3dmsz8Vci5GaC2gY3yHr9aLZkK74F8z</t>
+  </si>
+  <si>
+    <t>2NHt5ScNq1xBvnrtVEMKGanEoLpjTZDeT4rG3idzYK6K</t>
+  </si>
+  <si>
+    <t>AQT7av8Yb59z782afbrccZhSHtJG6vdgndMHnprLKCyq</t>
+  </si>
+  <si>
+    <t>DZw2wcDfNh1S5qZAY1vne9g65sM3yyu4UTH4b1mAPftR</t>
+  </si>
+  <si>
+    <t>6yX144kmyBko6nckFihv5qeAJxGuVzqro1ix5QcPfbeb</t>
+  </si>
+  <si>
+    <t>6Rza4Q1mXV2R2RFccRKn2scsfJanwsiEs1xF2sBnyzLF</t>
+  </si>
+  <si>
+    <t>JDEPNATq1unhtqGABaSFov8MQxq2qCFALxveV6WXxXBn</t>
+  </si>
+  <si>
+    <t>CBn67cUNSnsGg2icQ6c3e94mcgKxg6rmHvXGmwGaVUjd</t>
+  </si>
+  <si>
+    <t>3HntmhH3358yuzJo6NDFP5bfKwcdq7WfN8vPrnG1quzu</t>
+  </si>
+  <si>
+    <t>B7sYLVFkWRNHNXku3Su83dCqw6G2kvcsUpCD9M1mdzZu</t>
+  </si>
+  <si>
+    <t>S7mPzddkK7MD3uWPrAYZFhBkim7SajMy7KTXKyzyr8f</t>
+  </si>
+  <si>
+    <t>CwMwkHKnCQfYtAeyyPDdrhmqf3ww1Gczkm3rLdLTEHTm</t>
+  </si>
+  <si>
+    <t>C9ZDqqUp76mZpftTWBGYryxzyiYZ5wvBYyLKC24nCokp</t>
+  </si>
+  <si>
+    <t>HoaGw6Y4UHYVnPGx8ngFvuYn89XPVEF25fbMjzRxATim</t>
+  </si>
+  <si>
+    <t>4DYRpJMeiPaztJX3kS3Ykdx1UFo5fBXHCRhRneDezJtY</t>
+  </si>
+  <si>
+    <t>4YHnft6Vp67bLY82n7W6gEwgfkEPZ2K8qk4U6buoeUdd</t>
+  </si>
+  <si>
+    <t>GdnZjJ5NkawtBuU8DorkJv7pbXWoPN8NMxgSzeAmYBTQ</t>
+  </si>
+  <si>
+    <t>FBsLYRGAu75dLCxihtna1tspKJ6pExP1Dyht7X8WUg2D</t>
+  </si>
+  <si>
+    <t>B77TePDw4ydEn9pXVorHDaHDqBUrf1rE7Nv1nynHjFFb</t>
+  </si>
+  <si>
+    <t>C74kkZb44RbH9wCCFgvxDnsRpsLeMNXTWR19NPGQ5tD8</t>
+  </si>
+  <si>
+    <t>7CM9prCCK6bfGwuNyPYHMeQDtUirnBCyEFuhVATzkMkz</t>
+  </si>
+  <si>
+    <t>HfmPcis5qAbb68qYFgijhELaz24dECrjPRPVoj7FYZfv</t>
+  </si>
+  <si>
+    <t>BTbYQQaWb6d9AN7PvJhTsriaEmy9N3VGpm2wKqXYUyzW</t>
+  </si>
+  <si>
+    <t>7fJd8uAdJrVB6KhqKpHrjnGgKiDPqo8SZ4DfNsmg3AWK</t>
+  </si>
+  <si>
+    <t>7RKfjcGJTvcBCDD1xWeNfBPY1UDwggPkryMHRGrzbdJb</t>
+  </si>
+  <si>
+    <t>ZjYFcU6JXd3Mk8qu3TpZ5UA4rpUL7Nws2ytmuKaQnCn</t>
+  </si>
+  <si>
+    <t>6YKtfdQd7FhA8XgZWMFdjonqL5EpeqCVPxDL9KusxrQg</t>
+  </si>
+  <si>
+    <t>G3e8fgLdFvvpryPbxAnD5jPKuJrPxDn4bwYYq1zUZz36</t>
+  </si>
+  <si>
+    <t>8ZVWkr16wdhrZwfjHH1NrdXqc4BtpFVGQjJBZBZczY8</t>
+  </si>
+  <si>
+    <t>8VTjfdrBPC7agCkL3yN84RgVcQj8nf4j6YVPPtSyxeRs</t>
+  </si>
+  <si>
+    <t>4ztc7bfEAzoY9yC2cyJn7c3qW5KZXfS9zfLKToSDwdMm</t>
+  </si>
+  <si>
+    <t>BsTXcfHYZUqwFRCgzgaR4i4KgeDL8a4E9TswwEuaRzHZ</t>
+  </si>
+  <si>
+    <t>GGnGcmxnYHkRbyGYAJ7XzJxZTm9S7TE6zitLYdqV4wYT</t>
+  </si>
+  <si>
+    <t>HWo4Q6ya3yzGA6nBrpagd8AQUuBXUyt3NPa1AatU7WhC</t>
+  </si>
+  <si>
+    <t>5vuervfDjniDhdK46iUsKB8K79umk6AnzG3T1WfD6HBJ</t>
+  </si>
+  <si>
+    <t>AhAM8qSKxAaP8fhfPsXn1hag7ZvWkrmFdtQEdAbhsAyj</t>
+  </si>
+  <si>
+    <t>FJeXUkAdhsTWX8FP4gM1tsraaPG1ZnvHG27LhRhFRcox</t>
+  </si>
+  <si>
+    <t>2QcVFG7Z9KtyGBK6SbvZAd6AWUtKiNyoDGiD6Ms1BzSD</t>
+  </si>
+  <si>
+    <t>668By8PY4K66xUf1DL4JFGY9ySgH3WVx1LvkuE87yLUZ</t>
+  </si>
+  <si>
+    <t>3T7SBwnZmTy1wbLhXxBg1VaQnpfuLDGQhL4tCA1SooUG</t>
+  </si>
+  <si>
+    <t>8NPjMppMa7GjGi3bZ7AeCvQ2co544SLf9nC36b3GLdRQ</t>
+  </si>
+  <si>
+    <t>GsJahHHQfWTEeSWMkUAs1EdVpR9ELpkEtNo8DApaashJ</t>
+  </si>
+  <si>
+    <t>9eXxH5sVr4Fmvg5qmaUAmRXLiMKHz43eZBF6tLbskHRE</t>
+  </si>
+  <si>
+    <t>EdPt79TDuT6e3pSS4auTfmvqB5QgZcsJQHaztc6jSQBn</t>
+  </si>
+  <si>
+    <t>98E596o5anyHJeBZ8cYp7snbqjLW1unkBCbG2sATwZ5A</t>
+  </si>
+  <si>
+    <t>Cb1FgNLGDH3j6d7ZT4EJ3kfPf8G7TkUx6rr6tdmt6KPc</t>
+  </si>
+  <si>
+    <t>5nM4o5BrDDSCaqyKGdN96L4VWy1CaLV1y7NyCDnG1ev6</t>
+  </si>
+  <si>
+    <t>FYkMnKfZiauRp5LgtP1Uw3uUApF9HxoWM5vqpNga29wj</t>
+  </si>
+  <si>
+    <t>RpbZcfnotNB81cJSnRjFFgW3PYW9tfnpSrZ6TZyquKV</t>
+  </si>
+  <si>
+    <t>3uRMrvrQNNjozaFR4ZQzAGXGWpRtaPvff1Uqs2QC7QK5</t>
+  </si>
+  <si>
+    <t>GWzwdkmrXGdBBTbJZGmuXzEcw2erW2pGwhZtTP5MUQtH</t>
+  </si>
+  <si>
+    <t>5c3L6uLwetV9pZz6Q3GsTXm9JVgVFop7rRkwSYobmDET</t>
+  </si>
+  <si>
+    <t>2ZjJfWRfDJVQb59LsHYqK8sruWMEttArnWrQXbyYs6Cf</t>
+  </si>
+  <si>
+    <t>NNmTd6vsKCnqzJRebhPfciBEkzZBy6uYcUyabVczG1h</t>
+  </si>
+  <si>
+    <t>AvivawSooXh5rw69LZUjvbenRZvsvdZ2AGEjxiSNgrcY</t>
+  </si>
+  <si>
+    <t>FyphnZ1w9z8NgohroevRNiKuSQAuSPAZxfFtBKj98C8L</t>
+  </si>
+  <si>
+    <t>4tBo7FxTEJjTahkDCeBd2aKtCcSEici3kEsNVgz6pjDx</t>
+  </si>
+  <si>
+    <t>2sgaRSCFmAkfmy564r6m1ofMhJoMbEgh66jsGaYX8vkR</t>
+  </si>
+  <si>
+    <t>6WG6hwg7rLNdAUSDoypuBmXWUzfnUu4CjPwFQv3hzzzz</t>
+  </si>
+  <si>
+    <t>4DjwKQfT4Lmr2vLZw97bJRgSPDCkabBgFCPMBWgxe2bi</t>
+  </si>
+  <si>
+    <t>CTgvoYWPTPFP6MAZj83viY1Mr3D6sFvgjYXyFs1ipQkg</t>
+  </si>
+  <si>
+    <t>B5T1gQZdqQ8U3dCthZaALjy8qwTfrSnFiuDmxXL2ZkcG</t>
+  </si>
+  <si>
+    <t>Ebae6Vih3ouQhkFHDg9xf1kKfwPbc6pjtqDpLHNuhZSm</t>
+  </si>
+  <si>
+    <t>49iWZRJYrtYqQAm5MzaRZxDARD9MkMUb5jpY85t7F9mK</t>
+  </si>
+  <si>
+    <t>8XuXkNWAu6t8K1Sus2NuhdK1ZCCoUT5TzhaqNd2EBeRN</t>
+  </si>
+  <si>
+    <t>3PEDpTfvAW4F1W79FmwD2EZranM6CA7tuSMNJ1ue43UM</t>
+  </si>
+  <si>
+    <t>4z324QKLWtjg1yy2r5RQGkS9NW4V5XzGcnxfouERvmXK</t>
+  </si>
+  <si>
+    <t>Dkuf5i1i9qm8M2ej9Tiw7DcVuNen1LHsuZi8JbmadZYu</t>
+  </si>
+  <si>
+    <t>ECXiXqpRDBfT9LEZgTJuXFXBF4BXdeZfcxTYUkLXpWhh</t>
+  </si>
+  <si>
+    <t>BtYjXECvAXjuvR6hDhg2mygJYxfFzbZ6Eh2eJdfxySRY</t>
+  </si>
+  <si>
+    <t>n5oEMSzo9UeFXAwhb2SR2Rmj7eGRoG9YzCFhVigDeg1</t>
+  </si>
+  <si>
+    <t>CiVMwfW3HnMXrjctq34s27T8PkUGci7mVB9cFpX5Je58</t>
+  </si>
+  <si>
+    <t>78mtFUqAHmc55iYDxCaxhKVF9JKyatnrBc7sKBSaTAjH</t>
+  </si>
+  <si>
+    <t>2a2ahYH1k9pp6hnBD6deeqYk3SBdLAbUuN8e12DmzeXs</t>
+  </si>
+  <si>
+    <t>EmGSWbEPtbYVvJbE3tcjkvwynKQHBQEarWRzoZqzq4Ra</t>
+  </si>
+  <si>
+    <t>Gy65o1iwX7R9hTV5tYBtJpNLEAtRx3EWMeq3mVVyPFR2</t>
+  </si>
+  <si>
+    <t>2Zq2hDyDX1w6M3WguWax66x2nZZGXo1EpyCY7yZwmkzR</t>
+  </si>
+  <si>
+    <t>BYD2xAPzosdud3nShoFr5QCkRHVaz7cEJWTkxvXdTsvz</t>
+  </si>
+  <si>
+    <t>263zkMfcybs6TWnz1Erm22HpPsb9RXxoeZtT6EFiKKSM</t>
+  </si>
+  <si>
+    <t>EjGQkYQhUztYai84xWpqS9grmKZH71qnN2XAtc8NKrht</t>
+  </si>
+  <si>
+    <t>4woozJkyHt7DcKaaSuQzkCawo1eZ9BF45bE7raPCeLGK</t>
+  </si>
+  <si>
+    <t>C7XESG2gfhzypFAtFUNTPaXomzSAzqxS7fLFm1h1U55D</t>
+  </si>
+  <si>
+    <t>GciBZCFrY8AxgJ6YM2BvojhJARkN5yCDQLfjyxtr99ZL</t>
+  </si>
+  <si>
+    <t>Gf4BbeXvNbcBZ1KKP5YMcjBXCcLD1yLkc25wxvkEajet</t>
+  </si>
+  <si>
+    <t>DTbpBbJpwkTFQG3821zri3BbzSJT97kbo5YKiiUpomPu</t>
+  </si>
+  <si>
+    <t>89tGAUuJjVeJJQvaXCUiKcAfM7wuKVtKWF5zRfNb8uc8</t>
+  </si>
+  <si>
+    <t>6A2zVjtNDzc25TbLZrQ7qXA6iBSJ9sDzLQquspcqxDtR</t>
+  </si>
+  <si>
+    <t>D8U84XCHx4cbT5J7t8GGvWp6P6JZJAq9DikpX9Svvw4K</t>
+  </si>
+  <si>
+    <t>FRm7bxTbq6Nmc8XLcioTqVWsHGACBja5ZhUmPMym7a2t</t>
+  </si>
+  <si>
+    <t>Dy9J23txQVf6Ca9ZcQ5AEWYYTP45tqK8xvWQn2uDaq8X</t>
+  </si>
+  <si>
+    <t>BQGhsvE8PBZPTt4TEgn2LxownDYGqk7wTawEAkzLcZZs</t>
+  </si>
+  <si>
+    <t>EywRQfVo35ZMaSXu6fkgmTD55uFr8Qve4NQCh78QyQyG</t>
+  </si>
+  <si>
+    <t>BM737ur8f3XXafV3E9ymiyDnMW6MVNLuJZUfp1P23ESF</t>
+  </si>
+  <si>
+    <t>4VpNpTNFNEfhjLdmtAFgpSgWDHX5HmCLFFp8u58K3ufz</t>
+  </si>
+  <si>
+    <t>81dwyH8m61J2iFzwQNJNC7YkFmkb9Dq5gXpVqRfzNfAe</t>
+  </si>
+  <si>
+    <t>DrZxFcaLrunJcVcnuDmMNpKiGj2oSu8NiHyUxqsJhnmh</t>
+  </si>
+  <si>
+    <t>6cRkePC2xGZTHGJXBHbjFekh8EShJMoJrUVGomQDtAoW</t>
+  </si>
+  <si>
+    <t>9wRvUx77REUoCKKYYAoao92my7f59iV6HKAioHrM18rG</t>
+  </si>
+  <si>
+    <t>iW6uXPfm8i2LKzwEJNgELscRoTYDtueS2SpvLcdrxxE</t>
+  </si>
+  <si>
+    <t>HKWuLPcnhpNqxFrScssLNEHa1ERyDrV4ZsjQbBtEwMfK</t>
+  </si>
+  <si>
+    <t>9kPuVtcRKWQMjTYUFhmoxcX7EVHumgk6QtVMYzWidqQu</t>
+  </si>
+  <si>
+    <t>ARf6mu8wDENuCJmC7DwmvPLgnJH5ow1eb4eigBfrop78</t>
+  </si>
+  <si>
+    <t>DTtfWZp8KTaK8YrLzuKLuFG8DKYsextLMqFk5kQ6PHo8</t>
+  </si>
+  <si>
+    <t>FwHweGXi3ZSGBFm8c1kPKZqeGUZQtUNNnYCtsMuiR8M6</t>
+  </si>
+  <si>
+    <t>83BjFFQWXv9SYUQ9XfWgh3tsq8ozesc55RJXrotHE8sa</t>
+  </si>
+  <si>
+    <t>Cc9AhSE3CdUQxd8ER1QjMU7mqnXaBEcrjAEcjsK9A1MQ</t>
+  </si>
+  <si>
+    <t>8Rh2fPurzQ6wWZ69pZSCm88wS5VQS4JqpHDa3b683gRZ</t>
+  </si>
+  <si>
+    <t>H5DWZKYRuik96foHpbhQSyngqUCTQwQjfBCfpcysbun9</t>
+  </si>
+  <si>
+    <t>8qgbVCyAzn72mPCqwWmD6Nfm61GiHkZwRxyY87W6NecY</t>
+  </si>
+  <si>
+    <t>J833tsD45StLi1hPFF9GXBEsLm4sygnvD52WjepR5xQb</t>
+  </si>
+  <si>
+    <t>DT52DjWFRc8YEGLy68B9kAY7KvMqhXZX5U5goV2UxFFQ</t>
+  </si>
+  <si>
+    <t>Grb1EweVqgzSSNaEjvrvPUMgmMqEAEUzeHcteKowPBWG</t>
+  </si>
+  <si>
+    <t>7AbfUmR94CrPAQcWonaK72Fi2AeeFzjawPCNvVBYzQwh</t>
+  </si>
+  <si>
+    <t>GCH1wcUuW2ZVvEkeopus9S2hZimQR4bqrJfaYMFaNqB1</t>
+  </si>
+  <si>
+    <t>D8498ym6UpQxJXmJrXa8qG7ra3FTBqa46LTMqFFdcDeF</t>
+  </si>
+  <si>
+    <t>FqP5atev7w4Bp9rdJHdirjc9Lv3fcSasPGREydY7NSMY</t>
+  </si>
+  <si>
+    <t>GJ829xS1Sva5sHStdKFodNqCmLHKKCqXrfr6iwF2UaGW</t>
+  </si>
+  <si>
+    <t>CFDmPM7B8LkTC9vJ2HB3zHDosCZeHgXgg74hFw932SBy</t>
+  </si>
+  <si>
+    <t>8By7eHrjAYSUBJ7hfxAU3QLmCQeDFCgkHKmZ6Y2HSBVH</t>
+  </si>
+  <si>
+    <t>Caak6m6F2cXZ8zFbwcbSTUM9oxhrBS3M5GKYTgoF2JJj</t>
+  </si>
+  <si>
+    <t>gzugZ1dAQYCSCLXiHA9gUtAPARjvbKJNFEmeWbMZoVZ</t>
+  </si>
+  <si>
+    <t>BcKssWrNxDZ5UPYo1McGoBot1V1DH5BF4oqjrZfhNPuj</t>
+  </si>
+  <si>
+    <t>DSLQLMXehdRhpRJjzqn6WZSyPpQhwSMPfdTzEzbq4dX5</t>
+  </si>
+  <si>
+    <t>6swgjWW37XGRbwgHrWUJvhZn8BweDBJFwBgwmfsMfhf6</t>
+  </si>
+  <si>
+    <t>BnRyYLz5RuUfNFWvjbU1A9Mqh4iLdcT6isVA9pbh3eUq</t>
+  </si>
+  <si>
+    <t>FrXQcM27q369EAR6KoXmiGVA2RePn7fg8HjHdvSatz8J</t>
+  </si>
+  <si>
+    <t>CNNpXhKP4qdarTQzqWscjPHMwUdj2SAUNmMWM89z2H3a</t>
+  </si>
+  <si>
+    <t>3Nb23iCjAQHh9DzTTbiraotB1DSEBGfjCbJRdAJi1FLJ</t>
+  </si>
+  <si>
+    <t>4RgDm4FC4118BJcfCxzgvKQ4cDKhtkAj2UNQxqSadsh7</t>
+  </si>
+  <si>
+    <t>3qfCEqtUME4gzNa7GT5cJMgWHpMYSLUAunB388rwofo6</t>
+  </si>
+  <si>
+    <t>9h42xMeoNtwpjhHACVwJiX5uJ7CsDFcSeENrBZd9Namp</t>
+  </si>
+  <si>
+    <t>2kk2xfs6nX2PF3FyKnQu1MyUJM1a2stdfBDPF6J3Y3tx</t>
+  </si>
+  <si>
+    <t>Hwe4Jb8inufMbtCav89XFs4q99HStakue273L9QinYeq</t>
+  </si>
+  <si>
+    <t>FqjDJYXgRohXB8mV2zyWgqrGE6s7EbFT6CWhqwemwzTF</t>
+  </si>
+  <si>
+    <t>8GYJoqweKZeJvraShY6yoBxRJVjHpHC1SDa9TbHLqNjF</t>
+  </si>
+  <si>
+    <t>68jKYkswjsKv4fkawNcoV4ESMt1HUftnVf5eQs3e8Jsi</t>
+  </si>
+  <si>
+    <t>G2aAoFwyFrX6Pv2PxDLodpL976a4M8VZa2GuenKE5Bo9</t>
+  </si>
+  <si>
+    <t>C8ecL8wRvFeW1UQohKEbNiSWC2TibhKjFzYJeJu7s5BU</t>
+  </si>
+  <si>
+    <t>EdPS6KGDQJE86zBWMHsWCjm58c3DAWyoC3WQHpvuLiSD</t>
+  </si>
+  <si>
+    <t>4kbya2ZNbnu1s6JPwfJ7P6hkiEfuDVWj3DvEoPgJk1Mt</t>
+  </si>
+  <si>
+    <t>4BqK7LDDX67Y8wCHTDUTeyMzxFMvuzdMJGQd1D3z6rys</t>
+  </si>
+  <si>
+    <t>2x7kgM832T3kBLhuYHLxKnXGWZUPgSgyMevyP4Z51Zy9</t>
+  </si>
+  <si>
+    <t>2oDxMR5SvFkwJvwV3nmcmxJzfLq3EvkT8CtRunKShy5Q</t>
+  </si>
+  <si>
+    <t>zf2ugdgb2ecn7DxL8adQiR8Q6Jhjo9ct748Fao7zLAo</t>
+  </si>
+  <si>
+    <t>9MfeGYCcFZvPGryoRhBCbsnJ6eFad9RVmBCk3kuVKKrq</t>
+  </si>
+  <si>
+    <t>nYhcW15zYtr9kr64B7KYzRnEjdLMiWmucucFztHnmvo</t>
+  </si>
+  <si>
+    <t>C9eXdbWpPzCFZtr69s1xuHyeiaabYVCLD69zvUyumzy</t>
+  </si>
+  <si>
+    <t>EBkPitjGZ2PENVT6x1pB1qJqBFk7tsxSEATU3bswjLSa</t>
+  </si>
+  <si>
+    <t>5YNhx51AipJ2omLXBa3Ejc5e3rCuGyKTBQmYs1bJpDEh</t>
+  </si>
+  <si>
+    <t>8Qs4dyhpZBZAdZX4oRDxokKz6kguKw9LgJTZqwLjkiL3</t>
+  </si>
+  <si>
+    <t>FyePwTr8aAQRgDMH73yzotH66VxjqYNnKk8AS31bNcPs</t>
+  </si>
+  <si>
+    <t>2yAygzA7CWk7F6qRsFcCqBzZZdd3gdVmqZLYnh1WYhzn</t>
+  </si>
+  <si>
+    <t>EFeY3uWCDX3X8TiAoyekencwPK2HPDonP8SZYLk2tDMW</t>
+  </si>
+  <si>
+    <t>FsEmqvjH4qwmgHt3587PsGm6kaZjG9GFGGmbt16ZUDQo</t>
+  </si>
+  <si>
+    <t>GKXJ7RwdFgEMiZQYsi7zQkdf6kkZHH1VuvZaWVB3g3Xf</t>
+  </si>
+  <si>
+    <t>Gj3JjnCoQrBNCBFPK3RNa3PAP1AiVMHQT165VSYmkUjr</t>
+  </si>
+  <si>
+    <t>B3yi8CiW7QwMLRceAcVZivZi2qqJ3YiBKVf5sbQKG47C</t>
+  </si>
+  <si>
+    <t>AbjgWtsaPyB5KD45MEAcXWiL5S6m8xRDWs1A8Gy5JGbs</t>
+  </si>
+  <si>
+    <t>6k8Uei21M91oE7miUWaPxCuepxcnkHd8xHMXYLUo6KWp</t>
+  </si>
+  <si>
+    <t>5VEMcUauEfLADT6qTVcaesncTHHvzjbyAk87V2NJhkJE</t>
+  </si>
+  <si>
+    <t>9DqW8pbighRqpmXSwLkhBnebLQcSxjZ3Gb3n4oJ6Ebo5</t>
+  </si>
+  <si>
+    <t>3VT4HfWLYPtV15ztdzk3LSFBCqRRRgX9fiCSTxZF3Y55</t>
+  </si>
+  <si>
+    <t>2kpSrAUxvXnuv38VEEa6tUHkKeSQc4anywM1gnamuxgc</t>
+  </si>
+  <si>
+    <t>2atjnK2Wefu4Nj8StuSpcKQdLERPpV9CGfhYHEEftdeT</t>
+  </si>
+  <si>
+    <t>D6oPZuUMDn3PJC8DZsB8YZtick96uTiUyw4fXhBBnKEa</t>
+  </si>
+  <si>
+    <t>Cu8Qnqmp7hjZLbQppk2mmBbDkqHhMxhnyDoYaSXvpSLk</t>
+  </si>
+  <si>
+    <t>2vzkvzRjSCZBMNMRzRdWrZJtHMWPzaUW6TQiagqycySX</t>
+  </si>
+  <si>
+    <t>DLyo14heeX86gSy3FR8BbfXGVJd7dBTE5iFgysd3vAxv</t>
+  </si>
+  <si>
+    <t>8pMusJMeV7oHT1cqSZ7oSk32L9SpDRxazZW7QfkBQ97J</t>
+  </si>
+  <si>
+    <t>2sFinnnFuGMRUzpYsy16n5U4uhPgYyCgCMzyEARsxoZP</t>
+  </si>
+  <si>
+    <t>FH2s2mkfXTbXKSXbDKYjreYa81CwsXka6rZ24G7WiidA</t>
+  </si>
+  <si>
+    <t>GGxL4SVa3a1JjqsZnKjgkZk3FxGdBduCj8asHG983RXB</t>
+  </si>
+  <si>
+    <t>DVMjJxNECkaZNqboTPd4RGdQ5Rg5hHAxaehGnRWDvvP6</t>
+  </si>
+  <si>
+    <t>42Hw93Rk9hhNBvWtb9bkMTr4qFu6subj7UPwYzirWsYz</t>
+  </si>
+  <si>
+    <t>7G5TGBZWnsQYGqcek6gEAA8X25MWLQkqZFQnkT5EQsQA</t>
+  </si>
+  <si>
+    <t>9TYnZgh4ZH4FDKvohp4iaYBHhQWZdYtwq8tb7xpWnX6D</t>
+  </si>
+  <si>
+    <t>4oTJmMkCdbuZ25pHLLYrAB33muRdhQoR2mEgrxqKR5mA</t>
+  </si>
+  <si>
+    <t>HgRaDyJzZZpjxpuTsom4TrbKrd1GpjAHXKwb2XoFuiCC</t>
+  </si>
+  <si>
+    <t>79mfVAY39TZuvUcUMYTB3kLb69zLaMBehYK5ceCReWR9</t>
+  </si>
+  <si>
+    <t>GUrERvXm4aLpCZo7st1tfKqeLd8rkhjYSC9cwV66Rs53</t>
+  </si>
+  <si>
+    <t>GMU5mpdXFdbwMXJmXrcz6zPwJJrLzbkGg2rg7oS3ENz6</t>
+  </si>
+  <si>
+    <t>Feim4bGNtRgkJMnc5aPco18MYvwnDQzgxLpk8AJbzNNM</t>
+  </si>
+  <si>
+    <t>74diyS6mUiRbtVpka6z6z3FyekLXDwc68pmjdw9MVAPu</t>
+  </si>
+  <si>
+    <t>BiZs2egQnTvrWXMLYucr2abp2DYzA6jfNWzKUUANjoky</t>
+  </si>
+  <si>
+    <t>FWiJ6CXKQUrCz1kbXWMA6KLwvwP6NL6UisWwt6fpZ3e3</t>
+  </si>
+  <si>
+    <t>AACNt5SMkQ77H1LAwcZVsKmR76r5BF2vhqGLUfJHV1uk</t>
+  </si>
+  <si>
+    <t>H2RoTTpVVUAFAtZu96DGx4PNjmWWJa9F74c7P2nPoNzs</t>
+  </si>
+  <si>
+    <t>DbuRzaJ2LbaaNrXCWTTWtYj7zp6ENa9TgmKMQiR6tymv</t>
+  </si>
+  <si>
+    <t>9Z38aKMTKPstV27Uy6cuRtSwfCp9y7w39XUxGWs7tBmw</t>
+  </si>
+  <si>
+    <t>9rAGboA73RgSQMGsJCUEnvY1KAEfLqEqvLbgn68tMekr</t>
+  </si>
+  <si>
+    <t>Hjepv8PV9JEfLEvKVtCKQLHU95xxttKEx1YdoT7bqh1S</t>
+  </si>
+  <si>
+    <t>9gAxqvfwUZkeXWHuBSkCoHDgAwBnyTtZ8jbkyQKURk1B</t>
+  </si>
+  <si>
+    <t>AkJ5JExuf2RwaQU4cHExB7bWsmMn1A1oRgZ7PLxKAh1g</t>
+  </si>
+  <si>
+    <t>EomqEj8DQoSGowePtcD1qunDLEZmGy759JGbVRZ6VKMQ</t>
+  </si>
+  <si>
+    <t>FSPJtD75J1a5hrAu5pEed6HyppWAa9WnPUyikohGYivp</t>
+  </si>
+  <si>
+    <t>5Ni9KsATEV3YufuVTPtGvURHRjTPTejFtvDLcmZyXFtS</t>
+  </si>
+  <si>
+    <t>7a8by927L6YGwsczMnBbcfC9JPmCHdRgqbcGqwzg2wAV</t>
+  </si>
+  <si>
+    <t>H53523RpqaXz8GtMiUeZX4uzxRRakDJGcTSWZe1nspsr</t>
+  </si>
+  <si>
+    <t>E7QPXqz2wYkYzAW8a9me8NofNdk9pJChRtYS3iYmYbQq</t>
+  </si>
+  <si>
+    <t>7ham8NDDtwsofDy2WrGWLpR1tbZVQzGpWSS2w4iwfRes</t>
+  </si>
+  <si>
+    <t>E9LiW3icKM5QnUg8icjkGLXAADAdkSzU9JztoRNPGKjT</t>
+  </si>
+  <si>
+    <t>E36p3dESQengvMq8U6ozvRdVoV1qVnkNqmhWVMgRrph3</t>
+  </si>
+  <si>
+    <t>AMwHiaviQy7HaiiFb8EaCh3gEVSQDNY67GHYx9zwR1zd</t>
+  </si>
+  <si>
+    <t>8X5WCiACcYb6NaRZwwFAGdsPrHEwNF2CmT7uG3VZSmaB</t>
+  </si>
+  <si>
+    <t>94j1ieB6bwJyXT26qNUgbXQVnV1VsjDjXZRrazKwhspU</t>
+  </si>
+  <si>
+    <t>85ERrNc9TVTFxoifUpsPJ431f3TVawTcJYutf63wv6YB</t>
+  </si>
+  <si>
+    <t>5BRrohDSX3eTjQymzbg2cZqT9zrvPtc9kayYcM3iQSAq</t>
+  </si>
+  <si>
+    <t>Bha13J2LHsHPGkBhKdQV8HPLqCMXBNqPsyYiGQMMHJfV</t>
+  </si>
+  <si>
+    <t>3B4F5XdSz5ACbrDgMSpcm52aFVF7oUeXjog4FiCe5e5e</t>
+  </si>
+  <si>
+    <t>5e7aL465f3FZhauaVdrh74dSJBMvVU4iHbzqCxYpVkgN</t>
+  </si>
+  <si>
+    <t>BbVTr8QcTCgBf3keJd9WLvtfRXsDv9aUnHhgLcy12Rw7</t>
+  </si>
+  <si>
+    <t>5L3AAwgSVfSdAg4jGSL1FAGQVRreYJPSjmHabaeAZdv2</t>
+  </si>
+  <si>
+    <t>JsgU5QP6XFPTGxNqFFKuy126F4M6hJxnJzVUhLKaa3y</t>
+  </si>
+  <si>
+    <t>HKxSYzG5VRVR2SR52iNNfYzGBR658i92D3s6iQierEq5</t>
+  </si>
+  <si>
+    <t>bFV6VVoaxK91t6qSkZ2hCNStDGD7fjmY9dBB9N9mhq1</t>
+  </si>
+  <si>
+    <t>DhshMg52qdZ5YgAvZ54XTaxvRUJiojMiNqtmADWQL7YD</t>
+  </si>
+  <si>
+    <t>AG18EsySzAycx1FZHGvcoks9jy943CMQ3cgEFQT7xFX7</t>
+  </si>
+  <si>
+    <t>G1Sy9KTGtdkkrbLh1sRtbX21eYpfPDS7uqeFUeE4Sa6S</t>
+  </si>
+  <si>
+    <t>HuQb7bQLrsUSaGMBTTFQ5pWPyc1o1dUQn8StKZBNbfZu</t>
+  </si>
+  <si>
+    <t>CpardJQbYDhMjmvRdXLHosfJ2kA8cEMZZZGSEVwy5VtS</t>
+  </si>
+  <si>
+    <t>BYjECSqtG5NfJEotWFBcKEYXZCyD8Ld2QTYG71XHcyrC</t>
+  </si>
+  <si>
+    <t>CWpYLMP4Bp57Noc3y8ELotAxyMgNkJqvntRiq8vvNPjf</t>
+  </si>
+  <si>
+    <t>CMRevRynwZFgdSWbq4WiHE1H4XBFbweLaiYCmZbBfnMT</t>
+  </si>
+  <si>
+    <t>BWvJpAhxzfFXGqW1ocZHibDkVYsitXFRQmECzdDTpDba</t>
+  </si>
+  <si>
+    <t>HYzv8Jdhv9wx42v9uVTyMnQqT2Qb2sd9ezs6uYZx11g8</t>
+  </si>
+  <si>
+    <t>29QKu9wW36kppAk3SzH74D9VZsY8bbSswdy4LnS69iNY</t>
+  </si>
+  <si>
+    <t>Gzy3SX5sERRGj3mF92Meuxh3zzus9kDid5Zi3aAWrthx</t>
+  </si>
+  <si>
+    <t>BUPnGaJssHb8DRFPQfcZ6U5pweB5fYacnfoGQc6ixhBs</t>
+  </si>
+  <si>
+    <t>Hv4R2HmVziY3J88T4bt3VgvbsvaMYy9u8xagwy9ip9Ui</t>
+  </si>
+  <si>
+    <t>FykgLG9yhDVYfLtixjo3QiMxmmLSASTYSRiN7CZDoV7c</t>
+  </si>
+  <si>
+    <t>EzYzZxUtn2N2fuq1YbKzBtf5FDV9gDRv22oDbnVfvXVc</t>
+  </si>
+  <si>
+    <t>Bh7aLhdWhmUKABzhBSLhp6QprxQHqua5nZWcHQ2ucHxz</t>
+  </si>
+  <si>
+    <t>CDGHKkfiUkiefsWrNSdP5UbcnVDqiDWCWnGSU6Kt1ozy</t>
+  </si>
+  <si>
+    <t>6JhfVtvLPTZKvmizuZce3rCi5551f3aCg8h2JyKvYwyE</t>
+  </si>
+  <si>
+    <t>Mk6fJQt9afDow36QhyQQm7pQmL4P4QGNwsnFfL1Lwuq</t>
+  </si>
+  <si>
+    <t>4JsVK4WtYi3sAgMGxySkUp81hh4CEMrATRCQjif8f75g</t>
+  </si>
+  <si>
+    <t>hH4YeUKvffUT2gDw5efeXhVYDHxaQ4Mu37Wk8ALFjW7</t>
+  </si>
+  <si>
+    <t>8vqVgFF4xDiQVVyCtmXBVx83wpGMup5nHX5CTiv8zKVk</t>
+  </si>
+  <si>
+    <t>EiCQeo4jgCnLjcwGoPvLcD8TqBjWutnkSoFd9zEfNer7</t>
+  </si>
+  <si>
+    <t>HWYnVFZoDoSFignvevXVNvYMXpuofjkQVtfJU1o5jYZo</t>
+  </si>
+  <si>
+    <t>6v8Pgn1xE5aF2rrUeJkfRTRPaVjxYGNWiQ8SMP97ovps</t>
+  </si>
+  <si>
+    <t>25x6f4G5ahbFt3Fd9YxzvfiWF2mNfVK9E9TpiVMMNRFs</t>
+  </si>
+  <si>
+    <t>HNvdAmw9jKpdzsVnscBxQ2t99bD9hwhqcVMGs8HKXLSS</t>
+  </si>
+  <si>
+    <t>CCjbaA6FhGZXDd4QsEsM2bfhJHq4GqhzSah9CDqorjR</t>
+  </si>
+  <si>
+    <t>ErG8Nu8yuE1XfMX9NipCVcxpkeZY4iMQ9tcgBj2YZPaN</t>
+  </si>
+  <si>
+    <t>B47L9NqgsW7jp4j5otGPad1icMe8Peb5UoVFUM4xM5Jm</t>
+  </si>
+  <si>
+    <t>9QEXQAwBSf7seDLonZWdXMkCwDB6eP9eGGW6EkjtSaZp</t>
+  </si>
+  <si>
+    <t>J5KD6hLcBzdWzYTYLEP3VrHPFZhH2zhcni1hk4PNFf8E</t>
+  </si>
+  <si>
+    <t>4vYi88XeLKgUkQHujmHeutcoxwiFyGPAYxDxCvTXF3ga</t>
+  </si>
+  <si>
+    <t>T7bxfFZGfMEMhrkz5XmG56yzTG8TDbCYivFVVmYoLrM</t>
+  </si>
+  <si>
+    <t>EqtkjHcEerZA8TfE36j76Tae2VG6y8mfFSiknLDJHnW</t>
+  </si>
+  <si>
+    <t>6ryF5U7hYE6KHjhqQz79T9h5y9218Cyqo2mvkNPLhSiW</t>
+  </si>
+  <si>
+    <t>GMcBNvwFTYCjTAXjQ6vFSFyqEUMRqjjv68xPi68bkUUo</t>
+  </si>
+  <si>
+    <t>FcHxizofDkaDkyptSaZQFqiA9aC6ByC1m8Z65bvkQx22</t>
+  </si>
+  <si>
+    <t>AsVy5gLDK7nPYHepnMazdMGxExiqJLk6EHfEJdTSRAva</t>
+  </si>
+  <si>
+    <t>GLj5ZQcReLg7CWfwAx8opgHREqNeZfDzoF81ikVBNzPN</t>
+  </si>
+  <si>
+    <t>3N7AGur2Kgu8mwkdSC5TuAEHYx1sfqCTfTxLqvXokXBA</t>
+  </si>
+  <si>
+    <t>EZDiga45KRm17RqittHtYzWzKCQv5fm69wrhrx4icfLt</t>
+  </si>
+  <si>
+    <t>zHa6Qja1LDUz84jpRiDZoV9gwBXETEGyua5BbSUXFqk</t>
+  </si>
+  <si>
+    <t>8LUFqfyW658h3czZjJt5voNNPN4xuC5iLoeQRakHguRh</t>
+  </si>
+  <si>
+    <t>475fseHr6GdW9U9yrrHqhxNwbAwuScwx2dtuy8gcmEb9</t>
+  </si>
+  <si>
+    <t>6fvtgUAw1ZHB9tU49Ur53egsVesHP9WzGhQHDvv8YXXX</t>
+  </si>
+  <si>
+    <t>26ebmr5aNGCawpxBEibHQKU7Y5k9P1jFcQpHaC5Ecsff</t>
+  </si>
+  <si>
+    <t>7FPufKzFnmi3pH3HxUpc9DD7MwhCYHSysJHfywryquvp</t>
+  </si>
+  <si>
+    <t>6wvzTaVKUdtJoqtAPhLJMtPkAZxu7ePqBUmz8QrwwHph</t>
+  </si>
+  <si>
+    <t>3Wz8MNEUBVNbPrVFwE4i1epgZ32e6a8EhTN3tf6BgpoC</t>
+  </si>
+  <si>
+    <t>7AbkMutS4We1kMG4Yj6GeyRKV18q5XYb142J2gxg1QDM</t>
+  </si>
+  <si>
+    <t>HBqKM8S8mJb33kD9BCKBAqxHQWE4DPhbVEFpNyovosP6</t>
+  </si>
+  <si>
+    <t>HjB2yi1riudhwwQ1WRQJbvd3jUUdeq5aZHfMh61TkJuk</t>
+  </si>
+  <si>
+    <t>GcR8PFSx5FDk1vi4viQkyi8XBNtifCHkizB9TeT8ACd7</t>
+  </si>
+  <si>
+    <t>AuUz5G4eGfTyop71Qv2KGbyD3pFGtNwkkvX2btLw1TUg</t>
+  </si>
+  <si>
+    <t>HxeunrZUHyaL53LYeidiDScm9vs92jTeYe6ah68x9GKs</t>
+  </si>
+  <si>
+    <t>4ERUxbAKPVCa7uzSqAhQTbXZhdeqipY392R2qgb2ZBhH</t>
+  </si>
+  <si>
+    <t>EGYSaxfxsomqGAkigfo6NeqDYVvu2NoKHAHvyXUMRmei</t>
+  </si>
+  <si>
+    <t>87QJZENKVVh39NYpjibhZMm8CPzSLVGuR8zWyA5Hp2rb</t>
+  </si>
+  <si>
+    <t>BY19BYrbHGJq8hX2XgUvQDdBSo5uohKCFpcuZfXhUt5A</t>
+  </si>
+  <si>
+    <t>HkvxctivJXx6rhmBwB4K83uUvbfMfXuT5W55fC1etaLE</t>
+  </si>
+  <si>
+    <t>B27qhnFjsuMJHQtkypZUVFnBYFPo5vQ1AbeFneRbHfz4</t>
+  </si>
+  <si>
+    <t>AkxkqhsVf9aiTRqtQSuSqwcDb4ECSdZo7PRW8kdVTzNf</t>
+  </si>
+  <si>
+    <t>BYBYt9hjM2DKHcczUvpUjwQgYSTCjPXKqx3g1pdHWai7</t>
+  </si>
+  <si>
+    <t>HTqgnMwLKUTeXcTrhe7EmTJ4JkCokCE34Yq8ExbgyeSb</t>
+  </si>
+  <si>
+    <t>FTsq19Nayx1GRZzEHJqFKDYyMKMSfERV1XfBsYEsp8RB</t>
+  </si>
+  <si>
+    <t>Cq9GW4UsNeUFdKNpsPQfGxAeTeuhM3rN9B2v91c4M18K</t>
+  </si>
+  <si>
+    <t>4m67vXDTt8TQBXBqXfqQjtKtHjXdEiGpCH8qGsY3vEAA</t>
+  </si>
+  <si>
+    <t>FzPTUv29382as9yo84FtMvP3PkmJPB86wXLbGA7tAx3F</t>
+  </si>
+  <si>
+    <t>E51fTdzaqD4ZFnm3FPzj9twNzzJ6L8LqTPJKoRg5hXb</t>
+  </si>
+  <si>
+    <t>9K8UWkumq9d9U4dDpAma3yDUkB3t1MFcQcH9sEqL8p9U</t>
+  </si>
+  <si>
+    <t>4TzupUnyy6TLbCgpEdfV4xeMvV3NZojTiHzFnqzVjkaF</t>
+  </si>
+  <si>
+    <t>Ei6UCaJf4N1Kpxp23xtQqU1u2dFeKLhKBn24b2fy77vP</t>
+  </si>
+  <si>
+    <t>HDA5J3rY9e9B9Ww4AVc5PQ2j8hsYUBuMdEW5GqnffhfG</t>
+  </si>
+  <si>
+    <t>GPyPLecJGYdnpPcwy9oZw9yQEnd6ehULNeSHnMf6PfuQ</t>
+  </si>
+  <si>
+    <t>5seGjHejXdMj7PCaar8WThvkUSRXFz2yzXuZzTBGxVeT</t>
+  </si>
+  <si>
+    <t>F9ExVNJKWg1n8vhZ8Rm4VDi97bTsp6MGaivJXRJqrQWZ</t>
+  </si>
+  <si>
+    <t>GkReQWy8FjPk2o4UZR9MRFgTkhcfubUMLRevABFeH6zv</t>
+  </si>
+  <si>
+    <t>584dqnY9YWKzwXPYf7URuZSYddgu2P6TyMCJW5JHntHn</t>
+  </si>
+  <si>
+    <t>6K9e4NfJPeHZp7omxVTYKVTuJhi28PJfqt7UGfKy8ahZ</t>
+  </si>
+  <si>
+    <t>1ge8AWucYmNF2BJwwCNSZBKNruPDez1jqFeVWC1VusE</t>
+  </si>
+  <si>
+    <t>DZ9p83CVGL7tZMbcFByuZkpAVpspz3sa7pCnXoPnjGhk</t>
+  </si>
+  <si>
+    <t>APtgN5N4wgm63wSnAGZrmHTRMwXec7ofhTuNR4xE8vR6</t>
+  </si>
+  <si>
+    <t>8GzjjxjD1SEn4Ux674rvy3SmJBYubxHAzmEi1dYHdahY</t>
+  </si>
+  <si>
+    <t>EdypCv1x9hpg5hW2Ucc2GPemP3MtbAYoqwDa3oeb9Uog</t>
+  </si>
+  <si>
+    <t>CMrhiegawTba1zBt1WVKoWDeR14urBZZKjoGZ4Kd8RxM</t>
+  </si>
+  <si>
+    <t>CLEJpmwNvZitud17XwfsXiiGdT5qW1SqrPZzaGgePP6a</t>
+  </si>
+  <si>
+    <t>BrGzQ56cLnQQxc5TEVtukEmPDGKsf4FY8SfXPseiBEYh</t>
+  </si>
+  <si>
+    <t>DAhTCea4yYj56vHRuihRvmDuoprMNUWdc5N4n4LuHrqP</t>
+  </si>
+  <si>
+    <t>EHkF7V4WjGANw44pjdcSDHx2uqMpAbAXqh6D7r4Ajaxh</t>
+  </si>
+  <si>
+    <t>CEZX9PbNjoLCd8S1nFTvFe2uVoZujYftV35w5rAcswZs</t>
+  </si>
+  <si>
+    <t>BkxWCrLWALDi3Jw68pmwp8rSkscF9xt7UkVdZJpvMPkW</t>
+  </si>
+  <si>
+    <t>77VQseYt46wF9QxRhiCBC55LQeuVK4AXdnBXu84swuHe</t>
+  </si>
+  <si>
+    <t>BrXoUoaWXQfiKzRitQgtoMqdzWd9EY6Vs8vUcTTKswpx</t>
+  </si>
+  <si>
+    <t>84yBDSDZXivULnXRPefB2eAeUR1hBC7ut4UF2z9GRykA</t>
+  </si>
+  <si>
+    <t>5PTZFvb9jkE9Wr6qLYUkJp3eK5Hhz73qxCi57B1eq6Jr</t>
+  </si>
+  <si>
+    <t>9BSQv1Fuf5q29TnTw7Y827DoWze2n3DVwCMRnuZAK9Kg</t>
+  </si>
+  <si>
+    <t>7HgoJBCjNYa4n3LGQT4nYHVeqncGnDV3R1BWa7jCBkXQ</t>
+  </si>
+  <si>
+    <t>Bat4JWWNxXfp25q7k2Yt5dPxJbcKmupM3kcEs6WQsHbv</t>
+  </si>
+  <si>
+    <t>x2iWqhhiYtbCeU4supTzqJefGrdux1rSzwTbG5soJnb</t>
+  </si>
+  <si>
+    <t>C3AE5XTVCKteKWzY2E8xE5G7KvK5dPp1pcYCTpHasRwR</t>
+  </si>
+  <si>
+    <t>EDC4pipaZHKYDHwiJdYN9EjkRVJZPBy6DyVpZcC8JX5J</t>
+  </si>
+  <si>
+    <t>Diu6a63pVm1rTwje5JFCoRLNV6XaKc3XgKXvBNTDGLXi</t>
+  </si>
+  <si>
+    <t>FSLLAos361hXthQbpsuhbE97r7FxaMVdFPYLVS78SZTJ</t>
+  </si>
+  <si>
+    <t>Bc3YnPgmPFhu4yGuX9G5wqBUuyKNcfCk6CUxQ4pXmb7M</t>
+  </si>
+  <si>
+    <t>EmZPGjC8BJn9ppbaNfDbSEWteY3VvnDNHAZGRqFGcY6a</t>
+  </si>
+  <si>
+    <t>BjBTiJeqsS2GtYLkq6PVHScntuKdXgEE2rst1SfZzZmB</t>
+  </si>
+  <si>
+    <t>6hdL84w31wwUJBXUVuQ248nnrJJzYuguhaZ59yGW19C4</t>
+  </si>
+  <si>
+    <t>9fGxubx4G47Ezg1hwxNBiK8DPponjKvjoRkfib9afCAM</t>
+  </si>
+  <si>
+    <t>8iTiBpLoCpXHjznnvxiUqFWTNPEeQAigzPqftB3UAnSP</t>
+  </si>
+  <si>
+    <t>BDUjhqJHrZz2KHN2kQ3Dt86ioDinv8L4MynUi3HFh3J2</t>
+  </si>
+  <si>
+    <t>HdbTCSdmbkq7oTcBCbU1Pun6jNCJrtoxKMaTBy7VWjhN</t>
+  </si>
+  <si>
+    <t>DCpvgHi13rWLPKaKKGepGguersJkjYCThSS225XZ1gqs</t>
+  </si>
+  <si>
+    <t>G4jA5Wk7jafEdFN5mtULe3U4WW8EN8dWUXRDRiTx6Aba</t>
+  </si>
+  <si>
+    <t>4NZPig3uRm1akPLyTmwfbaPJVAV1hgXHXvAgfJMnxQ6o</t>
+  </si>
+  <si>
+    <t>534tX2rqyfdfuL1Gn6SnpFqGcFCSyAfqHv9p9webL6K</t>
+  </si>
+  <si>
+    <t>F6x2jLZ6865VEQJiPJjZWBXFAHtmynU9MYQRfRTGKAhS</t>
+  </si>
+  <si>
+    <t>4Tvmr87ixgM1FG3cVmsRLzWqRR75ZLP2bT3yDYqB94tE</t>
+  </si>
+  <si>
+    <t>3Y83JJ9UtNH6jASgE9rFyCzCYYC6DghHvYLTs48zcTrc</t>
+  </si>
+  <si>
+    <t>4Vm3kEWC2JmpfzGFEdvjqTM6tEmE8LgyeKJwzM7RGswN</t>
+  </si>
+  <si>
+    <t>2hhfgNy2tc541cnh3GdyHipBvabHymhtwhzoE73K8ZNv</t>
+  </si>
+  <si>
+    <t>g8b8KQGrodvfMDzJTvaDArYzmoZLaPBKKb3shw93rFm</t>
+  </si>
+  <si>
+    <t>CE4BnLD7E3YpiR41UGnt9nArxcqR4TQ71rrcxyMbef84</t>
+  </si>
+  <si>
+    <t>B1KbXQSYVPpFd1R3AqKMUpUoGW6BitdUyAw8pSSyREKb</t>
+  </si>
+  <si>
+    <t>HRhCA3ok7SkwTmQH3T2WTwb1tqPLXAwCV6CGgbh4kF1T</t>
+  </si>
+  <si>
+    <t>Afj5DjHVaR6KFc6HRYyFq7QqKTTfN5Z9aiEJUZea4dx7</t>
+  </si>
+  <si>
+    <t>CFRPv9RYiuXALbrgcj9dBXimKDcnjCcPf9Pe5i6vTHHW</t>
+  </si>
+  <si>
+    <t>4G4vVcwW49RuznC1qUK41bWYhzDGmSEc9F1o8VvQfXVe</t>
+  </si>
+  <si>
+    <t>EzDRhhm17MuWF5eEpvtfkuTzvBFnMZRqnd8FroML34xz</t>
+  </si>
+  <si>
+    <t>FWtEsiLhd4TDTwZuEkMvtkwPXo5spzA8TTkH6pAPysuv</t>
+  </si>
+  <si>
+    <t>7KR6za71gJ4SXJ4mF2aaWbE89XDFusPVENET7ZX2SUmS</t>
+  </si>
+  <si>
+    <t>VGU76wCU3NwU16PrmUtHThvUAEbzBQVr4zYckpursnF</t>
+  </si>
+  <si>
+    <t>65ResjAHuFFqro3Xs1ZjeydKwz4M91CbX8Bm7LEwqeFS</t>
+  </si>
+  <si>
+    <t>J4mEWUyoRxxeJZqbMGT2mkYeG5D5PkkTzuwgm2mfFk9S</t>
+  </si>
+  <si>
+    <t>AFEdnVxAvWMd5sBmADW1ifzqEEdigCaCXRiyCsbXi8Vv</t>
+  </si>
+  <si>
+    <t>B6sMiRNbrLFSV3557fGp7C6nWCZi3UKJAKoXr6T6t4DK</t>
+  </si>
+  <si>
+    <t>8sBAXviweHZFXEysLud3YPJz9eZnmtzac2TjhoHFxd2Z</t>
+  </si>
+  <si>
+    <t>HFManSWrn2aJNDDYMP7dWjZCTxxtGCHeCaHfsGauTjmQ</t>
+  </si>
+  <si>
+    <t>ThnevGnmaLY7bGvo341kzHaH7i9G2qSDW983yUVQaRP</t>
+  </si>
+  <si>
+    <t>J1RobXjwSCaAxEJakANdoTes5bqBaMgdhsfmnTrn4s5q</t>
+  </si>
+  <si>
+    <t>6XeRaQoNx4iHh33D9oregfyNmiLBsq3LxXfFHovH8RAN</t>
+  </si>
+  <si>
+    <t>7WkurDh7g7V8ESK6BVh2L96YVkMGmGSGaTWvNhf2EZ7L</t>
+  </si>
+  <si>
+    <t>HNguK6bNTeUfjEfgEjdkQuKiDQp6Xwcrv75PcSmTDMBM</t>
+  </si>
+  <si>
+    <t>4WW59r7PVPigUjh657qtiawcr782NbHhVm736HmMwy1c</t>
+  </si>
+  <si>
+    <t>CTkW86ZJsHMkuzohBEV19Mhdfn9YJFhnvi5cVNWrifnw</t>
+  </si>
+  <si>
+    <t>HfAfBWMfkesLQv8bpYpnUEV3j2acubu8dPz1TSvrCB7t</t>
+  </si>
+  <si>
+    <t>CFXqMF2DFjLDWYMuUeTjCbtJtbGVELfK338FUDrh7mXL</t>
+  </si>
+  <si>
+    <t>DG46fYotaujY2hvtBJm1AJ4gd1v8CmnR2GGtcHr1FG4U</t>
+  </si>
+  <si>
+    <t>9YTPyeKyfyW6AehJsYVtfZ7NjbKugT7wvF2B5JXJizkM</t>
+  </si>
+  <si>
+    <t>DcVEX3TeJyx7Ry5aRtDg8x3sS56g8c5dCMPAYH5XCCJR</t>
+  </si>
+  <si>
+    <t>DHdNRHxxeJezhKhLKucKSnCAfwv7aMny4oEF1oLJCj5g</t>
+  </si>
+  <si>
+    <t>AXkatFBc46b2nzrELizomaXHVwgWcfnFsGwxw2NFZArV</t>
+  </si>
+  <si>
+    <t>Cho8ZCy1r2kzPdxUNZGPEEdHLE7EGgw4c9npyoTTVqyh</t>
+  </si>
+  <si>
+    <t>3VTCeLQsvwoR4xnjgY4tr5t6DtQfKeK3bbQAXzYv8iej</t>
+  </si>
+  <si>
+    <t>7tm9WfT5TrahpuZqwFE7DqiAv7JneWE7TkgSCTLKooAM</t>
+  </si>
+  <si>
+    <t>GC78ey2v9j8pE7QeMt2GefmeKtXVBd8WdzWst59Tnaom</t>
+  </si>
+  <si>
+    <t>6co7npmnD4pvk6JfGt8Ljp4B12P58SkmvMs81GQ5CkaH</t>
+  </si>
+  <si>
+    <t>GVmfj81xwwKc3VfHfB8CMgYAMnKbCH8ksNWyLXBntViq</t>
+  </si>
+  <si>
+    <t>2G13foUikxnmA8ZH1m7FQNqspbFPSXq3TvbpEj5jdWcS</t>
+  </si>
+  <si>
+    <t>546egJyVY78Maa67QWvxBnHmRGP9gUqRy8ZEqHE5ikSD</t>
+  </si>
+  <si>
+    <t>3a8WHUJDfiehKoa3rhGSYymzBNR7uMxsJwSm4a9Z5sFn</t>
+  </si>
+  <si>
+    <t>4vGubCi65QLVji1ZbAQkHaVxR7qmemE9niTYqYLNxZuZ</t>
+  </si>
+  <si>
+    <t>7opt1NrgsT1R574MFpgs77DwWybgiN55XyuxnSUND2mu</t>
+  </si>
+  <si>
+    <t>8AQQHrSjCakBipwD2pdf6wQBEUiN9mhgjggv87G89Z7N</t>
+  </si>
+  <si>
+    <t>3JTgnpWhqvTR19QUB8dxEvNDYKpGvZZZGVSsSpfiyjFJ</t>
+  </si>
+  <si>
+    <t>8aAaQ9Lw4tUa6aWVwpL5fzJrAPm64MV48q67P2t9AMeK</t>
+  </si>
+  <si>
+    <t>GpVEaTUDU8zoJT6jsU95SfiEmzKFgvCk5sWo5WNC5Fcq</t>
+  </si>
+  <si>
+    <t>EYfg3o71ubxHtP4JPC5HRqRcJyGWgD23WqTvtTKzusD5</t>
+  </si>
+  <si>
+    <t>BymmrJ8egDR57zkr8RnSH54kK25UKgaA658cdDhg9YKq</t>
+  </si>
+  <si>
+    <t>2bFA9cywxpajaFACrPE9Hn5xc6SCdmxeU4MYxUrt7YpH</t>
+  </si>
+  <si>
+    <t>5UdXvfApvZcLt7HW3B6LwzW8Ykuf4RxNuEA8tRq3E3AJ</t>
+  </si>
+  <si>
+    <t>D3Jh6YgvaDpsULYQ2Va5sHSvvpYVCVBoKw6fmQR8RH3N</t>
+  </si>
+  <si>
+    <t>8Ao8xKSEru54E6ZQ1mNNQY35HztV58DFTVsKNdvE8qqx</t>
+  </si>
+  <si>
+    <t>3dCQ4nvny2cGF7YBCKELM26YHdnty72razVWq4iHWhy4</t>
+  </si>
+  <si>
+    <t>9CkYMfkJua8PorEtd8Y2Ma7woUpiADrPqp5jtLainkGd</t>
+  </si>
+  <si>
+    <t>8k8qg73yMZmNjmeR39yzGSdVew4fuUh6fSLD5nizKDbY</t>
+  </si>
+  <si>
+    <t>6sa4GdnjEK16cv2LCk5KhePUuy1SEdA8ZVi3jt3FKdqW</t>
+  </si>
+  <si>
+    <t>Aaz1rhHwJPSd9agFBp9fv5NoUK4CsXHo88HdstRR96pu</t>
+  </si>
+  <si>
+    <t>6bo5oPRydbJwAaUnqnQX8AnvnpfPVKCeq2jwnchnS9sN</t>
+  </si>
+  <si>
+    <t>46vTAShCznCbEmo3gJYVtPU9WrZAUgCF3BVxfhH9feAJ</t>
+  </si>
+  <si>
+    <t>GSfgz1bnyuvUX5ERafGRaRxG58UYeaJWuqbPMuECMtA7</t>
+  </si>
+  <si>
+    <t>8RzAXTDn6ZgNp6QrUc9SV8M4Ype5YJGqmSjBCuzDs2Sc</t>
+  </si>
+  <si>
+    <t>7tFJKJZUkrLY8PdVbAqDoDE1nidKqniosXoppzF6wQn2</t>
+  </si>
+  <si>
+    <t>D38BVkDtWVukif9wmzLrr2wzdyhPByFaFuN8hbzAuB6S</t>
+  </si>
+  <si>
+    <t>H8v54oEz6WGVcFB4KUaAaqXYvNeZa1VrxjCShKZWouwz</t>
+  </si>
+  <si>
+    <t>8fcXvKTLTNSDd3yJQzKh7qacT5rKpRNiDyqFHGk1B6GG</t>
+  </si>
+  <si>
+    <t>Cn7wD9P7sQgfNzZrmF1qutT5AQX44PaHiY5ehtLZxq51</t>
+  </si>
+  <si>
+    <t>48GX1L1NMUqmNxZGQsLtcfNwkYwte6m5yDZAm9oHXNrR</t>
+  </si>
+  <si>
+    <t>ATTmAv5h4vznJWnwkhpSHu5xGVaQDRdS5upp9XD8wAAL</t>
+  </si>
+  <si>
+    <t>4gv7XniDfDw8v6hkGJwAxjDKb6MMxLFrgdw4zeQGFdqD</t>
+  </si>
+  <si>
+    <t>41YbUFz3J9jsBsKAtVrQ6G4qJ5Lt6ySY9AJYm2RvzKBd</t>
+  </si>
+  <si>
+    <t>61t6X3VWAo8SC1SSWPr3N6FvrWzqaHHSPT3izRVU9Xmp</t>
+  </si>
+  <si>
+    <t>3nyPsFfcQeKzFmkrAcpY69qxQuumER3RCKKkFcGVZAxZ</t>
+  </si>
+  <si>
+    <t>6uumLo9bjp4wAzH6hz4Sf28GHnkExB8aB9pax9uRfqVr</t>
+  </si>
+  <si>
+    <t>uaUpm7kzgi4dRJF2VyeWUHGbJ8kj72iBKSzXW3oLuNR</t>
+  </si>
+  <si>
+    <t>GEGpJpnu9e2x12jXFAheZ9BWiKKLNy1HqJ3YQxnXdA78</t>
+  </si>
+  <si>
+    <t>FFrQHkJDZFbYqEU1TeStPHdWsvHcAgE2Nkm8JpXScAGu</t>
+  </si>
+  <si>
+    <t>96k5E9syScC4bw1ukPJFxccz58v1CwnyrHye8j9G9WM6</t>
+  </si>
+  <si>
+    <t>Hv5Yacnm9mNQrkQmXsbDqLGWakV7NFT5Bj78CFxM9ajW</t>
+  </si>
+  <si>
+    <t>4suZqrdVtwABcFGjbSr1jUSsaXTMxL73drduNTcSUfKc</t>
+  </si>
+  <si>
+    <t>21wJe8nyN6gEHd7LAGBVxJHgqtto5Xui9GznEhSgLN2e</t>
+  </si>
+  <si>
+    <t>2FPRsLm8CthKgzoYvPQPSQZngYtbgKe6k6HVzxENmnmx</t>
+  </si>
+  <si>
+    <t>9SgrimpDPpmR3YEys862gB9VgqwRzmvTpFrBdK39P5Re</t>
+  </si>
+  <si>
+    <t>Z72RFknXmT1S8Q7abjrpyJWuqWHyLQQerXhC7eQzp7x</t>
+  </si>
+  <si>
+    <t>AZXfFBY99DobAHgcFpZs8BrBAjp3Zo3qpVBV45JiVNia</t>
+  </si>
+  <si>
+    <t>BKt3e9BBvaNZ5jRgYLYxi66YsQ7bxboMLFRRrXC7KZLk</t>
+  </si>
+  <si>
+    <t>2icSdSWiYsJEHDmzRFnWuLME93jcQ55QdH6wBFC14ivf</t>
+  </si>
+  <si>
+    <t>8EkSh8t8kmQUvJxjw7L3SKajMYo8iYa1ZCfVPcCQGotS</t>
+  </si>
+  <si>
+    <t>HehX8sqyd9cDXsyYzg5NnAuzUEaHKkeSwG8wZRzbFYcv</t>
+  </si>
+  <si>
+    <t>97sFasXakSXFqZWSsuGRDtxrqoLyFq2nvkUjVvPh5QE4</t>
+  </si>
+  <si>
+    <t>61hV1UMh7f7XeP3poYwgMRrNwrpiadTWFfxAwFn6e8aQ</t>
+  </si>
+  <si>
+    <t>EUKYmVu37wzZUCBMkPQPp2PPZWhaPXs7RJu8cCCKbrLt</t>
+  </si>
+  <si>
+    <t>HEUKAxG29HbRivU8bk1Ypg9K8JVf2R9TZydQ1ZRzZEsg</t>
+  </si>
+  <si>
+    <t>AU9C49svZgYvD5rgDfqxK3X1gBRv9AMGfEkWJhYWGM9q</t>
+  </si>
+  <si>
+    <t>FGeWaVwQbxMXvAUF2TCsQtpUG8wLywsxcXSTEnpvuhiy</t>
+  </si>
+  <si>
+    <t>5y9dvz2CSMMGsWV1sg8ZraWtsVB3ihuFtYs9RUeES4Ca</t>
+  </si>
+  <si>
+    <t>GSQDwpGGYrpbhrss3Q5zGNs7RpJdeFnh9FnLsV9SogUE</t>
+  </si>
+  <si>
+    <t>DF1ffEjUrBtQMDuePN85oHEM2zPoPaCzaz9iCaqnbi5M</t>
+  </si>
+  <si>
+    <t>BQTiBJ3J55JRa6hqj7rZvCKiJPrcoCapHvK7QzwZas1H</t>
+  </si>
+  <si>
+    <t>swtdFmGAzJWs7ybbSDTG1hdiTk6JZ1jW3YQUtyRruWZ</t>
+  </si>
+  <si>
+    <t>CAxkYMjGXQvRk6nb7H59nCZoV1Vti42GNAJFYUipKS1s</t>
+  </si>
+  <si>
+    <t>8TfBUB3ksp39UjKUbAJLB9XpdhhctFAhz6Ab3FXFpCjB</t>
+  </si>
+  <si>
+    <t>4Z9aNFEbmAF32tmiw7T3vgCYmEdsF7fpovEULxjcoBef</t>
+  </si>
+  <si>
+    <t>AZ8dN4JKBfgZ4f7LbXbX3BXvNYqZFFnL7hPg6eqZGnkA</t>
+  </si>
+  <si>
+    <t>AkMFQEf5FYDx7UD7o9uK1roD4qdemJYGhVTqKo8s58dj</t>
+  </si>
+  <si>
+    <t>9SwKDGbM1sf8DSo8N2pfedyrsttGE8Q1x7pbSDo8gxH7</t>
+  </si>
+  <si>
+    <t>GMuuEEQWjsBUfaAiqBExa8MTNHTX1MbDWSodMfraaZ9E</t>
+  </si>
+  <si>
+    <t>3Msy1ZxV2LhZRwm7sV2HRP3DfguUEmJFDJewgkwXUj1G</t>
+  </si>
+  <si>
+    <t>DtgxMwTR1pW9taqQcALvXyBdWS7bxEQy6a2auMBxHbPZ</t>
+  </si>
+  <si>
+    <t>8PYchTw9hFTCKCvZJtKSwzc63tMVzRNFzfr3jLxtTgdd</t>
+  </si>
+  <si>
+    <t>H3PGPFsJ9Jjuz8HoBKT8NNpuQDMG6QJvuGnYRouDYQAr</t>
+  </si>
+  <si>
+    <t>7gLRfvoJ2AH67SknrsUeGdg5cPhufUhoTaMSwCc3uSCY</t>
+  </si>
+  <si>
+    <t>8EqWSGH5jVqhgqCCc4KdXKhFBn3GMyfJVnnZYjLMSUh4</t>
+  </si>
+  <si>
+    <t>4dAuB15BYVpV7fqh1WdwyBKvDxiSRELMgn5P6uPfR58u</t>
+  </si>
+  <si>
+    <t>BxvKVxfXXKRcBgJkuvP7BxAMz8At8AS9odeQjFFp62fi</t>
+  </si>
+  <si>
+    <t>2CzjBa7PFggWND5vQn7tRboFuQqcf5jLdGJPK7Qddajt</t>
+  </si>
+  <si>
+    <t>6FDWJTAtJSR6yoqucoUtzQ4f5UTpkrwkwoKmi5PCxcU</t>
+  </si>
+  <si>
+    <t>9bQn8NinUos7A6qRMRadM3SJsJbnn7dthq6emXovw5S8</t>
+  </si>
+  <si>
+    <t>47JoAUDFt7RgxMSANxpc9ZEqsVWsagWMbq3sgjhLRwby</t>
+  </si>
+  <si>
+    <t>3PXqT3VQxv1rjDHUEhKu6gtgwobNRDLcB1rxYENjKUce</t>
+  </si>
+  <si>
+    <t>7ta9Tz9JhnUQSJ6eTmQbVgE7GTrTPCbUgd5D5PvDnsi</t>
+  </si>
+  <si>
+    <t>2j1dvHVDsDTJm8kPMgC7g7sdpqQXHu6Ybmgpftw1VKK3</t>
+  </si>
+  <si>
+    <t>BNwa7fe5iVcwfnURsqwfyfAk2owGMP9GYLWKL24ustcB</t>
+  </si>
+  <si>
+    <t>8HMMXLNdyvMkaBkmj6uYtc3pUSuxSanu6AE2UGSeVHio</t>
+  </si>
+  <si>
+    <t>GjUJbwDc37czUYovtmsUVVWnX9p4NyxxBAxkZmosVBrG</t>
+  </si>
+  <si>
+    <t>3zYKnyAWnxgusWFKxdfC4USZiP41vDTHX9Xkej2bojtA</t>
+  </si>
+  <si>
+    <t>798gFrj7Kb3phzHfEvDnc2hJDEqkn7wMNRroRc6gkEsr</t>
+  </si>
+  <si>
+    <t>HGfdVfrMcDxnUy59rPtYuG8Wx4LAQcEGgca2cHXVEXtQ</t>
+  </si>
+  <si>
+    <t>2kiT8dFoinHGwQJ9PUsRABFDkR6UJvtwFEnnDvpBA6Uc</t>
+  </si>
+  <si>
+    <t>7rpmCvMSU6rc3ZC39nSre8rKKrmxjHrChF5cvUWk5X79</t>
+  </si>
+  <si>
+    <t>424c34i6ymy7933Bwa5vn1Amy1qSwtRYHAJSSM22D7kA</t>
+  </si>
+  <si>
+    <t>8gDvgMyd2n2VYwsuTifooo3Vzc36xLsactvCCcAVpgw6</t>
+  </si>
+  <si>
+    <t>6GWJ6j1UeM5T2zBAkw58BC6ej6w1rRgAqA1K2VmoSoFi</t>
+  </si>
+  <si>
+    <t>GFd5z54bx6Mtj8Fn5eHZDhTGD1bRkj2FNFpcuir4NFo4</t>
+  </si>
+  <si>
+    <t>FsM8JVSk9gw93ZxyNnxh6kujmYcCDe4xntz7fnjHfLcN</t>
+  </si>
+  <si>
+    <t>5A9FmbipUTJjste1HkpnLDhKyCQekUe5X37BWiJQwHcE</t>
+  </si>
+  <si>
+    <t>75XpEYGDqDsd7BwK1TkwibbJQFZsYBdyhJJKLfKS8tuZ</t>
+  </si>
+  <si>
+    <t>H1euTfkG1mD9JvKrDhHxCa3XMttEEYLjPqYJjjQrMTH3</t>
+  </si>
+  <si>
+    <t>4L6wnayShQNh6YFBqX6qdLHeuLhd8f3KqgqnvkVXYQdD</t>
+  </si>
+  <si>
+    <t>9SAiL13dWWkXrn18XV6BWWkCmC4Px2XRJ5b4CLGqj7y6</t>
+  </si>
+  <si>
+    <t>DAnTYR1L8i22wwLDfMoo8gyrcS6w2KfgWtkRpELUawN1</t>
+  </si>
+  <si>
+    <t>E7MSEe8XeTQobjoGarJWncZ1KaMDCT17AsYGRyySkUBP</t>
+  </si>
+  <si>
+    <t>3X3nkeXyXmJzYmD3xCPU6YJqC5ih3oLCihwCMP2h5DgE</t>
+  </si>
+  <si>
+    <t>FW6487xVrydVBmiHDeuBbDmPWhHNhgQfHdi4TzRrEMUu</t>
+  </si>
+  <si>
+    <t>37FDXrZy4wPZz9gQaUfeWzunqnRLfTiPgSG8URBim2zH</t>
+  </si>
+  <si>
+    <t>2Tp9h7UYpMmhhGt1C8FUHaK1nw7umKAsjsU8r5KbPTE9</t>
+  </si>
+  <si>
+    <t>39YuxDPqf6q17JAHwXYwMYQQBLCVnA1Gma9r7kVJer4B</t>
+  </si>
+  <si>
+    <t>GzBojE3XB7mimbw63nxJw9uA8gKRcaEVs249PfarutJU</t>
+  </si>
+  <si>
+    <t>8zMwPeq1i37SaqyZjUpVz8VFJY2q9vY1D7vo9U13X1cE</t>
+  </si>
+  <si>
+    <t>3kubtKvE4pMjVHZGh9Tvd8Zm2ZY85kJ1EkuwtacuaEN8</t>
+  </si>
+  <si>
+    <t>37AormnxGGZfSAq1yJDxbiGu2ch9n1tMuWWbr8kPTX9X</t>
+  </si>
+  <si>
+    <t>EbTmuCV5gMWwvY8KLDRSBma89LKhykEjMZkd8Ln6u8bp</t>
+  </si>
+  <si>
+    <t>AXZdECyg15nWyvsRxrg4Nvj5AVdcUD16EM3uhLxhp7sp</t>
+  </si>
+  <si>
+    <t>47mvEHhKB3xFwRDf5vdy3YVK9DWs173Y8eaBNU7igRxC</t>
+  </si>
+  <si>
+    <t>6Wqqj1T6Qdx8km7c4M6ynYy4DBquy7ZemBssFu2dw78e</t>
+  </si>
+  <si>
+    <t>A4MPq2jLFyYaKAH1v8gVhxVdWQfY4ps2onP6dyNPKt2n</t>
+  </si>
+  <si>
+    <t>G5kiaVrWS9xoe3ASBMqCKmHfRHmdDpzWg4RcSq8kT9S7</t>
+  </si>
+  <si>
+    <t>4MPW3FjTVcgnnBaK15jS1gCso5WQgsi28EnDYRrtzHyb</t>
+  </si>
+  <si>
+    <t>JCxk5AjwmU6PMvRskeZkrJroEanwgkjqqT5Mwt4FvefA</t>
+  </si>
+  <si>
+    <t>31xbbnmRiMt9nh3PB89Yg1Er73vdBq3st7K4aWc5UtXU</t>
+  </si>
+  <si>
+    <t>EFFGTBTmL4QohTTjcgpGJ6x8RbuN3CAHdeqaBwMdSBM2</t>
+  </si>
+  <si>
+    <t>HQ76JvpdpJVntsGXtbSG6YpeeX5g3p4eEVggycWLACRM</t>
+  </si>
+  <si>
+    <t>CTNqmmJYDewUEJjT9jT22EQ5hq7FBfvBaup3rhqATzPL</t>
+  </si>
+  <si>
+    <t>9TuRJ3NHLHFZmgNAcnVzqihsXvNdWkf3SwxGKjZ86hzv</t>
+  </si>
+  <si>
+    <t>2wzwFqs5usmQdnK7JWnPcFyTXuD4gMhLyiFxxizJyzH2</t>
+  </si>
+  <si>
+    <t>2t5LkmtgyVZqTLqLduie4RsLRHaVVm9Vg8BMjcdo48X9</t>
+  </si>
+  <si>
+    <t>2wtLDCcs74NSVnBDaoKNJw8VHphNmzbysWGrwGFZnQ1p</t>
+  </si>
+  <si>
+    <t>4smAGb2CHnWjazZfGz5rt38HrrBMTHQeDc32r7MXv4wt</t>
+  </si>
+  <si>
+    <t>8F3mbmk3xFvFnQpPduwsuMHtZr5sn8JPt9LiYKckxm6y</t>
+  </si>
+  <si>
+    <t>FPccoZKVBvngVdLghwi3SgncKDZ1QPK7Cg11duwSS13S</t>
+  </si>
+  <si>
+    <t>3BtA2S38v3dHXEdk2pqs8KkZFNtXVkp5hjimqf8dsQcs</t>
+  </si>
+  <si>
+    <t>69wnwV5edmDQBKsFNbiLBEUej7qP6p2wa9iekCX5aPnb</t>
+  </si>
+  <si>
+    <t>2PQhZb7r2izYRtLTEFFdoKbryi1CKXqMxfwFmF3MCVLn</t>
+  </si>
+  <si>
+    <t>H4yTde1SvBQect9pS6wpFmrcGYkqfwxDxhY5wiapD9NB</t>
+  </si>
+  <si>
+    <t>GM11GPyDtjYsXMs4N79LW2SM6Ca8G31RXm6Fne3dpCeR</t>
+  </si>
+  <si>
+    <t>2ShcqCZFZZbA3AQqVctp1cR2YTbxrsL6wLrfq6ScnBDB</t>
+  </si>
+  <si>
+    <t>2hzxqM9Xw4Qf8yg7QocHBb6ggdL7oUp7Fkswg2LGEvhX</t>
+  </si>
+  <si>
+    <t>HyRqHnqH6BcZTNe8FxQxuZ9pZvthj1qaSDPqJTibyc2E</t>
+  </si>
+  <si>
+    <t>4oebkqrFzAw4ydQTpRHkCVBuxzZhBdkSvEuUY7n5kQPn</t>
+  </si>
+  <si>
+    <t>CnBKcCvDdu4arMyWJLD3DdfiWtLmD8pWWRgqrCZZoEMb</t>
+  </si>
+  <si>
+    <t>zPdoBj7tti6hHPWskbrzpVGj4w9GjCNdy1c8MfQyM7z</t>
+  </si>
+  <si>
+    <t>FKQ7seBgmqz1HVuyZmjCJb8iF9tsiDZzjPEtoiTvKkf1</t>
+  </si>
+  <si>
+    <t>5sAPAEnCv1pG4p3vggCLtiXeKvdWhPZPbVqjCkDnTdgF</t>
+  </si>
+  <si>
+    <t>8YaUrPo7TG42wafYmiWdx9vTjWmYFosTnLE8vW7KrDXx</t>
+  </si>
+  <si>
+    <t>8c811JXZB5JQdMTJquVo3uDz1LAAkKx8vnuufRsNdngy</t>
+  </si>
+  <si>
+    <t>9Etpki2u1La3mrsRLxC2L8NanAH8uUZM3qtiZJf42gYp</t>
+  </si>
+  <si>
+    <t>ALSmGCvo57BvWxwXbz76vrrZTUqoJCtS41xZpf7MM31n</t>
+  </si>
+  <si>
+    <t>AatNEX7PSerzigcf7tPq25SQDGQEPZEDc3nxRahcx7zW</t>
+  </si>
+  <si>
+    <t>3QLhigJwpcVy9z6qfPSF63fNCkWK7VWgKSV4fRmdp6VD</t>
+  </si>
+  <si>
+    <t>Jncho9TVH8m7N9dpAkgEWveyP9p1tQETNzX7BJdjVBP</t>
+  </si>
+  <si>
+    <t>BLhHaPWpRcWw5eNYxK98udxZVrHb44wjyfLdhBFXGYDh</t>
+  </si>
+  <si>
+    <t>51C7wEw3bqxkqTEX6heuZUnuUqkmDkbtP55heb2rdKcC</t>
+  </si>
+  <si>
+    <t>EpBvb7fjXFs38NigwWcg3njkVqwHn5hiLLpBHje7q1Rp</t>
+  </si>
+  <si>
+    <t>DqxN3pAxa7aRNFRYajL99A8ithmEFA99cCJYgXxGhfoi</t>
+  </si>
+  <si>
+    <t>CPSABdWyvAy1QYmWbKgxQB2DzUUULdQWPbn4za6mhstV</t>
+  </si>
+  <si>
+    <t>3N5dnwTUVRdFqmWfRi2hMTYF8qMJgKbiH2tGYk3BHaJj</t>
+  </si>
+  <si>
+    <t>BNZRpkbeEiYMHF43XJ4ZUiUVb2LZn2bUDfed7tfqSess</t>
+  </si>
+  <si>
+    <t>HNaxxLLMc2KJGnawEptUYkmuwv8rPvZPgvWL4SNAgnqS</t>
+  </si>
+  <si>
+    <t>2my492LjbbddPn8CqnsrNTf9ZmHmqD8VzrmiXxwJzQn7</t>
+  </si>
+  <si>
+    <t>99NyYGT2ktAUeYTt16AXbjjy7pwtTHhnaMuyuYVGQbNW</t>
+  </si>
+  <si>
+    <t>H4q3AiUaabbfMMKcDmU7G9zoupYX3oA5AiuVyVtioBDW</t>
+  </si>
+  <si>
+    <t>8KJKqo6tGa2qcQCTueDbD76MXtDnGqGyUVoBzu7GBKmw</t>
+  </si>
+  <si>
+    <t>Bxbp6kTkoienD2LpqLgBAH4iDtjros58xYdTiqUwk9MN</t>
+  </si>
+  <si>
+    <t>3HXSB5Qbxuxpc3oHY1FKsszhBb7RU5cWVQChhTfNTjgb</t>
+  </si>
+  <si>
+    <t>GNSBqaqx1BGYwggKtdyZEp4ZDpXwivsZAWGZfxKSMbDE</t>
+  </si>
+  <si>
+    <t>GRiLi5wukgpL615G9HajBtwCtugqjdCFUv9D6FcybSuT</t>
+  </si>
+  <si>
+    <t>BJBdLPvLZPiWuPHsMqA3GjUL6v2yonrtuhHoSVT1YuM4</t>
+  </si>
+  <si>
+    <t>J7qgNsLgHdidQtgY6wDWdRC9cqTQk6q7tCVdQBvS551w</t>
+  </si>
+  <si>
+    <t>aydSVjJecPb3hqaA7YwAAisFcLdvksYZesp9MPYvrXK</t>
+  </si>
+  <si>
+    <t>3rCQVR3RvAjkFtvZBu4NmfoEfePCTkuJG4xBWVEsDyGD</t>
+  </si>
+  <si>
+    <t>5AjVH1o1tKLiiST1NaKgpNKc581NXA5pX899fdUNt49u</t>
+  </si>
+  <si>
+    <t>Fmotb8PyRV449YwtFt9ogugnp2ZzovCssmor7gXC58jb</t>
+  </si>
+  <si>
+    <t>EHDk31ZZmHodEhDA7Sfkb6CWSX4LDEAECHGejqnnuU58</t>
+  </si>
+  <si>
+    <t>8jKvmKysojjJB8CCAeq3AsCiSZbajjgCHzxU85uAQrZJ</t>
+  </si>
+  <si>
+    <t>BK2GGUYotCSjRKr7EbyDVkKHb7mUQm1oTX3gHHAYxufM</t>
+  </si>
+  <si>
+    <t>EqoSxEcU5M2DixL1giZmAoz8RoRTwcN9RBsK9d6WacXm</t>
+  </si>
+  <si>
+    <t>DaLszwKg1KJ73xSTyUgY994HszFDC6zKD4rMCZGMomdN</t>
+  </si>
+  <si>
+    <t>3Pgbk8C7F3k7kMJCW9jmPv1pDs1MdCLZLFryjaHjr9Jp</t>
+  </si>
+  <si>
+    <t>G2akigLx814rYvHpnZfckVYewPki4uCXRRgLcbT7BmMZ</t>
+  </si>
+  <si>
+    <t>6FKZ93dnrJ4Jt3Pm7GtsavV9irtgXcV4kZcpiH4HGdat</t>
+  </si>
+  <si>
+    <t>BZWRcwfWdQUU4yFjUj3XbYJYbRFxyzWGe7Pd2Ag9tp51</t>
+  </si>
+  <si>
+    <t>2NJRTqxGv6bZn9zzKt3qAjrL1kBa9J8upU9rZ5MmwG1e</t>
+  </si>
+  <si>
+    <t>9jQf1Ruj5TCwLppNBs5ZJHTKqeAEFTFZ8JuEPVzRNm6a</t>
+  </si>
+  <si>
+    <t>EpXuyf8MNZJzV8sJnV2hkRULbJjL72yS7XCTZVXLLTwK</t>
+  </si>
+  <si>
+    <t>7JEU8EaJdeiBfFtoXx5sTs29kAx6SQgXUDRyz4VBemUC</t>
+  </si>
+  <si>
+    <t>BgAKPYQgw7BfoQvujyZhee8AkLLKGWJhyyZ1fg7DuZBq</t>
+  </si>
+  <si>
+    <t>9eXZyMCtAxLxytH1nCcu7viSGY1z4UySMWvAZqBqvVQ7</t>
+  </si>
+  <si>
+    <t>DJMZEsxQmQcJ2WZdLKwK1DYLAwoYJaYxF8BKPezgTCPu</t>
+  </si>
+  <si>
+    <t>4TWtkPPyD48h7iY3hYZCahpaYHXSidZfDr4hDpgGKKV4</t>
+  </si>
+  <si>
+    <t>CfDHP5uSBc3gfcnabhuPsoao1BM9qJPjXYkV3pozapbz</t>
+  </si>
+  <si>
+    <t>7g1PDAgejFSFSkUD6WpeysCnPJtDU4Ei1ifoe3zh8Jpc</t>
+  </si>
+  <si>
+    <t>2eRXwa5wpKJFTYmcfuwmFyYzNoxeHuGqxTKJNeiyCDRM</t>
+  </si>
+  <si>
+    <t>68drbSJdjMEVQAGzGBogvoj6cNUF4Xji8aC1pH15aYMd</t>
+  </si>
+  <si>
+    <t>7Gnw9Gz5uWekZHV4zPn3fb7A1hVrBWcrHq46jkN2xbhr</t>
+  </si>
+  <si>
+    <t>GsE7FfwAky7EUxH2VmRh6UGycn71inqVvdvqfKnRtohZ</t>
+  </si>
+  <si>
+    <t>F1qbbnMzTFZtCsempynP3RKuBcpsHaGq5Luu2bZSMUJ2</t>
+  </si>
+  <si>
+    <t>EA8LHtMPJTGjFZ8RFaa5mJv6bokLJqW5R9hWKyQ3MLpz</t>
+  </si>
+  <si>
+    <t>GJn9tkTpfNHvLCcPWVbtx14goEacW1RLuT7quFKEGjNM</t>
+  </si>
+  <si>
+    <t>CNCFX9E29sqhBf7boH3UBxkDRPNCZSQVUoPbJe4T8Di1</t>
+  </si>
+  <si>
+    <t>8hqP54CHqQJFdy3MkwnP3V4uEBe8jqU1698gFzLaLjE</t>
+  </si>
+  <si>
+    <t>CJvyP59YGnqJ2mVVrmZhsewddnqhJ7DakzPaTdJUH58w</t>
+  </si>
+  <si>
+    <t>DA8V5owhjUrv7vE4E6QUwq9fc2LB91pZPEwbcQgkEkZG</t>
+  </si>
+  <si>
+    <t>FJJDhocsRYT668aixtpGH9Had7UaL6DAqC2tBLyVMtpu</t>
+  </si>
+  <si>
+    <t>BVHSa3CUf9erCeNFWzR8AbWxwPU4UxL95ALVNCgv76gP</t>
+  </si>
+  <si>
+    <t>FKJd13UD4mgjuwRHPSPCz33LVzJ4mZ5RrqzZzDNFj8Cy</t>
+  </si>
+  <si>
+    <t>6GVFSRjdzUw55Zzu1ZNCkf9xhizNqPv8T4nynuNEj6FS</t>
+  </si>
+  <si>
+    <t>FFEMBASGCv5zM3jWCTbLVoEPxi7fUodmoiWgTRkHsMCj</t>
+  </si>
+  <si>
+    <t>5ADfxK8eWb6NbmYiQ4TzSsyKFtAiJB18BDwwZyUcVxwK</t>
+  </si>
+  <si>
+    <t>AySE1Ag9xAXyAMTTWrcUdrtHLuACJmLiiRxF3erfyBc4</t>
+  </si>
+  <si>
+    <t>CtgY9jSgK1ZkCndZxDD3AtUUzrqDz67Rdw2esfE2St4y</t>
+  </si>
+  <si>
+    <t>CftBWFdcN2Xvw6uX3JTBZU7BgFmQ9T4U1BVhTN2cLmXw</t>
+  </si>
+  <si>
+    <t>J5xuWERU92Q4iB9iE52h4rP7R9Y9UCsTpALrQ4RoaYqy</t>
+  </si>
+  <si>
+    <t>AD5x6Qk3yhQr3zDBU3SZtQnzRrYT69LfVru25B4ieoab</t>
+  </si>
+  <si>
+    <t>6sir3axhRbppEd4kS25n6hXBqSRck46FUBbBdDrTnckr</t>
+  </si>
+  <si>
+    <t>m7KC7cCuS9T1ejc5d9GRQdBKxaU7vdhnQvgZagvR3VC</t>
+  </si>
+  <si>
+    <t>GSAr8zD83jRUv9fWTL7eq8agLJ7jkXXJAFMpxRvqj7B1</t>
+  </si>
+  <si>
+    <t>3zZ858YLzLYJomDAo5zomtYDCfBrrPKsiwE6MKBJpAUF</t>
+  </si>
+  <si>
+    <t>C4aLEEc7hT1Rwf34WQnKfeqTTPnxKTsCLGNLqnRAE1Ld</t>
+  </si>
+  <si>
+    <t>5wkNk12EpduM5cShSXJmBKJZ2t1W3FjgpozodzHopAy5</t>
+  </si>
+  <si>
+    <t>GUET2pnp8BSuCF5evTDecczN6XNxUNGWFLbK9GUgVtGG</t>
+  </si>
+  <si>
+    <t>5RwAHjhqBgGqV9zg9b17CJzwpfwN1Y879U15mZmn9FLz</t>
+  </si>
+  <si>
+    <t>5dj9o9YTHyuvhHWBnq9GHuNHDfgQocaMqbDLFZbdnD4M</t>
+  </si>
+  <si>
+    <t>NsRtAr7ouW9C2bDb52AdbbWhMZAh8eHwGxGbNoBs1v6</t>
+  </si>
+  <si>
+    <t>2m5rBVLUtfAb9hjKXXHqToswCFj1qYV6n3Eo8TJ59UVW</t>
+  </si>
+  <si>
+    <t>BYRXH7rFbmvi1CAuKbejMT2FCLndJYUJibV5UunFJz2p</t>
+  </si>
+  <si>
+    <t>7W4AFWMP2VGpByRmXFLijKAFVuEUr62XJktuTcugAZHk</t>
+  </si>
+  <si>
+    <t>CAtjWfSkCWj7pv1WMTJq16NmkfktBxHu4HMBc6Jr7ccP</t>
+  </si>
+  <si>
+    <t>EVqxB8Y2gXwgWsNN6QJfnmGjhGgYnr7f2ciiCLRzrQ36</t>
+  </si>
+  <si>
+    <t>7UnY6q7eMNQtmeaNgrquoAfvGLb8RauxNMpuTdtEzpcR</t>
+  </si>
+  <si>
+    <t>AXz5fEauJiG8SF5vAj8MG1eZqBHoYwFhJQtiVnQAfYuu</t>
+  </si>
+  <si>
+    <t>FvBgNGrbeKZVhdD5fhC8VnbXVnwDqzMhJh37G5V1d6wg</t>
+  </si>
+  <si>
+    <t>4SfZihsBWhfDUAG2RCet1CYsPemuCZWB2Kd3pJanbG6j</t>
+  </si>
+  <si>
+    <t>EEUUvGYXGdFa9pTr5SPSHrphAZJNdJrb5H2WyQbN2b8d</t>
+  </si>
+  <si>
+    <t>6Hvrxkn4fLunFiPCt88pUUV9iWMau2xj72hj29u875qy</t>
+  </si>
+  <si>
+    <t>FX8SXXe19iW5RDDLxVRq171Ko2GVwpQfXRHhp6JGborj</t>
+  </si>
+  <si>
+    <t>4wteAJQQ2rEyB6P195TLGj8RnvLPHwbmYCUgYjPEmCZP</t>
+  </si>
+  <si>
+    <t>ASnzAvxNBF3DATiijaW8Yym4ETwZkjB9k4FJGUpDXKUk</t>
+  </si>
+  <si>
+    <t>48TMcXn7Rr1pE6Q1jZRAQL53JBqBN6SSrb8jgFSCjCVz</t>
+  </si>
+  <si>
+    <t>4PuBskJHxnCtYHrQSkx1WYR812d1uyQUMRHE4i8EGG3S</t>
+  </si>
+  <si>
+    <t>BoWZzNZCVbXzSzqD8jsfxRAhuGFQVRKbKnY1qAxet8Qj</t>
+  </si>
+  <si>
+    <t>EPH1R7S9vqzTTEPL8wT8YDgPViyoM6znhWLoVSPmGbcq</t>
+  </si>
+  <si>
+    <t>8FbVifW1KKSdRzGAWSqX8DvnHHZWXtFVyYqyrUunnA2F</t>
+  </si>
+  <si>
+    <t>BN25aVjJhh6tevJyZYvYMoJA2v6mVUyKWE8Bu5sjb59V</t>
+  </si>
+  <si>
+    <t>9q7YMTkCM7CnvZvsLMd5wdqsWPMP6CEtqMXoFccBMH42</t>
+  </si>
+  <si>
+    <t>81V598yN2zxPk9qRPfmmi8ob51qRLnSrcVZkz35SpYU6</t>
+  </si>
+  <si>
+    <t>CxTrymwpNkqRpCzZuaCpAG6XJwgVfaei5baWtM8hkeyk</t>
+  </si>
+  <si>
+    <t>HQMikSu6QXKDhYVJf9aphNZCMAWScXcYDnNc3mHrFexr</t>
+  </si>
+  <si>
+    <t>FQVc8AhpULJb276anxZHgbccLD2zYpYv4cTSzXQHSEiN</t>
+  </si>
+  <si>
+    <t>9tGCb9Hghue5GjhFBGCnB35L5ESX7i7RrwQWRHu8fajB</t>
+  </si>
+  <si>
+    <t>BU9jEPxkquJT4yo6RAWxbRYVPGarbPxo39AbdWdKci1J</t>
+  </si>
+  <si>
+    <t>27trSfQqCfEDp11EC3Gp2m7R1SgHwxiwy4h412C2MABn</t>
+  </si>
+  <si>
+    <t>98Pw2z2Yh73ik9Jk1M9PT7QrcEg1NQwGUVdP6JQtfp3y</t>
+  </si>
+  <si>
+    <t>6r9QWRMcbwrApSZNht9Q2Lti5JPzWEC8K3vqy4cRspPR</t>
+  </si>
+  <si>
+    <t>LTWZustPFur9WBjpB47ameeBas4kQFYbRmucdKKBUP3</t>
+  </si>
+  <si>
+    <t>6BiuX2HtzXHCeqkUMrDdtGvR1CkPWfFjDtPn9jrL1AQs</t>
+  </si>
+  <si>
+    <t>ARnGxAy2Tn1hevn6nxaL7XgG8GgPZdFMLj6AqdLyqyX3</t>
+  </si>
+  <si>
+    <t>2BcTNw6M66JLRuto9SRdyZMbbRiRLRswH7o5myk8bKHD</t>
+  </si>
+  <si>
+    <t>8UAN6gJqprk4oF2w6xUaW9udXjQXaWx4w7ryTkg9a1yV</t>
+  </si>
+  <si>
+    <t>7g3jSLiEwC77SkK2cuwCE6W4ePUpfi79CDJDu7C99Ccx</t>
+  </si>
+  <si>
+    <t>Bu1dRa6t7ypxAtXN5AwRgJ1oXUGkDsK8K1bSWnpgoHr</t>
+  </si>
+  <si>
+    <t>ENCw9TqD6EySBa8keW3jpEkvbHm9DjSnaghNjvb27DpH</t>
+  </si>
+  <si>
+    <t>CfxTF6FpLGqomScymEAcUkGfX1qk7XoT2VnRnJomYKQu</t>
+  </si>
+  <si>
+    <t>BjVbnmtBqUbdY3uyXubmymkrfzEDQgkyY8F8MAsEzVa3</t>
+  </si>
+  <si>
+    <t>88q4TiNLGEinnMMXaN22foVxmsf3mgvTiFD5Fmd2Ma3a</t>
+  </si>
+  <si>
+    <t>AxEHPs1ZNucDeKR73U7uJsbYxyCbPSfB7qMjxwDu9tQx</t>
+  </si>
+  <si>
+    <t>8wLnodUNejA1JGAVHuYukYSs76EqHbqoJzjZgb1B67LH</t>
+  </si>
+  <si>
+    <t>HZjTPxVv19EFseZf2iXKKLR7cXPYpdcfzmRYfmUawjDy</t>
+  </si>
+  <si>
+    <t>GwBWbZTJ93ambsMBedgZZZ1KdrGv2FVW16RxM7bHaa35</t>
+  </si>
+  <si>
+    <t>3Xia9S71Y6mnNavkKtVwJb6v7tCLZNEx1PX9VFNy6e1x</t>
+  </si>
+  <si>
+    <t>DLFfqqNmJsJNePH4tR7CKLN8mRvKVStxTcPEyPvYXA9k</t>
+  </si>
+  <si>
+    <t>6jR14ed4h1J7PQWh73vyR2t2WqKTvrpHeA8DNjGXfpmr</t>
+  </si>
+  <si>
+    <t>CScCDhJkVRU2aGnJXG1dBbP5anUW7z8AWyj5HvKyD7FC</t>
+  </si>
+  <si>
+    <t>63YBxciNXDyY9UQ2UyJa7V11viHBkG3iQSXL7bwEEFpG</t>
+  </si>
+  <si>
+    <t>3AmZu3BYNZKuaTJFynnbtCwbEFxSiNNWTTwtzK6xuAsY</t>
+  </si>
+  <si>
+    <t>CDFwRHDdTeup1qf8pGeDVecEeUqNNk1enoMiEk1MFpFc</t>
+  </si>
+  <si>
+    <t>68VF5DFNaCdbT83HrrnCBLQntncfxU9rqJbdTmE1BXFZ</t>
+  </si>
+  <si>
+    <t>8QixvPx7bhAbc7RTkdvMnmBTGqq57Z995Ha4bCa8trVK</t>
+  </si>
+  <si>
+    <t>6LuYY3b7GNDXfdRe9RCdBzZwJT8fpDcpGyAo2hQbVyuK</t>
+  </si>
+  <si>
+    <t>9j9JJz1MkesfeemQBDqCVJuxRLijCJQ789B8vFTNVoLj</t>
+  </si>
+  <si>
+    <t>B3EvAEZAyPjmxRkYVaxR3QubRVHzjxgvoZtToQiS5z7</t>
+  </si>
+  <si>
+    <t>Gyov9evsGgjuroDtFVXMhiYQEga4UXkiAmuaXdnh6X5a</t>
+  </si>
+  <si>
+    <t>ELxFxKQHHQ9JMKQqu15SA3Gq1Mv9qni8NXD1twfkfWHm</t>
+  </si>
+  <si>
+    <t>B7JZWizSdAaJBBCJfAvvCrpoToQTmtzJJ1KVDQBiN6Td</t>
+  </si>
+  <si>
+    <t>Ffqgmf3rUifgm6e23XHS8vZjbsAGNDwEGVAzdHDv1pxE</t>
+  </si>
+  <si>
+    <t>6qqjuVxLi58y5sHmiaJ3cPq1Byn5E59ykFMnPfeSQAGG</t>
+  </si>
+  <si>
+    <t>7iVzTbif1uCW5eQMndNkjiRJm7q6S32ZLXL2fTcgyMX4</t>
+  </si>
+  <si>
+    <t>Gwsrx3dfpHZcwYfUtfHyVCo8eRuq5t5s9SkbvVZHc7Bd</t>
+  </si>
+  <si>
+    <t>49MH7AFgujk4uHomRFChXWvZkuQSDz4mrajX93z9uJ5b</t>
+  </si>
+  <si>
+    <t>8VeEFCyqW4G8b3QcMi1Ffbqu7cNw9eogZPnWTzvoNsuL</t>
+  </si>
+  <si>
+    <t>AXao1vHhfb3jy12Jze3cfLztMAhwpwj59zGgF4jL2Baj</t>
+  </si>
+  <si>
+    <t>3WTN7TXmU1YQbcLEz6X8DeG8ye4qXMy1AFhXQD8QZEC7</t>
+  </si>
+  <si>
+    <t>5JRTaM9L8XgaZEUnMDUb8DQ1Bho69KiyGZtREPxfJwGL</t>
+  </si>
+  <si>
+    <t>5a8bw72TgeDT1ZAfbLCxkVtBUqTrPgV8m3v8HanBCvYa</t>
+  </si>
+  <si>
+    <t>sDn41WPxYCFozsLRJ7CTw9tkV2Tnd4hMexyPyQAEXTd</t>
+  </si>
+  <si>
+    <t>8xEDHjQt9165wqicsjijHXkaFjGUfMHTDkiC8Be64QCs</t>
+  </si>
+  <si>
+    <t>7i2JimYFt3oLzdFAx7CCqZ5d8WY2R92FggSY7pbumUNv</t>
+  </si>
+  <si>
+    <t>53hfCqHYrAPRtmdeC5j2PApnWDGMYpPo1U9HhcxdhKDX</t>
+  </si>
+  <si>
+    <t>Cp9bKQ9FXpb4TFf3J89cbi5xcDx9zJWXnUmbEYjR6qzp</t>
+  </si>
+  <si>
+    <t>XUY9T1ySZUuibrKkJW5KWqb6Rabv5VznoHQGrrCoBCN</t>
+  </si>
+  <si>
+    <t>GupqfVEoGUmXnvvfToAJ7baSLx63yv9yB7isJn9V5hdh</t>
+  </si>
+  <si>
+    <t>8VEKiF1QGpxA8wvqRHyRs1dQ7DqEnPqpeoNHj8J5ZnXc</t>
+  </si>
+  <si>
+    <t>3KiCMQHrbpF7iaz968ddrduD4PhmrGL15mRx8Y6zUDMj</t>
+  </si>
+  <si>
+    <t>EfL7ZuZURxSTMyysWvDeeVR5VQToN9g7BqVFs9q3S1vR</t>
+  </si>
+  <si>
+    <t>4MWZqTHFdCJJNRGJeYMBKkqmN7iLAcTUSDwBG1qc7QuW</t>
+  </si>
+  <si>
+    <t>3nffB6BGTeN2yMSYZJfbdMsxmgB6m6ZXM3P3h7QwUbHb</t>
+  </si>
+  <si>
+    <t>Edge8eRjpw9c3bqjh4gW9EwHe7d2S6PNmLm6Tt18dm7D</t>
+  </si>
+  <si>
+    <t>E9XTsw2q3JmiMMhFP3HgtayVtuM8HvATXrtnq3yLqUoR</t>
+  </si>
+  <si>
+    <t>4XEyXgvnXi3oE3xupEEwAFDWA2bscQyu6R2HBeqSeCpo</t>
+  </si>
+  <si>
+    <t>DEbu55ka2LcAvrTHgCrvoBZYdyqt5rbhLxqqoTzMwg2B</t>
+  </si>
+  <si>
+    <t>AYKUq9zVCzx24m5Gm8B5EBUxj1kiJetS2BfDeRNqdoMy</t>
+  </si>
+  <si>
+    <t>7jWRh9kZETggAj3cEe8V8gJmwDqcsum3AHmx83hFemRy</t>
+  </si>
+  <si>
+    <t>3ackt5a32y2vbMLRBhQxHAAjHmdtfW2qK8GkAZWxSybC</t>
+  </si>
+  <si>
+    <t>EGkJHB2c5PBr7pEB7dCUpFn44prgqwbKD1pvcACP6kPb</t>
+  </si>
+  <si>
+    <t>2pdVCRwmUHism36z5y7Jvu2GuHhvfVXGtyGrouuNBGxq</t>
+  </si>
+  <si>
+    <t>FSKyFcVNduwSPkz4QTVF4zbf4b5zEWuBNv6MTVXppZqt</t>
+  </si>
+  <si>
+    <t>AreV4fvnX3Zme6GSy5Qj6X8yxSRskcgG7fz6CC2miXAq</t>
+  </si>
+  <si>
+    <t>256txUPrTZYR7th3rX8VWhtcnTotS3emxCKitq5H69Zd</t>
+  </si>
+  <si>
+    <t>B7vsFzShZfN89EC1SSPjixB6xApnFHhMYuLcTPZtNAFC</t>
+  </si>
+  <si>
+    <t>2UJwTEEmfHtHMyS2yxviQomBbjRbbCrRA1fpbB41XhTR</t>
+  </si>
+  <si>
+    <t>Bm7U29etTdcauu9VPY2bBT4tZdDjBNA23MSGs31mcoBj</t>
+  </si>
+  <si>
+    <t>7udaPUwep6oUgLrLWWVaBb8XURmfBq6qeu1wFrY14vu7</t>
+  </si>
+  <si>
+    <t>95VTSKHbkyrGNBGCm2wYqaPv51QNHVSrJ92txioVCiNp</t>
+  </si>
+  <si>
+    <t>GErMez1z3ky4tdwmqtE4wSAt9ebMQEty4H2X3Bn4xjkr</t>
+  </si>
+  <si>
+    <t>7zfXuVoudx4Q9nEB1ZtWZnydk7H8Ygiim18NGwmejQpr</t>
+  </si>
+  <si>
+    <t>GKdoRBTEP7esjB9pfnmQn5Nk4cuh3qNqbifA8mtCiExK</t>
+  </si>
+  <si>
+    <t>9h8dxEbphy74Kh2RZKQ7sisZBchHxxKCy1Bo9naBiodu</t>
+  </si>
+  <si>
+    <t>HAzffg4KZcqxAKB5xEmHRVjwuqcyvmMjueMsEtb3EaRx</t>
+  </si>
+  <si>
+    <t>HDDLRVs1CSpNb9Ao2o96krkRJfGwsd9ZXXhtb2nqmaQB</t>
+  </si>
+  <si>
+    <t>26VL9eXTdqat8Mq5D7FYMUnSxnTGULexWZVpjqmoFVrt</t>
+  </si>
+  <si>
+    <t>HTHWQJxhHfx4cWUTHpt9ZEjhiDG2aqDhqB6g4Kbg6Bg1</t>
+  </si>
+  <si>
+    <t>4fsar62fiuYLT8BZQDW1LnMD147aeMGAA55v7xa7iUbB</t>
+  </si>
+  <si>
+    <t>6jp7YDn28jwjUqWsPfuDada7d735SaX7mVArQJHaaUda</t>
+  </si>
+  <si>
+    <t>9JNY2iduNk7GkZYszLEDHLDoSgxhm2aDdecTEttmh9cd</t>
+  </si>
+  <si>
+    <t>H2mMFiPuueQxeXvq8dJA9nrrXzNV4qYtPDELeZ2ayGbD</t>
+  </si>
+  <si>
+    <t>6hqgmWiHgkszztkMCxxDi7W9i18FQjPHmbpH5N9HVdPs</t>
+  </si>
+  <si>
+    <t>9veXUGXYaMLmRRv8bzBZs7a74EYDWzZfDNRyECgcpidf</t>
+  </si>
+  <si>
+    <t>CPKDQgBAfhff9V4Qp3hpYZZh9MB9PH5oThbPMMykmD9e</t>
+  </si>
+  <si>
+    <t>4hFtGjarjCD99UaFfRfRVLeDPh6r8vz7qGhDJzw6GXeT</t>
+  </si>
+  <si>
+    <t>69xLz7RuLrEWKEujPrBS7LrTcLY1TZg9EFMdW54ZZeP9</t>
+  </si>
+  <si>
+    <t>G7WUF3LvyHCNqLK5k11tDP3eJzEzNCBU7BpjJBYw7epU</t>
+  </si>
+  <si>
+    <t>GSvJqoEEY2ddRRcMsL6M8uxtVCsomV73s37TtRq6o7Zp</t>
+  </si>
+  <si>
+    <t>838F5zdXpixwpy3pykStBTzbimyYrUED26AxgqWBvxNX</t>
+  </si>
+  <si>
+    <t>645oULP649sPSbD1VZztYNt9QvPVnZqb4FXbHsR37tMs</t>
+  </si>
+  <si>
+    <t>9cq6SXZLyivFqN8SEGPPwErfdoBC61MPh9K19PXTRmhh</t>
+  </si>
+  <si>
+    <t>6XCvu8nUfAutTQZQ4VUEUAkwU89WMrgc1L71Q3aMryrn</t>
+  </si>
+  <si>
+    <t>7zDRYZLbp5ZjzKr69UCqSBVfQ21ymhHpY9FdfTk6Dgga</t>
+  </si>
+  <si>
+    <t>2H16soMvR14zvZ2ZDVsCx58oaxfqGETWFFaaWxp9MGEU</t>
+  </si>
+  <si>
+    <t>GZREMANf5VVEGQsSMmLzjdM7LAePvVFWK4JdgRzGzP2a</t>
+  </si>
+  <si>
+    <t>AQ4bAkj7RJonnxHagGiuKwR8N492mJjEkFqh6gCpvyar</t>
+  </si>
+  <si>
+    <t>B2YEayLcNszZivsuQkztC49EMETWs4d5Ut1Eot3sqp3y</t>
+  </si>
+  <si>
+    <t>ERqC6dzkGKSjvYnkhNCBqRhzAnDns8AJgDRwWkhpFKKf</t>
+  </si>
+  <si>
+    <t>7SCMxwxjqKWRpD5SjwXanM8zjeugfeE9Kbs1pE6fpVir</t>
+  </si>
+  <si>
+    <t>8JymgNUe8Mf2UP9HtJV2e9fb4UfyLAtMs9wJU5LumEK5</t>
+  </si>
+  <si>
+    <t>5gukV17ihdm23EW2tRC9dJduTSBdLwmatN7hMaaZe5VB</t>
+  </si>
+  <si>
+    <t>6eRYWqhd9ASrfFKcjSSaDpRxJjpe7EecPNWLZYujGWMY</t>
+  </si>
+  <si>
+    <t>6SV6cJQQtFHp9PqTJACVyfuZf63LuGrpc34gtsTYXtSQ</t>
+  </si>
+  <si>
+    <t>5AZyLKYjQwqRqLZr5zgskgoBcwhSGHrAoY3cMyBkvZAa</t>
+  </si>
+  <si>
+    <t>9GLxb23CWttCgHNk9r1TCw1EJyEtm5jSFALqB4MvYfZn</t>
+  </si>
+  <si>
+    <t>HbtqGP7zPdhJNxi4smCcZWbiUX26TSLQjUupQZBn311x</t>
+  </si>
+  <si>
+    <t>Hbs6DqNx4jBHcYcM5MWMApx91Ddnc5GkmvGNA9QT185X</t>
+  </si>
+  <si>
+    <t>4VHH384rmogxF61SgVQ2qyicmxLMMWKGf5FRKRUPQAKW</t>
+  </si>
+  <si>
+    <t>8DAhZgvGqZvwetBB2wDQPNk2Lng52q1sarE91hiCUTVX</t>
+  </si>
+  <si>
+    <t>EMew6SRfNRnRs1oTw54tExVBRmJBwwJxLzVQDtGMfe8u</t>
+  </si>
+  <si>
+    <t>3yXFDhs5mt76pyVeHUKsuT1xG5WHT9EFUPWopa3WZuc3</t>
+  </si>
+  <si>
+    <t>6Jqd4rGbejPHbK3aF9SwNU5MSN8GwphLCKj6ydivRny2</t>
+  </si>
+  <si>
+    <t>5qREjC1GC264WREusGzqpQnTKogEATZUy92HeC7adX3V</t>
+  </si>
+  <si>
+    <t>EDvZtQ6QpZDo8jMAHzKUyLi6etVajCZSrHSBVg43DqSY</t>
+  </si>
+  <si>
+    <t>12tkA4z5KBowbiTMK3paKmhAbFMPeHC1mKqjQX1mAkcA</t>
+  </si>
+  <si>
+    <t>9MZsNpGjQ2EuqaKruHvauXL2qYyoL2i4SF6KR9C5SUZh</t>
+  </si>
+  <si>
+    <t>Hqeys3e7VF8d5Nzy8K8x5opUb2HLcCjEwZWauaHYTmpH</t>
+  </si>
+  <si>
+    <t>AunqeAA8UHJaHyCzemHEu15S22PL7Dkk1xfWFoB8RsmJ</t>
+  </si>
+  <si>
+    <t>2s8CDhWFTzbQjeTHtVjFzKSqDy7kUjTR6cdnoNn4Bo4L</t>
+  </si>
+  <si>
+    <t>5dTzsF3tUVvkcb9NfAyxpDnLUubRNXPJJYH1mRFf6wQh</t>
+  </si>
+  <si>
+    <t>DfmQVVZMecQ1VxVNCwJeJLYLVLj3no27i3uV4aUw3ZDg</t>
+  </si>
+  <si>
+    <t>Gx9bKj6ZppfgTAfu8RkcEQVyeT7PzkdhLQccPijxWTrG</t>
+  </si>
+  <si>
+    <t>3zaFP4DadCqNoY44E7ZST4Du1EefqBE9hZN2UdoEtUxD</t>
+  </si>
+  <si>
+    <t>6xFpnZbxnmrSedF1vpqbW8pNt2Y1w51YkPaKbD1zWzUQ</t>
+  </si>
+  <si>
+    <t>C9hcbfYC3XycRSrjSSVxdazANDZtqWF1d1aaaEgTzgQ9</t>
+  </si>
+  <si>
+    <t>CwWnHZ99MJTXF8rGrsrS8ZTuHQZojnwoXCSr8F8gp7Ym</t>
+  </si>
+  <si>
+    <t>Dt9WxTdkabbqu8LwxHrhXh84n4ifeCEkFeSwP7CCeYs7</t>
+  </si>
+  <si>
+    <t>ACapanSpKjGxiZnqQDfiPvaD7BvR92JFMyGtpFin5zLM</t>
+  </si>
+  <si>
+    <t>7AWyTkMExc87AqRYsPv4L2SUMiPfKWqR1FsCEKf2KRiT</t>
+  </si>
+  <si>
+    <t>Fk831Gnad6jUCy7MjeJPpER7gYaheM9vF5w8r8WD2mdc</t>
+  </si>
+  <si>
+    <t>9xFFRSP2uAu83YczqxYb9Si42eASLoadtUM8XPFB6mq8</t>
+  </si>
+  <si>
+    <t>ELfVtWvgiPskJm54VTt1SwRYWZMtwFT4EbKfVY3nLg5D</t>
+  </si>
+  <si>
+    <t>Br25WDKG3RX8uaCg7LYkWKwpe3C25KCRYUqtPG249L16</t>
+  </si>
+  <si>
+    <t>7AhnRNMkhgH7XrufjiPK877tarpFUhJPA5jQZsndANSQ</t>
+  </si>
+  <si>
+    <t>DQzTK82GzDdutv7ngakSrX3k4QkS1mivgntUGQ116sCy</t>
+  </si>
+  <si>
+    <t>FqNej1SjP9DkQmL8XFAxZaTHgeq85DmkLHibWQBerqEA</t>
+  </si>
+  <si>
+    <t>DbsDp2J6Hua1ZgXPb5WXZdRSpw7SdkoMHKneEG4YqWGo</t>
+  </si>
+  <si>
+    <t>GvUL1WRJXmF2KkqgwQGuAyAgwE3Cqydm5mR4vFDZ49FN</t>
+  </si>
+  <si>
+    <t>3h639qvjyH2zBwyTnfQBByetJBH3y9DHduyzmcuTvCc3</t>
+  </si>
+  <si>
+    <t>8Srut22wcfzBdKuzqLnLrorsdX5jDHyUVcoCgKzxgBk1</t>
+  </si>
+  <si>
+    <t>9tkmJ6pwGPpM4YYBLvfMnZ9RC8qvDfxq37fyRCtxXtFx</t>
+  </si>
+  <si>
+    <t>HX8qzXcaHU8ZbN83TvtQWKLc8RwZkwAbHgjToNhYioXY</t>
+  </si>
+  <si>
+    <t>627yz4ojGoFM5GR7ohsqHyfjfVitt5RvkQ18Wmz8qEPa</t>
+  </si>
+  <si>
+    <t>6rVJwDNioWufyiahQZSMLLQn7mKUojQJfLAqaWLMwVq2</t>
+  </si>
+  <si>
+    <t>FcqzjV56NuKAaHUwtq3rSDEiLFw5kJQZWsh7YyTSTjsP</t>
+  </si>
+  <si>
+    <t>MHkgFr5YJaFPzoE5L1ZNrMT4Wp988qHYXvd5mqkJdjT</t>
+  </si>
+  <si>
+    <t>FeXPoR11ETsACGwXTEBrpXj2eG6Eiapxicb4inBHDbaL</t>
+  </si>
+  <si>
+    <t>Aen7a7JJuYKPq9E35n68uckjRkej4zWfBZjnTVFJq1Jh</t>
+  </si>
+  <si>
+    <t>CFfrftJhArcxLE2KRtYLwR2TMG3Ft5qaFxENzTnVteY1</t>
+  </si>
+  <si>
+    <t>B2tDE6gbXNh3jP11B55Fr8tzKW9XCG6MnvFPiqTsSecn</t>
+  </si>
+  <si>
+    <t>8oNTS5G1BvnvwN2QbUdgDASBLXeAA4X2au29zEKeokbf</t>
+  </si>
+  <si>
+    <t>6Sh8wqf1qFpTa9bk6X1dpkFTwYfKEWz3RymsBaompwFq</t>
+  </si>
+  <si>
+    <t>8qS9rBaUEABCgLGPHzgaWH3YvsnFXMJqVL9KinZNwcZM</t>
+  </si>
+  <si>
+    <t>AKixQ9XVMeemQoZvzGDyUHcPQeaE5j47FaGu6budKNaR</t>
+  </si>
+  <si>
+    <t>3E2jbjCX3k5HbctppJdV5hVYb619UnjZnwGT5p7Z3a94</t>
+  </si>
+  <si>
+    <t>9cFF7xkq6a6mJZWbQuNet3AVir9PCiyhy1KeRUvihex6</t>
+  </si>
+  <si>
+    <t>CJSqhbm8eC47o5bPuwb5RjL7dfEwPzpx7az4BYLNX3At</t>
+  </si>
+  <si>
+    <t>ELaHruLBYwdNs971ZuvcNyZucb2k9v2vydcTP3aW3X4z</t>
+  </si>
+  <si>
+    <t>DJPY1mDgKiABNg1C2LKjr5wXgkJABs39es3R6gKRhJVn</t>
+  </si>
+  <si>
+    <t>3bEJgLoKUZdXPqNmjtNHZerJKZxeLT7teqTU9skGVqWA</t>
+  </si>
+  <si>
+    <t>DwcKGYWUr75PNS9ME29kSTmafaRrLjKwLydPLbsuUW6P</t>
+  </si>
+  <si>
+    <t>DJkhZAo46EE95TMKdwnBGHgM9MN43KxffrJVNvkCkUDS</t>
+  </si>
+  <si>
+    <t>bCkK3gUjwy5UYwuSqHiC1CLHUywd4MZBQFhKFPnQh4s</t>
+  </si>
+  <si>
+    <t>8YcpgPMzDnKCHTjkfLmiULJ7ZmkZDfGgV8A5ajjpeHpe</t>
+  </si>
+  <si>
+    <t>3nRcD6iqnZjVDaQ4dBPF6QPVJhmVbm5r6Exksr53u7TA</t>
+  </si>
+  <si>
+    <t>EWYZufdj6d7p3prg5fKNLnbv4mLFtoYAGgQ4adFQxpB4</t>
+  </si>
+  <si>
+    <t>89exAfZwvSn1bGw7P7ZQJ54iiC4i7C1putd44dEttY1B</t>
+  </si>
+  <si>
+    <t>AKrxqyWM3n2f1fEMZpeVh1ugYXcMasQMeHGnx3YK9q59</t>
+  </si>
+  <si>
+    <t>6xY36tg6fmAnK5UeiU6V29YqwuFQ6pR93avARugBXB8J</t>
+  </si>
+  <si>
+    <t>DdZqWpm6sxg3Hh1UBMWY3PqgUTG2G2TASHNMTL8MJAga</t>
+  </si>
+  <si>
+    <t>2RW3u96jf9kU851YpwxxXKxfKGk5K5Mt45gZLiAGdYA4</t>
+  </si>
+  <si>
+    <t>6DrCqoBYAcrRXzjwbFrYaXEX6ow4zvKvUAdFwq8CxuBj</t>
+  </si>
+  <si>
+    <t>BUyrDYVJ5pXA8CE8F9PBZBkb7cBLBMoHskuUdN8sw6AK</t>
+  </si>
+  <si>
+    <t>J8xE4YXK82w6xaTqt1PLh4DDqoaDf6ZwRqRkgZguC1Ls</t>
+  </si>
+  <si>
+    <t>4b8rTpME45enk4sNkP9TjkbZuM7QkTxurDWdhs9QdMKt</t>
+  </si>
+  <si>
+    <t>DmwP2eM29dodV9rNqdDcTabUdg1imLiz3c8BuumDaWth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -3017,17 +3005,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3247,13 +3232,13 @@
   <dimension ref="A1:A985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3308,7 +3293,7 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8178,993 +8163,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="A9" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A10" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="A11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="A12" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A13" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A14" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A15" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A16" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="A17" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="A18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="A19" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="A20" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="A21" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="A22" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="A23" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="A24" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="A25" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="A26" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="A27" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="A28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="A29" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="A30" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="A31" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="A32" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="A33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="A34" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="A35" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="A36" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="A37" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="A38" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="A39" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="A40" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="A41" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="A42" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="A43" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A44" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="A45" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="A46" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="A47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="A48" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="A49" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="A50" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="A51" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="A52" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="A53" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="A54" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="A55" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="A56" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="A57" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="A58" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="A59" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="A60" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="A61" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="A62" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="A63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="A64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="A65" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="A66" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="A67" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="A68" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="A69" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="A70" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="A71" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="A72" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="A73" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="A74" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="A75" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="A76" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="A77" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="A78" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="A79" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="A80" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="A81" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="A82" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="A83" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="A84" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="A85" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="A86" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="A87" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="A88" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="A89" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="A90" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="A91" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="A92" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="A93" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="A94" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="A95" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="A96" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="A97" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="A98" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="A99" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="A100" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="A101" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="A102" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="A103" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="A104" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="A105" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="A106" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="A107" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="A108" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="A109" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="A110" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="A111" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="A112" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="A113" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="A114" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="A115" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="A116" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="A117" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="A118" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="A119" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="A120" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="A121" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="A122" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="A123" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="A124" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="A125" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="A126" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="A127" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="A128" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="A129" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="A130" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="A131" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="A132" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="A133" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="A134" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="A135" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="A136" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="A137" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="A138" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="A139" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="A140" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="A141" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="A142" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="A143" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="A144" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="A145" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="A146" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="A147" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="A148" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="A149" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="A150" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="A151" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="A152" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="A153" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="A154" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="A155" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="A156" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="A157" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="A158" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="A159" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="A160" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="A161" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="A162" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="A163" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="A164" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="A165" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="A166" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="A167" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="A168" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="A169" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="A170" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="A171" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="A172" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="A173" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="A174" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="A175" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="A176" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="A177" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="A178" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="A179" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="A180" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="A181" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="A182" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="A183" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="A184" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="A185" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="A186" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="A187" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="A188" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="A189" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="A190" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="A191" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="A192" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="A193" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="A194" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="A195" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="A196" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="A197" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="A198" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="A199" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="A200" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="A201" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="A202" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="A203" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="A204" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="A205" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="A206" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="A207" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="A208" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="A209" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="A210" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="A211" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="A212" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="A213" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="A214" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="A215" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="A216" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="A217" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="A218" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="A219" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="A220" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="A221" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="A222" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="A223" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="A224" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="A225" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="A226" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="A227" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="A228" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="A229" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="A230" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="A231" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="A232" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="A233" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="A234" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="A235" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="A236" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="A237" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="A238" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="A239" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="A240" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="A241" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="A242" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="A243" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="A244" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="A245" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="A246" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="A247" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="A248" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="A249" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="A250" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="A251" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="A252" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="A253" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="A254" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="A255" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="A256" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="A257" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="A258" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="A259" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="A260" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="A261" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="A262" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="A263" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="A264" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="A265" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="A266" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="A267" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="A268" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="A269" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="A270" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="A271" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="A272" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="A273" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="A274" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="A275" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="A276" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="A277" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="A278" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="A279" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="A280" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="A281" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="A282" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="A283" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="A284" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="A285" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="A286" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="A287" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="A288" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="A289" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="A290" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="A291" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="A292" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="A293" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="A294" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="A295" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="A296" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="A297" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="A298" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="A299" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="A300" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="A301" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="A302" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="A303" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="A304" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="A305" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="A306" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="A307" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="A308" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="A309" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="A310" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="A311" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="A312" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="A313" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="A314" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="A315" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="A316" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="A317" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="A318" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="A319" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="A320" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="A321" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="A322" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="A323" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="A324" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="A325" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="A326" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="A327" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="A328" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="A329" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="A330" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="A331" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="A332" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="A333" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="A334" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="A335" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="A336" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="A337" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="A338" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="A339" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="A340" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="A341" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="A342" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="A343" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="A344" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="A345" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="A346" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="A347" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="A348" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="A349" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="A350" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="A351" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="A352" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="A353" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="A354" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="A355" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="A356" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="A357" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="A358" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="A359" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="A360" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="A361" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="A362" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="A363" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="A364" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="A365" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="A366" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="A367" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="A368" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="A369" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="A370" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="A371" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="A372" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="A373" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="A374" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="A375" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="A376" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="A377" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="A378" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="A379" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="A380" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="A381" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="A382" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="A383" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="A384" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="A385" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="A386" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="A387" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="A388" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="A389" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="A390" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="A391" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="A392" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="A393" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="A394" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="A395" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="A396" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="A397" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="A398" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="A399" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="A400" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="A401" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="A402" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="A403" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="A404" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
-    <hyperlink ref="A405" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
-    <hyperlink ref="A406" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
-    <hyperlink ref="A407" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
-    <hyperlink ref="A408" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
-    <hyperlink ref="A409" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
-    <hyperlink ref="A410" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
-    <hyperlink ref="A411" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
-    <hyperlink ref="A412" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
-    <hyperlink ref="A413" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
-    <hyperlink ref="A414" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
-    <hyperlink ref="A415" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
-    <hyperlink ref="A416" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
-    <hyperlink ref="A417" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
-    <hyperlink ref="A418" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
-    <hyperlink ref="A419" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
-    <hyperlink ref="A420" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
-    <hyperlink ref="A421" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
-    <hyperlink ref="A422" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
-    <hyperlink ref="A423" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
-    <hyperlink ref="A424" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
-    <hyperlink ref="A425" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
-    <hyperlink ref="A426" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
-    <hyperlink ref="A427" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
-    <hyperlink ref="A428" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
-    <hyperlink ref="A429" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
-    <hyperlink ref="A430" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
-    <hyperlink ref="A431" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
-    <hyperlink ref="A432" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
-    <hyperlink ref="A433" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
-    <hyperlink ref="A434" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
-    <hyperlink ref="A435" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
-    <hyperlink ref="A436" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
-    <hyperlink ref="A437" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
-    <hyperlink ref="A438" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
-    <hyperlink ref="A439" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
-    <hyperlink ref="A440" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
-    <hyperlink ref="A441" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
-    <hyperlink ref="A442" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
-    <hyperlink ref="A443" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
-    <hyperlink ref="A444" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
-    <hyperlink ref="A445" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
-    <hyperlink ref="A446" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
-    <hyperlink ref="A447" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
-    <hyperlink ref="A448" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
-    <hyperlink ref="A449" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
-    <hyperlink ref="A450" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
-    <hyperlink ref="A451" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
-    <hyperlink ref="A452" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
-    <hyperlink ref="A453" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
-    <hyperlink ref="A454" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
-    <hyperlink ref="A455" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
-    <hyperlink ref="A456" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
-    <hyperlink ref="A457" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
-    <hyperlink ref="A458" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
-    <hyperlink ref="A459" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
-    <hyperlink ref="A460" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
-    <hyperlink ref="A461" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
-    <hyperlink ref="A462" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
-    <hyperlink ref="A463" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
-    <hyperlink ref="A464" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
-    <hyperlink ref="A465" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
-    <hyperlink ref="A466" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
-    <hyperlink ref="A467" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
-    <hyperlink ref="A468" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
-    <hyperlink ref="A469" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
-    <hyperlink ref="A470" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
-    <hyperlink ref="A471" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
-    <hyperlink ref="A472" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
-    <hyperlink ref="A473" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
-    <hyperlink ref="A474" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
-    <hyperlink ref="A475" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
-    <hyperlink ref="A476" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
-    <hyperlink ref="A477" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
-    <hyperlink ref="A478" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
-    <hyperlink ref="A479" r:id="rId479" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
-    <hyperlink ref="A480" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
-    <hyperlink ref="A481" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
-    <hyperlink ref="A482" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
-    <hyperlink ref="A483" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
-    <hyperlink ref="A484" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
-    <hyperlink ref="A485" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
-    <hyperlink ref="A486" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
-    <hyperlink ref="A487" r:id="rId487" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
-    <hyperlink ref="A488" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
-    <hyperlink ref="A489" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
-    <hyperlink ref="A490" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
-    <hyperlink ref="A491" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
-    <hyperlink ref="A492" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
-    <hyperlink ref="A493" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
-    <hyperlink ref="A494" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
-    <hyperlink ref="A495" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
-    <hyperlink ref="A496" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
-    <hyperlink ref="A497" r:id="rId497" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
-    <hyperlink ref="A498" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
-    <hyperlink ref="A499" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
-    <hyperlink ref="A500" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
-    <hyperlink ref="A501" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
-    <hyperlink ref="A502" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
-    <hyperlink ref="A503" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
-    <hyperlink ref="A504" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
-    <hyperlink ref="A505" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
-    <hyperlink ref="A506" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
-    <hyperlink ref="A507" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
-    <hyperlink ref="A508" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
-    <hyperlink ref="A509" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
-    <hyperlink ref="A510" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
-    <hyperlink ref="A511" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
-    <hyperlink ref="A512" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
-    <hyperlink ref="A513" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
-    <hyperlink ref="A514" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
-    <hyperlink ref="A515" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
-    <hyperlink ref="A516" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
-    <hyperlink ref="A517" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
-    <hyperlink ref="A518" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
-    <hyperlink ref="A519" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
-    <hyperlink ref="A520" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
-    <hyperlink ref="A521" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
-    <hyperlink ref="A522" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
-    <hyperlink ref="A523" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
-    <hyperlink ref="A524" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
-    <hyperlink ref="A525" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
-    <hyperlink ref="A526" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
-    <hyperlink ref="A527" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
-    <hyperlink ref="A528" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
-    <hyperlink ref="A529" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
-    <hyperlink ref="A530" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
-    <hyperlink ref="A531" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
-    <hyperlink ref="A532" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
-    <hyperlink ref="A533" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
-    <hyperlink ref="A534" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
-    <hyperlink ref="A535" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
-    <hyperlink ref="A536" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
-    <hyperlink ref="A537" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
-    <hyperlink ref="A538" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
-    <hyperlink ref="A539" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
-    <hyperlink ref="A540" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
-    <hyperlink ref="A541" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
-    <hyperlink ref="A542" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
-    <hyperlink ref="A543" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
-    <hyperlink ref="A544" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
-    <hyperlink ref="A545" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
-    <hyperlink ref="A546" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
-    <hyperlink ref="A547" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
-    <hyperlink ref="A548" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
-    <hyperlink ref="A549" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
-    <hyperlink ref="A550" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
-    <hyperlink ref="A551" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
-    <hyperlink ref="A552" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
-    <hyperlink ref="A553" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
-    <hyperlink ref="A554" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
-    <hyperlink ref="A555" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
-    <hyperlink ref="A556" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
-    <hyperlink ref="A557" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
-    <hyperlink ref="A558" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
-    <hyperlink ref="A559" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
-    <hyperlink ref="A560" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
-    <hyperlink ref="A561" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
-    <hyperlink ref="A562" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
-    <hyperlink ref="A563" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
-    <hyperlink ref="A564" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
-    <hyperlink ref="A565" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
-    <hyperlink ref="A566" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
-    <hyperlink ref="A567" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
-    <hyperlink ref="A568" r:id="rId568" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
-    <hyperlink ref="A569" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
-    <hyperlink ref="A570" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
-    <hyperlink ref="A571" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
-    <hyperlink ref="A572" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
-    <hyperlink ref="A573" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
-    <hyperlink ref="A574" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
-    <hyperlink ref="A575" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
-    <hyperlink ref="A576" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
-    <hyperlink ref="A577" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
-    <hyperlink ref="A578" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
-    <hyperlink ref="A579" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
-    <hyperlink ref="A580" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
-    <hyperlink ref="A581" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
-    <hyperlink ref="A582" r:id="rId582" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
-    <hyperlink ref="A583" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
-    <hyperlink ref="A584" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
-    <hyperlink ref="A585" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
-    <hyperlink ref="A586" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
-    <hyperlink ref="A587" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
-    <hyperlink ref="A588" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
-    <hyperlink ref="A589" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
-    <hyperlink ref="A590" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
-    <hyperlink ref="A591" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
-    <hyperlink ref="A592" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
-    <hyperlink ref="A593" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
-    <hyperlink ref="A594" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
-    <hyperlink ref="A595" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
-    <hyperlink ref="A596" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
-    <hyperlink ref="A597" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
-    <hyperlink ref="A598" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
-    <hyperlink ref="A599" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
-    <hyperlink ref="A600" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
-    <hyperlink ref="A601" r:id="rId601" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
-    <hyperlink ref="A602" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
-    <hyperlink ref="A603" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
-    <hyperlink ref="A604" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
-    <hyperlink ref="A605" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
-    <hyperlink ref="A606" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
-    <hyperlink ref="A607" r:id="rId607" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
-    <hyperlink ref="A608" r:id="rId608" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
-    <hyperlink ref="A609" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
-    <hyperlink ref="A610" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
-    <hyperlink ref="A611" r:id="rId611" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
-    <hyperlink ref="A612" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
-    <hyperlink ref="A613" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
-    <hyperlink ref="A614" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
-    <hyperlink ref="A615" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
-    <hyperlink ref="A616" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
-    <hyperlink ref="A617" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
-    <hyperlink ref="A618" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
-    <hyperlink ref="A619" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
-    <hyperlink ref="A620" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
-    <hyperlink ref="A621" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
-    <hyperlink ref="A622" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
-    <hyperlink ref="A623" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
-    <hyperlink ref="A624" r:id="rId624" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
-    <hyperlink ref="A625" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
-    <hyperlink ref="A626" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
-    <hyperlink ref="A627" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
-    <hyperlink ref="A628" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
-    <hyperlink ref="A629" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
-    <hyperlink ref="A630" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
-    <hyperlink ref="A631" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
-    <hyperlink ref="A632" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
-    <hyperlink ref="A633" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
-    <hyperlink ref="A634" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
-    <hyperlink ref="A635" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
-    <hyperlink ref="A636" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
-    <hyperlink ref="A637" r:id="rId637" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
-    <hyperlink ref="A638" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
-    <hyperlink ref="A639" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
-    <hyperlink ref="A640" r:id="rId640" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
-    <hyperlink ref="A641" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
-    <hyperlink ref="A642" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
-    <hyperlink ref="A643" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
-    <hyperlink ref="A644" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
-    <hyperlink ref="A645" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
-    <hyperlink ref="A646" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
-    <hyperlink ref="A647" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
-    <hyperlink ref="A648" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
-    <hyperlink ref="A649" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
-    <hyperlink ref="A650" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
-    <hyperlink ref="A651" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
-    <hyperlink ref="A652" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
-    <hyperlink ref="A653" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
-    <hyperlink ref="A654" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
-    <hyperlink ref="A655" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
-    <hyperlink ref="A656" r:id="rId656" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
-    <hyperlink ref="A657" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
-    <hyperlink ref="A658" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
-    <hyperlink ref="A659" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
-    <hyperlink ref="A660" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
-    <hyperlink ref="A661" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
-    <hyperlink ref="A662" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
-    <hyperlink ref="A663" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
-    <hyperlink ref="A664" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
-    <hyperlink ref="A665" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
-    <hyperlink ref="A666" r:id="rId666" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
-    <hyperlink ref="A667" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
-    <hyperlink ref="A668" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
-    <hyperlink ref="A669" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
-    <hyperlink ref="A670" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
-    <hyperlink ref="A671" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
-    <hyperlink ref="A672" r:id="rId672" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
-    <hyperlink ref="A673" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
-    <hyperlink ref="A674" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
-    <hyperlink ref="A675" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
-    <hyperlink ref="A676" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
-    <hyperlink ref="A677" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
-    <hyperlink ref="A678" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
-    <hyperlink ref="A679" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
-    <hyperlink ref="A680" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
-    <hyperlink ref="A681" r:id="rId681" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
-    <hyperlink ref="A682" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
-    <hyperlink ref="A683" r:id="rId683" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
-    <hyperlink ref="A684" r:id="rId684" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
-    <hyperlink ref="A685" r:id="rId685" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
-    <hyperlink ref="A686" r:id="rId686" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
-    <hyperlink ref="A687" r:id="rId687" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
-    <hyperlink ref="A688" r:id="rId688" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
-    <hyperlink ref="A689" r:id="rId689" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
-    <hyperlink ref="A690" r:id="rId690" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
-    <hyperlink ref="A691" r:id="rId691" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
-    <hyperlink ref="A692" r:id="rId692" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
-    <hyperlink ref="A693" r:id="rId693" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
-    <hyperlink ref="A694" r:id="rId694" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
-    <hyperlink ref="A695" r:id="rId695" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
-    <hyperlink ref="A696" r:id="rId696" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
-    <hyperlink ref="A697" r:id="rId697" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
-    <hyperlink ref="A698" r:id="rId698" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
-    <hyperlink ref="A699" r:id="rId699" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
-    <hyperlink ref="A700" r:id="rId700" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
-    <hyperlink ref="A701" r:id="rId701" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
-    <hyperlink ref="A702" r:id="rId702" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
-    <hyperlink ref="A703" r:id="rId703" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
-    <hyperlink ref="A704" r:id="rId704" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
-    <hyperlink ref="A705" r:id="rId705" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
-    <hyperlink ref="A706" r:id="rId706" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
-    <hyperlink ref="A707" r:id="rId707" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
-    <hyperlink ref="A708" r:id="rId708" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
-    <hyperlink ref="A709" r:id="rId709" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
-    <hyperlink ref="A710" r:id="rId710" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
-    <hyperlink ref="A711" r:id="rId711" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
-    <hyperlink ref="A712" r:id="rId712" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
-    <hyperlink ref="A713" r:id="rId713" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
-    <hyperlink ref="A714" r:id="rId714" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
-    <hyperlink ref="A715" r:id="rId715" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
-    <hyperlink ref="A716" r:id="rId716" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
-    <hyperlink ref="A717" r:id="rId717" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
-    <hyperlink ref="A718" r:id="rId718" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
-    <hyperlink ref="A719" r:id="rId719" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
-    <hyperlink ref="A720" r:id="rId720" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
-    <hyperlink ref="A721" r:id="rId721" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
-    <hyperlink ref="A722" r:id="rId722" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
-    <hyperlink ref="A723" r:id="rId723" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
-    <hyperlink ref="A724" r:id="rId724" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
-    <hyperlink ref="A725" r:id="rId725" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
-    <hyperlink ref="A726" r:id="rId726" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
-    <hyperlink ref="A727" r:id="rId727" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
-    <hyperlink ref="A728" r:id="rId728" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
-    <hyperlink ref="A729" r:id="rId729" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
-    <hyperlink ref="A730" r:id="rId730" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
-    <hyperlink ref="A731" r:id="rId731" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
-    <hyperlink ref="A732" r:id="rId732" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
-    <hyperlink ref="A733" r:id="rId733" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
-    <hyperlink ref="A734" r:id="rId734" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
-    <hyperlink ref="A735" r:id="rId735" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
-    <hyperlink ref="A736" r:id="rId736" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
-    <hyperlink ref="A737" r:id="rId737" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
-    <hyperlink ref="A738" r:id="rId738" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
-    <hyperlink ref="A739" r:id="rId739" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
-    <hyperlink ref="A740" r:id="rId740" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
-    <hyperlink ref="A741" r:id="rId741" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
-    <hyperlink ref="A742" r:id="rId742" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
-    <hyperlink ref="A743" r:id="rId743" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
-    <hyperlink ref="A744" r:id="rId744" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
-    <hyperlink ref="A745" r:id="rId745" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
-    <hyperlink ref="A746" r:id="rId746" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
-    <hyperlink ref="A747" r:id="rId747" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
-    <hyperlink ref="A748" r:id="rId748" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
-    <hyperlink ref="A749" r:id="rId749" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
-    <hyperlink ref="A750" r:id="rId750" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
-    <hyperlink ref="A751" r:id="rId751" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
-    <hyperlink ref="A752" r:id="rId752" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
-    <hyperlink ref="A753" r:id="rId753" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
-    <hyperlink ref="A754" r:id="rId754" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
-    <hyperlink ref="A755" r:id="rId755" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
-    <hyperlink ref="A756" r:id="rId756" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
-    <hyperlink ref="A757" r:id="rId757" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
-    <hyperlink ref="A758" r:id="rId758" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
-    <hyperlink ref="A759" r:id="rId759" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
-    <hyperlink ref="A760" r:id="rId760" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
-    <hyperlink ref="A761" r:id="rId761" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
-    <hyperlink ref="A762" r:id="rId762" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
-    <hyperlink ref="A763" r:id="rId763" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
-    <hyperlink ref="A764" r:id="rId764" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
-    <hyperlink ref="A765" r:id="rId765" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
-    <hyperlink ref="A766" r:id="rId766" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
-    <hyperlink ref="A767" r:id="rId767" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
-    <hyperlink ref="A768" r:id="rId768" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
-    <hyperlink ref="A769" r:id="rId769" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
-    <hyperlink ref="A770" r:id="rId770" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
-    <hyperlink ref="A771" r:id="rId771" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
-    <hyperlink ref="A772" r:id="rId772" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
-    <hyperlink ref="A773" r:id="rId773" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
-    <hyperlink ref="A774" r:id="rId774" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
-    <hyperlink ref="A775" r:id="rId775" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
-    <hyperlink ref="A776" r:id="rId776" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
-    <hyperlink ref="A777" r:id="rId777" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
-    <hyperlink ref="A778" r:id="rId778" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
-    <hyperlink ref="A779" r:id="rId779" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
-    <hyperlink ref="A780" r:id="rId780" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
-    <hyperlink ref="A781" r:id="rId781" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
-    <hyperlink ref="A782" r:id="rId782" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
-    <hyperlink ref="A783" r:id="rId783" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
-    <hyperlink ref="A784" r:id="rId784" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
-    <hyperlink ref="A785" r:id="rId785" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
-    <hyperlink ref="A786" r:id="rId786" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
-    <hyperlink ref="A787" r:id="rId787" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
-    <hyperlink ref="A788" r:id="rId788" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
-    <hyperlink ref="A789" r:id="rId789" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
-    <hyperlink ref="A790" r:id="rId790" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
-    <hyperlink ref="A791" r:id="rId791" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
-    <hyperlink ref="A792" r:id="rId792" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
-    <hyperlink ref="A793" r:id="rId793" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
-    <hyperlink ref="A794" r:id="rId794" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
-    <hyperlink ref="A795" r:id="rId795" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
-    <hyperlink ref="A796" r:id="rId796" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
-    <hyperlink ref="A797" r:id="rId797" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
-    <hyperlink ref="A798" r:id="rId798" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
-    <hyperlink ref="A799" r:id="rId799" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
-    <hyperlink ref="A800" r:id="rId800" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
-    <hyperlink ref="A801" r:id="rId801" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
-    <hyperlink ref="A802" r:id="rId802" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
-    <hyperlink ref="A803" r:id="rId803" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
-    <hyperlink ref="A804" r:id="rId804" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
-    <hyperlink ref="A805" r:id="rId805" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
-    <hyperlink ref="A806" r:id="rId806" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
-    <hyperlink ref="A807" r:id="rId807" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
-    <hyperlink ref="A808" r:id="rId808" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
-    <hyperlink ref="A809" r:id="rId809" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
-    <hyperlink ref="A810" r:id="rId810" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
-    <hyperlink ref="A811" r:id="rId811" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
-    <hyperlink ref="A812" r:id="rId812" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
-    <hyperlink ref="A813" r:id="rId813" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
-    <hyperlink ref="A814" r:id="rId814" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
-    <hyperlink ref="A815" r:id="rId815" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
-    <hyperlink ref="A816" r:id="rId816" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
-    <hyperlink ref="A817" r:id="rId817" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
-    <hyperlink ref="A818" r:id="rId818" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
-    <hyperlink ref="A819" r:id="rId819" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
-    <hyperlink ref="A820" r:id="rId820" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
-    <hyperlink ref="A821" r:id="rId821" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
-    <hyperlink ref="A822" r:id="rId822" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
-    <hyperlink ref="A823" r:id="rId823" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
-    <hyperlink ref="A824" r:id="rId824" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
-    <hyperlink ref="A825" r:id="rId825" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
-    <hyperlink ref="A826" r:id="rId826" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
-    <hyperlink ref="A827" r:id="rId827" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
-    <hyperlink ref="A828" r:id="rId828" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
-    <hyperlink ref="A829" r:id="rId829" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
-    <hyperlink ref="A830" r:id="rId830" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
-    <hyperlink ref="A831" r:id="rId831" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
-    <hyperlink ref="A832" r:id="rId832" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
-    <hyperlink ref="A833" r:id="rId833" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
-    <hyperlink ref="A834" r:id="rId834" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
-    <hyperlink ref="A835" r:id="rId835" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
-    <hyperlink ref="A836" r:id="rId836" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
-    <hyperlink ref="A837" r:id="rId837" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
-    <hyperlink ref="A838" r:id="rId838" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
-    <hyperlink ref="A839" r:id="rId839" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
-    <hyperlink ref="A840" r:id="rId840" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
-    <hyperlink ref="A841" r:id="rId841" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
-    <hyperlink ref="A842" r:id="rId842" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
-    <hyperlink ref="A843" r:id="rId843" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
-    <hyperlink ref="A844" r:id="rId844" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
-    <hyperlink ref="A845" r:id="rId845" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
-    <hyperlink ref="A846" r:id="rId846" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
-    <hyperlink ref="A847" r:id="rId847" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
-    <hyperlink ref="A848" r:id="rId848" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
-    <hyperlink ref="A849" r:id="rId849" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
-    <hyperlink ref="A850" r:id="rId850" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
-    <hyperlink ref="A851" r:id="rId851" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
-    <hyperlink ref="A852" r:id="rId852" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
-    <hyperlink ref="A853" r:id="rId853" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
-    <hyperlink ref="A854" r:id="rId854" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
-    <hyperlink ref="A855" r:id="rId855" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
-    <hyperlink ref="A856" r:id="rId856" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
-    <hyperlink ref="A857" r:id="rId857" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
-    <hyperlink ref="A858" r:id="rId858" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
-    <hyperlink ref="A859" r:id="rId859" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
-    <hyperlink ref="A860" r:id="rId860" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
-    <hyperlink ref="A861" r:id="rId861" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
-    <hyperlink ref="A862" r:id="rId862" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
-    <hyperlink ref="A863" r:id="rId863" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
-    <hyperlink ref="A864" r:id="rId864" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
-    <hyperlink ref="A865" r:id="rId865" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
-    <hyperlink ref="A866" r:id="rId866" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
-    <hyperlink ref="A867" r:id="rId867" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
-    <hyperlink ref="A868" r:id="rId868" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
-    <hyperlink ref="A869" r:id="rId869" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
-    <hyperlink ref="A870" r:id="rId870" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
-    <hyperlink ref="A871" r:id="rId871" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
-    <hyperlink ref="A872" r:id="rId872" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
-    <hyperlink ref="A873" r:id="rId873" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
-    <hyperlink ref="A874" r:id="rId874" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
-    <hyperlink ref="A875" r:id="rId875" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
-    <hyperlink ref="A876" r:id="rId876" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
-    <hyperlink ref="A877" r:id="rId877" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
-    <hyperlink ref="A878" r:id="rId878" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
-    <hyperlink ref="A879" r:id="rId879" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
-    <hyperlink ref="A880" r:id="rId880" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
-    <hyperlink ref="A881" r:id="rId881" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
-    <hyperlink ref="A882" r:id="rId882" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
-    <hyperlink ref="A883" r:id="rId883" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
-    <hyperlink ref="A884" r:id="rId884" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
-    <hyperlink ref="A885" r:id="rId885" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
-    <hyperlink ref="A886" r:id="rId886" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
-    <hyperlink ref="A887" r:id="rId887" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
-    <hyperlink ref="A888" r:id="rId888" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
-    <hyperlink ref="A889" r:id="rId889" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
-    <hyperlink ref="A890" r:id="rId890" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
-    <hyperlink ref="A891" r:id="rId891" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
-    <hyperlink ref="A892" r:id="rId892" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
-    <hyperlink ref="A893" r:id="rId893" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
-    <hyperlink ref="A894" r:id="rId894" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
-    <hyperlink ref="A895" r:id="rId895" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
-    <hyperlink ref="A896" r:id="rId896" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
-    <hyperlink ref="A897" r:id="rId897" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
-    <hyperlink ref="A898" r:id="rId898" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
-    <hyperlink ref="A899" r:id="rId899" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
-    <hyperlink ref="A900" r:id="rId900" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
-    <hyperlink ref="A901" r:id="rId901" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
-    <hyperlink ref="A902" r:id="rId902" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
-    <hyperlink ref="A903" r:id="rId903" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
-    <hyperlink ref="A904" r:id="rId904" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
-    <hyperlink ref="A905" r:id="rId905" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
-    <hyperlink ref="A906" r:id="rId906" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
-    <hyperlink ref="A907" r:id="rId907" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
-    <hyperlink ref="A908" r:id="rId908" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
-    <hyperlink ref="A909" r:id="rId909" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
-    <hyperlink ref="A910" r:id="rId910" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
-    <hyperlink ref="A911" r:id="rId911" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
-    <hyperlink ref="A912" r:id="rId912" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
-    <hyperlink ref="A913" r:id="rId913" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
-    <hyperlink ref="A914" r:id="rId914" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
-    <hyperlink ref="A915" r:id="rId915" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
-    <hyperlink ref="A916" r:id="rId916" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
-    <hyperlink ref="A917" r:id="rId917" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
-    <hyperlink ref="A918" r:id="rId918" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
-    <hyperlink ref="A919" r:id="rId919" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
-    <hyperlink ref="A920" r:id="rId920" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
-    <hyperlink ref="A921" r:id="rId921" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
-    <hyperlink ref="A922" r:id="rId922" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
-    <hyperlink ref="A923" r:id="rId923" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
-    <hyperlink ref="A924" r:id="rId924" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
-    <hyperlink ref="A925" r:id="rId925" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
-    <hyperlink ref="A926" r:id="rId926" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
-    <hyperlink ref="A927" r:id="rId927" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
-    <hyperlink ref="A928" r:id="rId928" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
-    <hyperlink ref="A929" r:id="rId929" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
-    <hyperlink ref="A930" r:id="rId930" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
-    <hyperlink ref="A931" r:id="rId931" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
-    <hyperlink ref="A932" r:id="rId932" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
-    <hyperlink ref="A933" r:id="rId933" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
-    <hyperlink ref="A934" r:id="rId934" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
-    <hyperlink ref="A935" r:id="rId935" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
-    <hyperlink ref="A936" r:id="rId936" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
-    <hyperlink ref="A937" r:id="rId937" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
-    <hyperlink ref="A938" r:id="rId938" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
-    <hyperlink ref="A939" r:id="rId939" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
-    <hyperlink ref="A940" r:id="rId940" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
-    <hyperlink ref="A941" r:id="rId941" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
-    <hyperlink ref="A942" r:id="rId942" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
-    <hyperlink ref="A943" r:id="rId943" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
-    <hyperlink ref="A944" r:id="rId944" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
-    <hyperlink ref="A945" r:id="rId945" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
-    <hyperlink ref="A946" r:id="rId946" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
-    <hyperlink ref="A947" r:id="rId947" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
-    <hyperlink ref="A948" r:id="rId948" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
-    <hyperlink ref="A949" r:id="rId949" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
-    <hyperlink ref="A950" r:id="rId950" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
-    <hyperlink ref="A951" r:id="rId951" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
-    <hyperlink ref="A952" r:id="rId952" xr:uid="{00000000-0004-0000-0000-0000B7030000}"/>
-    <hyperlink ref="A953" r:id="rId953" xr:uid="{00000000-0004-0000-0000-0000B8030000}"/>
-    <hyperlink ref="A954" r:id="rId954" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
-    <hyperlink ref="A955" r:id="rId955" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
-    <hyperlink ref="A956" r:id="rId956" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
-    <hyperlink ref="A957" r:id="rId957" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
-    <hyperlink ref="A958" r:id="rId958" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
-    <hyperlink ref="A959" r:id="rId959" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
-    <hyperlink ref="A960" r:id="rId960" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
-    <hyperlink ref="A961" r:id="rId961" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
-    <hyperlink ref="A962" r:id="rId962" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
-    <hyperlink ref="A963" r:id="rId963" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
-    <hyperlink ref="A964" r:id="rId964" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
-    <hyperlink ref="A965" r:id="rId965" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
-    <hyperlink ref="A966" r:id="rId966" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
-    <hyperlink ref="A967" r:id="rId967" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
-    <hyperlink ref="A968" r:id="rId968" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
-    <hyperlink ref="A969" r:id="rId969" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
-    <hyperlink ref="A970" r:id="rId970" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
-    <hyperlink ref="A971" r:id="rId971" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
-    <hyperlink ref="A972" r:id="rId972" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
-    <hyperlink ref="A973" r:id="rId973" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
-    <hyperlink ref="A974" r:id="rId974" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
-    <hyperlink ref="A975" r:id="rId975" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
-    <hyperlink ref="A976" r:id="rId976" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
-    <hyperlink ref="A977" r:id="rId977" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
-    <hyperlink ref="A978" r:id="rId978" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
-    <hyperlink ref="A979" r:id="rId979" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
-    <hyperlink ref="A980" r:id="rId980" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
-    <hyperlink ref="A981" r:id="rId981" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
-    <hyperlink ref="A982" r:id="rId982" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
-    <hyperlink ref="A983" r:id="rId983" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
-    <hyperlink ref="A984" r:id="rId984" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
-    <hyperlink ref="A985" r:id="rId985" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>